--- a/src/renderer/i18n/result.xlsx
+++ b/src/renderer/i18n/result.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D136"/>
+  <dimension ref="A1:D236"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -388,7 +388,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
-        <v>最新导出时间: 2019-4-22 15:20:29 , 要导入的时候记得把excel关了。</v>
+        <v>最新导出时间: 2019-4-29 16:14:38 , 要导入的时候记得把excel关了。</v>
       </c>
     </row>
     <row r="2">
@@ -399,10 +399,10 @@
         <v xml:space="preserve"> 字段名 </v>
       </c>
       <c r="C2" t="str">
-        <v>简体中文 zh-CN zh</v>
+        <v>简体中文 zh zh</v>
       </c>
       <c r="D2" t="str">
-        <v>英文 en-US en</v>
+        <v>英文 en en</v>
       </c>
     </row>
     <row r="3">
@@ -519,7 +519,7 @@
         <v>登录</v>
       </c>
       <c r="D11" t="str">
-        <v>login</v>
+        <v>Login</v>
       </c>
     </row>
     <row r="12">
@@ -1804,6 +1804,9 @@
       <c r="C132" t="str">
         <v>显示主面板</v>
       </c>
+      <c r="D132" t="str">
+        <v>Display main panel</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="str">
@@ -1815,6 +1818,9 @@
       <c r="C133" t="str">
         <v>退出</v>
       </c>
+      <c r="D133" t="str">
+        <v>Quit</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="str">
@@ -1826,6 +1832,9 @@
       <c r="C134" t="str">
         <v>加入会议</v>
       </c>
+      <c r="D134" t="str">
+        <v>Meet now</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="str">
@@ -1837,6 +1846,9 @@
       <c r="C135" t="str">
         <v>注销</v>
       </c>
+      <c r="D135" t="str">
+        <v>Log out</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="str">
@@ -1848,10 +1860,1091 @@
       <c r="C136" t="str">
         <v>语言</v>
       </c>
+      <c r="D136" t="str">
+        <v>Language</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="str">
+        <v>dial</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="str">
+        <v/>
+      </c>
+      <c r="B139" t="str">
+        <v>title.conferenceDetail</v>
+      </c>
+      <c r="C139" t="str">
+        <v>会议详情</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="str">
+        <v/>
+      </c>
+      <c r="B140" t="str">
+        <v>title.callDetail</v>
+      </c>
+      <c r="C140" t="str">
+        <v>通话详情</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="str">
+        <v/>
+      </c>
+      <c r="B141" t="str">
+        <v>title.dial</v>
+      </c>
+      <c r="C141" t="str">
+        <v>拨号</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="str">
+        <v/>
+      </c>
+      <c r="B142" t="str">
+        <v>dialpad.clear</v>
+      </c>
+      <c r="C142" t="str">
+        <v>清空</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="str">
+        <v/>
+      </c>
+      <c r="B143" t="str">
+        <v>dialpad.backspace</v>
+      </c>
+      <c r="C143" t="str">
+        <v>退格</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="str">
+        <v/>
+      </c>
+      <c r="B144" t="str">
+        <v>dialpad.addLocal</v>
+      </c>
+      <c r="C144" t="str">
+        <v>添加为本地联系人</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="str">
+        <v/>
+      </c>
+      <c r="B145" t="str">
+        <v>dialpad.videoCall</v>
+      </c>
+      <c r="C145" t="str">
+        <v>视频呼叫</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="str">
+        <v/>
+      </c>
+      <c r="B146" t="str">
+        <v>dialpad.audioCall</v>
+      </c>
+      <c r="C146" t="str">
+        <v>音频呼叫</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="str">
+        <v/>
+      </c>
+      <c r="B147" t="str">
+        <v>dialpad.more</v>
+      </c>
+      <c r="C147" t="str">
+        <v>更多</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="str">
+        <v/>
+      </c>
+      <c r="B148" t="str">
+        <v>dialpad.del</v>
+      </c>
+      <c r="C148" t="str">
+        <v>删除</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="str">
+        <v/>
+      </c>
+      <c r="B149" t="str">
+        <v>record.all</v>
+      </c>
+      <c r="C149" t="str">
+        <v>所有通话</v>
+      </c>
+      <c r="D149" t="str">
+        <v>所有通话</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="str">
+        <v/>
+      </c>
+      <c r="B150" t="str">
+        <v>record.missed</v>
+      </c>
+      <c r="C150" t="str">
+        <v>未接来电</v>
+      </c>
+      <c r="D150" t="str">
+        <v>未接来电</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="str">
+        <v/>
+      </c>
+      <c r="B151" t="str">
+        <v>record.today</v>
+      </c>
+      <c r="C151" t="str">
+        <v>今天</v>
+      </c>
+      <c r="D151" t="str">
+        <v>today</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="str">
+        <v/>
+      </c>
+      <c r="B152" t="str">
+        <v>record.yesterday</v>
+      </c>
+      <c r="C152" t="str">
+        <v>昨天</v>
+      </c>
+      <c r="D152" t="str">
+        <v>yesterday</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="str">
+        <v/>
+      </c>
+      <c r="B153" t="str">
+        <v>record.callOut</v>
+      </c>
+      <c r="C153" t="str">
+        <v>呼出</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="str">
+        <v/>
+      </c>
+      <c r="B154" t="str">
+        <v>record.refuse</v>
+      </c>
+      <c r="C154" t="str">
+        <v>已拒接</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="str">
+        <v/>
+      </c>
+      <c r="B155" t="str">
+        <v>record.missCall</v>
+      </c>
+      <c r="C155" t="str">
+        <v>未接</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="str">
+        <v/>
+      </c>
+      <c r="B156" t="str">
+        <v>record.callIn</v>
+      </c>
+      <c r="C156" t="str">
+        <v>呼入</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="str">
+        <v/>
+      </c>
+      <c r="B157" t="str">
+        <v>button.video</v>
+      </c>
+      <c r="C157" t="str">
+        <v>视频通话</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="str">
+        <v/>
+      </c>
+      <c r="B158" t="str">
+        <v>button.audio</v>
+      </c>
+      <c r="C158" t="str">
+        <v>音频通话</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="str">
+        <v/>
+      </c>
+      <c r="B159" t="str">
+        <v>conferenceDetail</v>
+      </c>
+      <c r="D159" t="str">
+        <v>会议详情</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="str">
+        <v/>
+      </c>
+      <c r="B160" t="str">
+        <v>callDetail</v>
+      </c>
+      <c r="D160" t="str">
+        <v>通话详情</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="str">
+        <v/>
+      </c>
+      <c r="B161" t="str">
+        <v>dial</v>
+      </c>
+      <c r="D161" t="str">
+        <v>Dial</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="str">
+        <v>contact</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="str">
+        <v/>
+      </c>
+      <c r="B164" t="str">
+        <v>common.add</v>
+      </c>
+      <c r="C164" t="str">
+        <v>添加联系人</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="str">
+        <v/>
+      </c>
+      <c r="B165" t="str">
+        <v>common.more</v>
+      </c>
+      <c r="C165" t="str">
+        <v>更多</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="str">
+        <v/>
+      </c>
+      <c r="B166" t="str">
+        <v>common.person</v>
+      </c>
+      <c r="C166" t="str">
+        <v>人</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="str">
+        <v/>
+      </c>
+      <c r="B167" t="str">
+        <v>local.describe</v>
+      </c>
+      <c r="C167" t="str">
+        <v>本地联系人</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="str">
+        <v/>
+      </c>
+      <c r="B168" t="str">
+        <v>frequent.noFrequent</v>
+      </c>
+      <c r="C168" t="str">
+        <v>暂未添加常用联系人</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="str">
+        <v/>
+      </c>
+      <c r="B169" t="str">
+        <v>frequent.addFrequentGroup</v>
+      </c>
+      <c r="C169" t="str">
+        <v>添加常用联系人分组</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="str">
+        <v/>
+      </c>
+      <c r="B170" t="str">
+        <v>frequent.addGroup</v>
+      </c>
+      <c r="C170" t="str">
+        <v>添加分组</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="str">
+        <v/>
+      </c>
+      <c r="B171" t="str">
+        <v>frequent.editGroup</v>
+      </c>
+      <c r="C171" t="str">
+        <v>编辑分组</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="str">
+        <v/>
+      </c>
+      <c r="B172" t="str">
+        <v>frequent.deleteGroup</v>
+      </c>
+      <c r="C172" t="str">
+        <v>删除分组</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="str">
+        <v/>
+      </c>
+      <c r="B173" t="str">
+        <v>frequent.moveContact</v>
+      </c>
+      <c r="C173" t="str">
+        <v>移动该联系人至</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="str">
+        <v/>
+      </c>
+      <c r="B174" t="str">
+        <v>frequent.noOtherGroup</v>
+      </c>
+      <c r="C174" t="str">
+        <v>暂无其他分组</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="str">
+        <v/>
+      </c>
+      <c r="B175" t="str">
+        <v>frequent.removeContact</v>
+      </c>
+      <c r="C175" t="str">
+        <v>移除该常用联系人</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="str">
+        <v/>
+      </c>
+      <c r="B176" t="str">
+        <v>corporate.describe</v>
+      </c>
+      <c r="C176" t="str">
+        <v>企业联系人</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="str">
+        <v/>
+      </c>
+      <c r="B177" t="str">
+        <v>label.name</v>
+      </c>
+      <c r="C177" t="str">
+        <v>姓名</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="str">
+        <v/>
+      </c>
+      <c r="B178" t="str">
+        <v>label.account</v>
+      </c>
+      <c r="C178" t="str">
+        <v>账号</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="str">
+        <v/>
+      </c>
+      <c r="B179" t="str">
+        <v>label.phone</v>
+      </c>
+      <c r="C179" t="str">
+        <v>手机</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="str">
+        <v/>
+      </c>
+      <c r="B180" t="str">
+        <v>label.email</v>
+      </c>
+      <c r="C180" t="str">
+        <v>邮箱</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="str">
+        <v/>
+      </c>
+      <c r="B181" t="str">
+        <v>label.number</v>
+      </c>
+      <c r="C181" t="str">
+        <v>号码</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="str">
+        <v/>
+      </c>
+      <c r="B182" t="str">
+        <v>label.group</v>
+      </c>
+      <c r="C182" t="str">
+        <v>分组</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="str">
+        <v/>
+      </c>
+      <c r="B183" t="str">
+        <v>label.department</v>
+      </c>
+      <c r="C183" t="str">
+        <v>部门</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="str">
+        <v/>
+      </c>
+      <c r="B184" t="str">
+        <v>label.organizer</v>
+      </c>
+      <c r="C184" t="str">
+        <v>组织者</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="str">
+        <v/>
+      </c>
+      <c r="B185" t="str">
+        <v>label.noEmail</v>
+      </c>
+      <c r="C185" t="str">
+        <v>暂无邮箱</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="str">
+        <v/>
+      </c>
+      <c r="B186" t="str">
+        <v>label.unknown</v>
+      </c>
+      <c r="C186" t="str">
+        <v>未知联系人</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="str">
+        <v/>
+      </c>
+      <c r="B187" t="str">
+        <v>label.unknownInfo</v>
+      </c>
+      <c r="C187" t="str">
+        <v>暂时无法获取当前联系人的个性签名信息。</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="str">
+        <v/>
+      </c>
+      <c r="B188" t="str">
+        <v>label.unknownOrganizer</v>
+      </c>
+      <c r="C188" t="str">
+        <v>暂时无法获取当前会议的组织者。</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="str">
+        <v/>
+      </c>
+      <c r="B189" t="str">
+        <v>label.unknownDevice</v>
+      </c>
+      <c r="C189" t="str">
+        <v>暂时无法获取当前设备绑定的会议室。</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="str">
+        <v/>
+      </c>
+      <c r="B190" t="str">
+        <v>label.unknownVMR</v>
+      </c>
+      <c r="C190" t="str">
+        <v>暂时无法获取当前虚拟会议模式。</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="str">
+        <v/>
+      </c>
+      <c r="B191" t="str">
+        <v>label.videoConference</v>
+      </c>
+      <c r="C191" t="str">
+        <v>视频会议</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="str">
+        <v/>
+      </c>
+      <c r="B192" t="str">
+        <v>label.conferenceId</v>
+      </c>
+      <c r="C192" t="str">
+        <v>会议ID</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="str">
+        <v/>
+      </c>
+      <c r="B193" t="str">
+        <v>label.serviceNumber</v>
+      </c>
+      <c r="C193" t="str">
+        <v>服务号</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="str">
+        <v/>
+      </c>
+      <c r="B194" t="str">
+        <v>label.noContact</v>
+      </c>
+      <c r="C194" t="str">
+        <v>暂无联系人</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="str">
+        <v/>
+      </c>
+      <c r="B195" t="str">
+        <v>placeholder.inputName</v>
+      </c>
+      <c r="C195" t="str">
+        <v>请输入姓名</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="str">
+        <v/>
+      </c>
+      <c r="B196" t="str">
+        <v>placeholder.inputAccount</v>
+      </c>
+      <c r="C196" t="str">
+        <v>请输入账号</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="str">
+        <v/>
+      </c>
+      <c r="B197" t="str">
+        <v>placeholder.inputPhone</v>
+      </c>
+      <c r="C197" t="str">
+        <v>请输入手机号</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="str">
+        <v/>
+      </c>
+      <c r="B198" t="str">
+        <v>placeholder.inputEmail</v>
+      </c>
+      <c r="C198" t="str">
+        <v>请输入邮箱</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="str">
+        <v/>
+      </c>
+      <c r="B199" t="str">
+        <v>message.success</v>
+      </c>
+      <c r="C199" t="str">
+        <v>操作成功！</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="str">
+        <v/>
+      </c>
+      <c r="B200" t="str">
+        <v>message.inputName</v>
+      </c>
+      <c r="C200" t="str">
+        <v>请输入用户姓名！</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="str">
+        <v/>
+      </c>
+      <c r="B201" t="str">
+        <v>message.inputAccount</v>
+      </c>
+      <c r="C201" t="str">
+        <v>请输入账号！</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="str">
+        <v/>
+      </c>
+      <c r="B202" t="str">
+        <v>message.nameNoLess64</v>
+      </c>
+      <c r="C202" t="str">
+        <v>用户名不能少于64位！</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="str">
+        <v/>
+      </c>
+      <c r="B203" t="str">
+        <v>message.accountNoLess20</v>
+      </c>
+      <c r="C203" t="str">
+        <v>账号不能少于20位！</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="str">
+        <v/>
+      </c>
+      <c r="B204" t="str">
+        <v>message.phoneNoMore11</v>
+      </c>
+      <c r="C204" t="str">
+        <v>手机号不能超过11位!</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="str">
+        <v/>
+      </c>
+      <c r="B205" t="str">
+        <v>message.wrongPhoneNumber</v>
+      </c>
+      <c r="C205" t="str">
+        <v>手机号格式不正确!</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="str">
+        <v/>
+      </c>
+      <c r="B206" t="str">
+        <v>message.emailNoMore254</v>
+      </c>
+      <c r="C206" t="str">
+        <v>邮箱不能超过254位!</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="str">
+        <v/>
+      </c>
+      <c r="B207" t="str">
+        <v>message.wrongEmail</v>
+      </c>
+      <c r="C207" t="str">
+        <v>邮箱格式不正确！</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="str">
+        <v/>
+      </c>
+      <c r="B208" t="str">
+        <v>message.addContact</v>
+      </c>
+      <c r="C208" t="str">
+        <v>您最多只能添加{number}个联系人</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="str">
+        <v/>
+      </c>
+      <c r="B209" t="str">
+        <v>message.confirmDelete</v>
+      </c>
+      <c r="C209" t="str">
+        <v>确认删除用户{name}？</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="str">
+        <v/>
+      </c>
+      <c r="B210" t="str">
+        <v>message.deleteSuccess</v>
+      </c>
+      <c r="C210" t="str">
+        <v>删除成功</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="str">
+        <v/>
+      </c>
+      <c r="B211" t="str">
+        <v>message.deleteFailed</v>
+      </c>
+      <c r="C211" t="str">
+        <v>删除失败，请重试!</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="str">
+        <v/>
+      </c>
+      <c r="B212" t="str">
+        <v>message.confirmDeleteGroup</v>
+      </c>
+      <c r="C212" t="str">
+        <v>确认删除当前分组？</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="str">
+        <v/>
+      </c>
+      <c r="B213" t="str">
+        <v>message.moveSuccess</v>
+      </c>
+      <c r="C213" t="str">
+        <v>移动成功</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="str">
+        <v/>
+      </c>
+      <c r="B214" t="str">
+        <v>message.moveFailed</v>
+      </c>
+      <c r="C214" t="str">
+        <v>移动失败，可能目标分组已经存在此联系人，请重试</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="str">
+        <v/>
+      </c>
+      <c r="B215" t="str">
+        <v>message.sureToDelFreContact</v>
+      </c>
+      <c r="C215" t="str">
+        <v>确认删除当前常用联系人?</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="str">
+        <v/>
+      </c>
+      <c r="B216" t="str">
+        <v>status.cancel</v>
+      </c>
+      <c r="C216" t="str">
+        <v>已取消</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="str">
+        <v/>
+      </c>
+      <c r="B217" t="str">
+        <v>button.confirm</v>
+      </c>
+      <c r="C217" t="str">
+        <v>确定</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="str">
+        <v/>
+      </c>
+      <c r="B218" t="str">
+        <v>button.cancel</v>
+      </c>
+      <c r="C218" t="str">
+        <v>取消</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="str">
+        <v/>
+      </c>
+      <c r="B219" t="str">
+        <v>button.editContact</v>
+      </c>
+      <c r="C219" t="str">
+        <v>编辑该联系人</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="str">
+        <v/>
+      </c>
+      <c r="B220" t="str">
+        <v>button.deleteContact</v>
+      </c>
+      <c r="C220" t="str">
+        <v>删除该联系人</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="str">
+        <v/>
+      </c>
+      <c r="B221" t="str">
+        <v>button.back</v>
+      </c>
+      <c r="C221" t="str">
+        <v>返回</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="str">
+        <v/>
+      </c>
+      <c r="B222" t="str">
+        <v>button.meetingNow</v>
+      </c>
+      <c r="C222" t="str">
+        <v>立即开会</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="str">
+        <v/>
+      </c>
+      <c r="B223" t="str">
+        <v>titles.search</v>
+      </c>
+      <c r="C223" t="str">
+        <v>拨号搜素结果</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="str">
+        <v/>
+      </c>
+      <c r="B224" t="str">
+        <v>titles.callGroup</v>
+      </c>
+      <c r="C224" t="str">
+        <v>发起群呼</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="str">
+        <v/>
+      </c>
+      <c r="B225" t="str">
+        <v>local.title.addAs</v>
+      </c>
+      <c r="C225" t="str">
+        <v>添加为本地联系人</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="str">
+        <v/>
+      </c>
+      <c r="B226" t="str">
+        <v>local.title.add</v>
+      </c>
+      <c r="C226" t="str">
+        <v>添加本地联系人</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="str">
+        <v/>
+      </c>
+      <c r="B227" t="str">
+        <v>local.title.edit</v>
+      </c>
+      <c r="C227" t="str">
+        <v>编辑本地联系人</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="str">
+        <v/>
+      </c>
+      <c r="B228" t="str">
+        <v>local.title.noContact</v>
+      </c>
+      <c r="C228" t="str">
+        <v>暂未添加本地联系人</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="str">
+        <v/>
+      </c>
+      <c r="B229" t="str">
+        <v>modal.placeholder.enterGroupName</v>
+      </c>
+      <c r="C229" t="str">
+        <v>请输入分组名称</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="str">
+        <v/>
+      </c>
+      <c r="B230" t="str">
+        <v>modal.title.addGroup</v>
+      </c>
+      <c r="C230" t="str">
+        <v>添加分组</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="str">
+        <v/>
+      </c>
+      <c r="B231" t="str">
+        <v>modal.title.updateGroup</v>
+      </c>
+      <c r="C231" t="str">
+        <v>更新分组</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="str">
+        <v/>
+      </c>
+      <c r="B232" t="str">
+        <v>modal.title.groupNoMore30</v>
+      </c>
+      <c r="C232" t="str">
+        <v>分组长度不能超过30</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="str">
+        <v/>
+      </c>
+      <c r="B233" t="str">
+        <v>modal.title.groupNameNoEmpty</v>
+      </c>
+      <c r="C233" t="str">
+        <v>分组名称不能为空</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="str">
+        <v/>
+      </c>
+      <c r="B234" t="str">
+        <v>modal.message.updateSuccess</v>
+      </c>
+      <c r="C234" t="str">
+        <v>更新成功!</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="str">
+        <v/>
+      </c>
+      <c r="B235" t="str">
+        <v>modal.message.addSuccess</v>
+      </c>
+      <c r="C235" t="str">
+        <v>添加成功!</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="str">
+        <v/>
+      </c>
+      <c r="B236" t="str">
+        <v>modal.message.sameGroupName</v>
+      </c>
+      <c r="C236" t="str">
+        <v>您已经添加了相同的分组！</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D136"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D236"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/src/renderer/i18n/result.xlsx
+++ b/src/renderer/i18n/result.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D236"/>
+  <dimension ref="A1:D578"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -388,7 +388,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
-        <v>最新导出时间: 2019-4-29 16:14:38 , 要导入的时候记得把excel关了。</v>
+        <v>最新导出时间: 2019-5-9 10:18:55 , 要导入的时候记得把excel关了。</v>
       </c>
     </row>
     <row r="2">
@@ -402,7 +402,7 @@
         <v>简体中文 zh zh</v>
       </c>
       <c r="D2" t="str">
-        <v>英文 en en</v>
+        <v>English en en</v>
       </c>
     </row>
     <row r="3">
@@ -415,13 +415,10 @@
         <v/>
       </c>
       <c r="B4" t="str">
-        <v>caption</v>
+        <v>history</v>
       </c>
       <c r="C4" t="str">
-        <v>Yealink</v>
-      </c>
-      <c r="D4" t="str">
-        <v>Yealink for english</v>
+        <v>历史记录</v>
       </c>
     </row>
     <row r="5">
@@ -429,13 +426,10 @@
         <v/>
       </c>
       <c r="B5" t="str">
-        <v>phonePlaceHolder</v>
+        <v>clear</v>
       </c>
       <c r="C5" t="str">
-        <v>电话或电子邮件</v>
-      </c>
-      <c r="D5" t="str">
-        <v>phone or email</v>
+        <v>清空</v>
       </c>
     </row>
     <row r="6">
@@ -443,13 +437,10 @@
         <v/>
       </c>
       <c r="B6" t="str">
-        <v>passwordPlaceHolder</v>
+        <v>capitalLocked</v>
       </c>
       <c r="C6" t="str">
-        <v>密码</v>
-      </c>
-      <c r="D6" t="str">
-        <v>password</v>
+        <v>大写锁定已打开</v>
       </c>
     </row>
     <row r="7">
@@ -457,13 +448,10 @@
         <v/>
       </c>
       <c r="B7" t="str">
-        <v>serverPlaceHolder</v>
+        <v>rememberPassword</v>
       </c>
       <c r="C7" t="str">
-        <v>服务器地址</v>
-      </c>
-      <c r="D7" t="str">
-        <v>server address</v>
+        <v>记住密码</v>
       </c>
     </row>
     <row r="8">
@@ -471,13 +459,10 @@
         <v/>
       </c>
       <c r="B8" t="str">
-        <v>rememberPsd</v>
+        <v>autoLogin</v>
       </c>
       <c r="C8" t="str">
-        <v>记住密码</v>
-      </c>
-      <c r="D8" t="str">
-        <v>remenber password</v>
+        <v>自动登录</v>
       </c>
     </row>
     <row r="9">
@@ -485,13 +470,10 @@
         <v/>
       </c>
       <c r="B9" t="str">
-        <v>autoLogin</v>
+        <v>login</v>
       </c>
       <c r="C9" t="str">
-        <v>自动登录</v>
-      </c>
-      <c r="D9" t="str">
-        <v>auto login</v>
+        <v>登录</v>
       </c>
     </row>
     <row r="10">
@@ -499,27 +481,21 @@
         <v/>
       </c>
       <c r="B10" t="str">
-        <v>joinMeeting</v>
+        <v>join</v>
       </c>
       <c r="C10" t="str">
         <v>加入会议</v>
       </c>
-      <c r="D10" t="str">
-        <v>join meeting</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
         <v/>
       </c>
       <c r="B11" t="str">
-        <v>login</v>
+        <v>forgetPassword</v>
       </c>
       <c r="C11" t="str">
-        <v>登录</v>
-      </c>
-      <c r="D11" t="str">
-        <v>Login</v>
+        <v>忘记密码</v>
       </c>
     </row>
     <row r="12">
@@ -527,18 +503,32 @@
         <v/>
       </c>
       <c r="B12" t="str">
-        <v>setting</v>
+        <v>regist</v>
       </c>
       <c r="C12" t="str">
-        <v>设置</v>
-      </c>
-      <c r="D12" t="str">
-        <v>setting</v>
+        <v>注册账号</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v/>
+      </c>
+      <c r="B13" t="str">
+        <v>firstLogin</v>
+      </c>
+      <c r="C13" t="str">
+        <v>首次登陆请先设置服务器</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>feedback</v>
+        <v/>
+      </c>
+      <c r="B14" t="str">
+        <v>serverSetting</v>
+      </c>
+      <c r="C14" t="str">
+        <v>服务器设置</v>
       </c>
     </row>
     <row r="15">
@@ -546,10 +536,10 @@
         <v/>
       </c>
       <c r="B15" t="str">
-        <v>title</v>
+        <v>proxyServerSetting</v>
       </c>
       <c r="C15" t="str">
-        <v>意见反馈</v>
+        <v>代理服务器设置</v>
       </c>
     </row>
     <row r="16">
@@ -557,10 +547,10 @@
         <v/>
       </c>
       <c r="B16" t="str">
-        <v>submitButton</v>
+        <v>proxyServerAddress</v>
       </c>
       <c r="C16" t="str">
-        <v>提交</v>
+        <v>代理服务器地址</v>
       </c>
     </row>
     <row r="17">
@@ -568,10 +558,10 @@
         <v/>
       </c>
       <c r="B17" t="str">
-        <v>cancelButton</v>
+        <v>port</v>
       </c>
       <c r="C17" t="str">
-        <v>取消</v>
+        <v>端口</v>
       </c>
     </row>
     <row r="18">
@@ -579,10 +569,10 @@
         <v/>
       </c>
       <c r="B18" t="str">
-        <v>problemDescription</v>
+        <v>about</v>
       </c>
       <c r="C18" t="str">
-        <v>问题描述</v>
+        <v>关于</v>
       </c>
     </row>
     <row r="19">
@@ -590,10 +580,10 @@
         <v/>
       </c>
       <c r="B19" t="str">
-        <v>contactWay</v>
+        <v>clickAgree</v>
       </c>
       <c r="C19" t="str">
-        <v>联系方式</v>
+        <v>点击登录则代表您同意</v>
       </c>
     </row>
     <row r="20">
@@ -601,10 +591,10 @@
         <v/>
       </c>
       <c r="B20" t="str">
-        <v>uploadImage</v>
+        <v>userProtocol</v>
       </c>
       <c r="C20" t="str">
-        <v>上传图片</v>
+        <v>《用户协议》</v>
       </c>
     </row>
     <row r="21">
@@ -612,10 +602,10 @@
         <v/>
       </c>
       <c r="B21" t="str">
-        <v>requried</v>
+        <v>privacyPolicy</v>
       </c>
       <c r="C21" t="str">
-        <v>必填</v>
+        <v>《隐私政策》</v>
       </c>
     </row>
     <row r="22">
@@ -623,10 +613,10 @@
         <v/>
       </c>
       <c r="B22" t="str">
-        <v>optional</v>
+        <v>and</v>
       </c>
       <c r="C22" t="str">
-        <v>选填</v>
+        <v>和</v>
       </c>
     </row>
     <row r="23">
@@ -634,10 +624,10 @@
         <v/>
       </c>
       <c r="B23" t="str">
-        <v>customService</v>
+        <v>basicSetting</v>
       </c>
       <c r="C23" t="str">
-        <v>电话客服</v>
+        <v>基本设置</v>
       </c>
     </row>
     <row r="24">
@@ -645,10 +635,10 @@
         <v/>
       </c>
       <c r="B24" t="str">
-        <v>officialWebsite</v>
+        <v>placeholder.phoneOrEmail</v>
       </c>
       <c r="C24" t="str">
-        <v>官方地址</v>
+        <v>电话或电子邮件</v>
       </c>
     </row>
     <row r="25">
@@ -656,10 +646,10 @@
         <v/>
       </c>
       <c r="B25" t="str">
-        <v>helpDescript</v>
+        <v>placeholder.password</v>
       </c>
       <c r="C25" t="str">
-        <v>如需技术支持，请访问</v>
+        <v>密码</v>
       </c>
     </row>
     <row r="26">
@@ -667,10 +657,10 @@
         <v/>
       </c>
       <c r="B26" t="str">
-        <v>helpCenterButton</v>
+        <v>header.cloud</v>
       </c>
       <c r="C26" t="str">
-        <v>帮助中心</v>
+        <v>云服务版</v>
       </c>
     </row>
     <row r="27">
@@ -678,15 +668,32 @@
         <v/>
       </c>
       <c r="B27" t="str">
-        <v>noProblemDescNotice</v>
+        <v>header.yms</v>
       </c>
       <c r="C27" t="str">
-        <v>请输入问题描述！</v>
+        <v>企业版</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v/>
+      </c>
+      <c r="B28" t="str">
+        <v>header.help</v>
+      </c>
+      <c r="C28" t="str">
+        <v>帮助</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>setting</v>
+        <v/>
+      </c>
+      <c r="B29" t="str">
+        <v>header.feedback</v>
+      </c>
+      <c r="C29" t="str">
+        <v>反馈</v>
       </c>
     </row>
     <row r="30">
@@ -694,10 +701,10 @@
         <v/>
       </c>
       <c r="B30" t="str">
-        <v>account.personalData</v>
+        <v>button.confirm</v>
       </c>
       <c r="C30" t="str">
-        <v>个人资料</v>
+        <v>确定</v>
       </c>
     </row>
     <row r="31">
@@ -705,32 +712,15 @@
         <v/>
       </c>
       <c r="B31" t="str">
-        <v>account.signature</v>
+        <v>button.cancel</v>
       </c>
       <c r="C31" t="str">
-        <v>这里是个性签名，限制最多50个字，字太多可以显示两行，保证两行能显示50个字</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="str">
-        <v/>
-      </c>
-      <c r="B32" t="str">
-        <v>account.username</v>
-      </c>
-      <c r="C32" t="str">
-        <v>账号</v>
+        <v>取消</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v/>
-      </c>
-      <c r="B33" t="str">
-        <v>account.phone</v>
-      </c>
-      <c r="C33" t="str">
-        <v>手机</v>
+        <v>feedback</v>
       </c>
     </row>
     <row r="34">
@@ -738,10 +728,10 @@
         <v/>
       </c>
       <c r="B34" t="str">
-        <v>account.email</v>
+        <v>title</v>
       </c>
       <c r="C34" t="str">
-        <v>邮箱</v>
+        <v>意见反馈</v>
       </c>
     </row>
     <row r="35">
@@ -749,10 +739,10 @@
         <v/>
       </c>
       <c r="B35" t="str">
-        <v>account.group</v>
+        <v>submit</v>
       </c>
       <c r="C35" t="str">
-        <v>分组</v>
+        <v>提交</v>
       </c>
     </row>
     <row r="36">
@@ -760,10 +750,10 @@
         <v/>
       </c>
       <c r="B36" t="str">
-        <v>account.enterprise</v>
+        <v>cancel</v>
       </c>
       <c r="C36" t="str">
-        <v>企业</v>
+        <v>取消</v>
       </c>
     </row>
     <row r="37">
@@ -771,10 +761,10 @@
         <v/>
       </c>
       <c r="B37" t="str">
-        <v>account.switchEnterprise</v>
+        <v>problemDescription</v>
       </c>
       <c r="C37" t="str">
-        <v>切换企业</v>
+        <v>问题描述（必填）</v>
       </c>
     </row>
     <row r="38">
@@ -782,10 +772,10 @@
         <v/>
       </c>
       <c r="B38" t="str">
-        <v>account.edit</v>
+        <v>contactWay</v>
       </c>
       <c r="C38" t="str">
-        <v>编辑</v>
+        <v>联系方式 （选填）</v>
       </c>
     </row>
     <row r="39">
@@ -793,10 +783,10 @@
         <v/>
       </c>
       <c r="B39" t="str">
-        <v>account.logout</v>
+        <v>uploadImage</v>
       </c>
       <c r="C39" t="str">
-        <v>注销</v>
+        <v>上传图片（可选）</v>
       </c>
     </row>
     <row r="40">
@@ -804,10 +794,10 @@
         <v/>
       </c>
       <c r="B40" t="str">
-        <v>account.getDataFailNotice</v>
+        <v>requried</v>
       </c>
       <c r="C40" t="str">
-        <v>暂时无法获取当前用户信息</v>
+        <v>必填</v>
       </c>
     </row>
     <row r="41">
@@ -815,10 +805,10 @@
         <v/>
       </c>
       <c r="B41" t="str">
-        <v>account.editPsd</v>
+        <v>optional</v>
       </c>
       <c r="C41" t="str">
-        <v>修改密码</v>
+        <v>选填</v>
       </c>
     </row>
     <row r="42">
@@ -826,10 +816,10 @@
         <v/>
       </c>
       <c r="B42" t="str">
-        <v>account.confirm</v>
+        <v>customService</v>
       </c>
       <c r="C42" t="str">
-        <v>确认</v>
+        <v>电话客服：0592-570-2000</v>
       </c>
     </row>
     <row r="43">
@@ -837,10 +827,10 @@
         <v/>
       </c>
       <c r="B43" t="str">
-        <v>account.cancel</v>
+        <v>officialWebsite</v>
       </c>
       <c r="C43" t="str">
-        <v>取消</v>
+        <v>官方网站：www.yealink.com.cn</v>
       </c>
     </row>
     <row r="44">
@@ -848,10 +838,10 @@
         <v/>
       </c>
       <c r="B44" t="str">
-        <v>account.originPsd</v>
+        <v>helpDescript</v>
       </c>
       <c r="C44" t="str">
-        <v>原密码</v>
+        <v>如需技术支持，请访问</v>
       </c>
     </row>
     <row r="45">
@@ -859,10 +849,10 @@
         <v/>
       </c>
       <c r="B45" t="str">
-        <v>account.originPsdPlaceHolder</v>
+        <v>helpCenter</v>
       </c>
       <c r="C45" t="str">
-        <v>若包含字母，请注意大小写</v>
+        <v>帮助中心</v>
       </c>
     </row>
     <row r="46">
@@ -870,10 +860,10 @@
         <v/>
       </c>
       <c r="B46" t="str">
-        <v>account.newPsd</v>
+        <v>inputDescribe</v>
       </c>
       <c r="C46" t="str">
-        <v>新密码</v>
+        <v>请输入详细的问题描述！</v>
       </c>
     </row>
     <row r="47">
@@ -881,10 +871,10 @@
         <v/>
       </c>
       <c r="B47" t="str">
-        <v>account.newPsdPlaceHolder</v>
+        <v>inputContactWay</v>
       </c>
       <c r="C47" t="str">
-        <v>输入6-16位密码</v>
+        <v>请输入联系方式</v>
       </c>
     </row>
     <row r="48">
@@ -892,10 +882,10 @@
         <v/>
       </c>
       <c r="B48" t="str">
-        <v>account.repeatPsd</v>
+        <v>uploadLog</v>
       </c>
       <c r="C48" t="str">
-        <v>确认密码</v>
+        <v>上传错误日志，帮助我们更好的定位错误</v>
       </c>
     </row>
     <row r="49">
@@ -903,32 +893,15 @@
         <v/>
       </c>
       <c r="B49" t="str">
-        <v>account.repeatPsdPlaceHolder</v>
+        <v>uploadFailed</v>
       </c>
       <c r="C49" t="str">
-        <v>再次输入密码</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="str">
-        <v/>
-      </c>
-      <c r="B50" t="str">
-        <v>about.title</v>
-      </c>
-      <c r="C50" t="str">
-        <v>关于</v>
+        <v>上报反馈信息失败！</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v/>
-      </c>
-      <c r="B51" t="str">
-        <v>about.logoText</v>
-      </c>
-      <c r="C51" t="str">
-        <v>Yealink</v>
+        <v>setting</v>
       </c>
     </row>
     <row r="52">
@@ -936,10 +909,10 @@
         <v/>
       </c>
       <c r="B52" t="str">
-        <v>about.aboutName</v>
+        <v>account.personalData</v>
       </c>
       <c r="C52" t="str">
-        <v>Yealink VC Desktop</v>
+        <v>个人资料</v>
       </c>
     </row>
     <row r="53">
@@ -947,10 +920,10 @@
         <v/>
       </c>
       <c r="B53" t="str">
-        <v>about.versionName</v>
+        <v>account.signature</v>
       </c>
       <c r="C53" t="str">
-        <v>版本号</v>
+        <v>这里是个性签名，限制最多50个字，字太多可以显示两行，保证两行能显示50个字</v>
       </c>
     </row>
     <row r="54">
@@ -958,10 +931,10 @@
         <v/>
       </c>
       <c r="B54" t="str">
-        <v>about.userProtocol</v>
+        <v>account.username</v>
       </c>
       <c r="C54" t="str">
-        <v>用户协议</v>
+        <v>账号</v>
       </c>
     </row>
     <row r="55">
@@ -969,10 +942,10 @@
         <v/>
       </c>
       <c r="B55" t="str">
-        <v>about.privacy</v>
+        <v>account.phone</v>
       </c>
       <c r="C55" t="str">
-        <v>隐私政策</v>
+        <v>手机</v>
       </c>
     </row>
     <row r="56">
@@ -980,10 +953,10 @@
         <v/>
       </c>
       <c r="B56" t="str">
-        <v>about.checkUpdate</v>
+        <v>account.email</v>
       </c>
       <c r="C56" t="str">
-        <v>检查更新</v>
+        <v>邮箱</v>
       </c>
     </row>
     <row r="57">
@@ -991,10 +964,10 @@
         <v/>
       </c>
       <c r="B57" t="str">
-        <v>about.exitAndInstall</v>
+        <v>account.group</v>
       </c>
       <c r="C57" t="str">
-        <v>退出并安装</v>
+        <v>分组</v>
       </c>
     </row>
     <row r="58">
@@ -1002,10 +975,10 @@
         <v/>
       </c>
       <c r="B58" t="str">
-        <v>about.autoUpdate</v>
+        <v>account.enterprise</v>
       </c>
       <c r="C58" t="str">
-        <v>自动更新</v>
+        <v>企业</v>
       </c>
     </row>
     <row r="59">
@@ -1013,10 +986,10 @@
         <v/>
       </c>
       <c r="B59" t="str">
-        <v>video.title</v>
+        <v>account.switchEnterprise</v>
       </c>
       <c r="C59" t="str">
-        <v>视频</v>
+        <v>切换企业</v>
       </c>
     </row>
     <row r="60">
@@ -1024,10 +997,10 @@
         <v/>
       </c>
       <c r="B60" t="str">
-        <v>video.camera</v>
+        <v>account.edit</v>
       </c>
       <c r="C60" t="str">
-        <v>摄像头</v>
+        <v>编辑</v>
       </c>
     </row>
     <row r="61">
@@ -1035,10 +1008,10 @@
         <v/>
       </c>
       <c r="B61" t="str">
-        <v>video.cameraPlaceHolder</v>
+        <v>account.logout</v>
       </c>
       <c r="C61" t="str">
-        <v>请选择摄像头</v>
+        <v>注销</v>
       </c>
     </row>
     <row r="62">
@@ -1046,10 +1019,10 @@
         <v/>
       </c>
       <c r="B62" t="str">
-        <v>video.noneCamera</v>
+        <v>account.getDataFailNotice</v>
       </c>
       <c r="C62" t="str">
-        <v>看不到任何视频</v>
+        <v>暂时无法获取当前用户信息</v>
       </c>
     </row>
     <row r="63">
@@ -1057,10 +1030,10 @@
         <v/>
       </c>
       <c r="B63" t="str">
-        <v>video.questionNotice</v>
+        <v>account.editPsd</v>
       </c>
       <c r="C63" t="str">
-        <v>如仍有问题，请访问我们的</v>
+        <v>修改密码</v>
       </c>
     </row>
     <row r="64">
@@ -1068,10 +1041,10 @@
         <v/>
       </c>
       <c r="B64" t="str">
-        <v>video.techniqueCenter</v>
+        <v>account.confirm</v>
       </c>
       <c r="C64" t="str">
-        <v>支持中心</v>
+        <v>确认</v>
       </c>
     </row>
     <row r="65">
@@ -1079,10 +1052,10 @@
         <v/>
       </c>
       <c r="B65" t="str">
-        <v>video.enableHDVideo</v>
+        <v>account.cancel</v>
       </c>
       <c r="C65" t="str">
-        <v>启用超清视频</v>
+        <v>取消</v>
       </c>
     </row>
     <row r="66">
@@ -1090,10 +1063,10 @@
         <v/>
       </c>
       <c r="B66" t="str">
-        <v>video.enableHWSpeed</v>
+        <v>account.originPsd</v>
       </c>
       <c r="C66" t="str">
-        <v>启用硬件加速</v>
+        <v>原密码</v>
       </c>
     </row>
     <row r="67">
@@ -1101,10 +1074,10 @@
         <v/>
       </c>
       <c r="B67" t="str">
-        <v>video.enableMirroring</v>
+        <v>account.originPsdPlaceHolder</v>
       </c>
       <c r="C67" t="str">
-        <v>启用视频镜像效果</v>
+        <v>若包含字母，请注意大小写</v>
       </c>
     </row>
     <row r="68">
@@ -1112,10 +1085,10 @@
         <v/>
       </c>
       <c r="B68" t="str">
-        <v>video.disableVideo</v>
+        <v>account.newPsd</v>
       </c>
       <c r="C68" t="str">
-        <v>加入会议时不开启摄像头</v>
+        <v>新密码</v>
       </c>
     </row>
     <row r="69">
@@ -1123,10 +1096,10 @@
         <v/>
       </c>
       <c r="B69" t="str">
-        <v>audio.title</v>
+        <v>account.newPsdPlaceHolder</v>
       </c>
       <c r="C69" t="str">
-        <v>音频</v>
+        <v>输入6-16位密码</v>
       </c>
     </row>
     <row r="70">
@@ -1134,10 +1107,10 @@
         <v/>
       </c>
       <c r="B70" t="str">
-        <v>audio.audioInput</v>
+        <v>account.repeatPsd</v>
       </c>
       <c r="C70" t="str">
-        <v>音频输入</v>
+        <v>确认密码</v>
       </c>
     </row>
     <row r="71">
@@ -1145,10 +1118,10 @@
         <v/>
       </c>
       <c r="B71" t="str">
-        <v>audio.inputPlaceHolder</v>
+        <v>account.repeatPsdPlaceHolder</v>
       </c>
       <c r="C71" t="str">
-        <v>请选择麦克风</v>
+        <v>再次输入密码</v>
       </c>
     </row>
     <row r="72">
@@ -1156,10 +1129,10 @@
         <v/>
       </c>
       <c r="B72" t="str">
-        <v>audio.clearNoise</v>
+        <v>about.title</v>
       </c>
       <c r="C72" t="str">
-        <v>启用噪声消除</v>
+        <v>关于</v>
       </c>
     </row>
     <row r="73">
@@ -1167,10 +1140,10 @@
         <v/>
       </c>
       <c r="B73" t="str">
-        <v>audio.microphoneTest</v>
+        <v>about.logoText</v>
       </c>
       <c r="C73" t="str">
-        <v>麦克风测试</v>
+        <v>Yealink</v>
       </c>
     </row>
     <row r="74">
@@ -1178,10 +1151,10 @@
         <v/>
       </c>
       <c r="B74" t="str">
-        <v>audio.audioOutput</v>
+        <v>about.aboutName</v>
       </c>
       <c r="C74" t="str">
-        <v>音频输出</v>
+        <v>Yealink VC Desktop</v>
       </c>
     </row>
     <row r="75">
@@ -1189,10 +1162,10 @@
         <v/>
       </c>
       <c r="B75" t="str">
-        <v>audio.outputPlaceHolder</v>
+        <v>about.versionName</v>
       </c>
       <c r="C75" t="str">
-        <v>请选择扬声器</v>
+        <v>版本号</v>
       </c>
     </row>
     <row r="76">
@@ -1200,10 +1173,10 @@
         <v/>
       </c>
       <c r="B76" t="str">
-        <v>audio.play</v>
+        <v>about.userProtocol</v>
       </c>
       <c r="C76" t="str">
-        <v>播放测试音频</v>
+        <v>用户协议</v>
       </c>
     </row>
     <row r="77">
@@ -1211,10 +1184,10 @@
         <v/>
       </c>
       <c r="B77" t="str">
-        <v>conference.title</v>
+        <v>about.privacy</v>
       </c>
       <c r="C77" t="str">
-        <v>会议</v>
+        <v>隐私政策</v>
       </c>
     </row>
     <row r="78">
@@ -1222,10 +1195,10 @@
         <v/>
       </c>
       <c r="B78" t="str">
-        <v>conference.share</v>
+        <v>about.checkUpdate</v>
       </c>
       <c r="C78" t="str">
-        <v>内容分享</v>
+        <v>检查更新</v>
       </c>
     </row>
     <row r="79">
@@ -1233,10 +1206,10 @@
         <v/>
       </c>
       <c r="B79" t="str">
-        <v>conference.minWindowWhenSharing</v>
+        <v>about.exitAndInstall</v>
       </c>
       <c r="C79" t="str">
-        <v>发送内容共享时最小化VCD窗口</v>
+        <v>立即更新</v>
       </c>
     </row>
     <row r="80">
@@ -1244,10 +1217,10 @@
         <v/>
       </c>
       <c r="B80" t="str">
-        <v>conference.maxWindowWhenWatchingSharing</v>
+        <v>about.autoUpdate</v>
       </c>
       <c r="C80" t="str">
-        <v>观看他人内容共享时自动最大化VCD窗口</v>
+        <v>自动更新</v>
       </c>
     </row>
     <row r="81">
@@ -1255,10 +1228,10 @@
         <v/>
       </c>
       <c r="B81" t="str">
-        <v>conference.enableGpu</v>
+        <v>video.title</v>
       </c>
       <c r="C81" t="str">
-        <v>屏幕共享时启用GPU加速</v>
+        <v>视频</v>
       </c>
     </row>
     <row r="82">
@@ -1266,10 +1239,10 @@
         <v/>
       </c>
       <c r="B82" t="str">
-        <v>conference.preferredPictureFluency</v>
+        <v>video.camera</v>
       </c>
       <c r="C82" t="str">
-        <v>画面流畅度优先</v>
+        <v>摄像头</v>
       </c>
     </row>
     <row r="83">
@@ -1277,10 +1250,10 @@
         <v/>
       </c>
       <c r="B83" t="str">
-        <v>conference.shareComputerSound</v>
+        <v>video.cameraPlaceHolder</v>
       </c>
       <c r="C83" t="str">
-        <v>共享电脑声音</v>
+        <v>请选择摄像头</v>
       </c>
     </row>
     <row r="84">
@@ -1288,10 +1261,10 @@
         <v/>
       </c>
       <c r="B84" t="str">
-        <v>conference.baseSetting</v>
+        <v>video.noneCamera</v>
       </c>
       <c r="C84" t="str">
-        <v>基本设置</v>
+        <v>看不到任何视频</v>
       </c>
     </row>
     <row r="85">
@@ -1299,10 +1272,10 @@
         <v/>
       </c>
       <c r="B85" t="str">
-        <v>conference.autoSilence</v>
+        <v>video.questionNotice</v>
       </c>
       <c r="C85" t="str">
-        <v>入会自动静音</v>
+        <v>如仍有问题，请访问我们的</v>
       </c>
     </row>
     <row r="86">
@@ -1310,10 +1283,10 @@
         <v/>
       </c>
       <c r="B86" t="str">
-        <v>conference.noticeWhenLeaving</v>
+        <v>video.techniqueCenter</v>
       </c>
       <c r="C86" t="str">
-        <v>入会及离会提示音</v>
+        <v>支持中心</v>
       </c>
     </row>
     <row r="87">
@@ -1321,10 +1294,10 @@
         <v/>
       </c>
       <c r="B87" t="str">
-        <v>conference.noticeTitle</v>
+        <v>video.enableHDVideo</v>
       </c>
       <c r="C87" t="str">
-        <v>是否在会议开始和结束时会有提示音提醒？</v>
+        <v>启用超清视频</v>
       </c>
     </row>
     <row r="88">
@@ -1332,10 +1305,10 @@
         <v/>
       </c>
       <c r="B88" t="str">
-        <v>conference.noticeOnlyJoiner</v>
+        <v>video.enableHWSpeed</v>
       </c>
       <c r="C88" t="str">
-        <v>仅入会方接收提示音</v>
+        <v>启用硬件加速</v>
       </c>
     </row>
     <row r="89">
@@ -1343,10 +1316,10 @@
         <v/>
       </c>
       <c r="B89" t="str">
-        <v>conference.noticeBoth</v>
+        <v>video.enableMirroring</v>
       </c>
       <c r="C89" t="str">
-        <v>仅入会方和主持人接收提示音</v>
+        <v>启用视频镜像效果</v>
       </c>
     </row>
     <row r="90">
@@ -1354,10 +1327,10 @@
         <v/>
       </c>
       <c r="B90" t="str">
-        <v>conference.noticeAll</v>
+        <v>video.enableLocalVideo</v>
       </c>
       <c r="C90" t="str">
-        <v>所有参会方接收提示音</v>
+        <v>启用虚拟摄像头</v>
       </c>
     </row>
     <row r="91">
@@ -1365,10 +1338,10 @@
         <v/>
       </c>
       <c r="B91" t="str">
-        <v>conference.advanceEntryTime</v>
+        <v>video.disableVideo</v>
       </c>
       <c r="C91" t="str">
-        <v>提前入会时间</v>
+        <v>加入会议时不开启摄像头</v>
       </c>
     </row>
     <row r="92">
@@ -1376,10 +1349,10 @@
         <v/>
       </c>
       <c r="B92" t="str">
-        <v>conference.advanceEntryTimeUnite</v>
+        <v>audio.title</v>
       </c>
       <c r="C92" t="str">
-        <v>分钟</v>
+        <v>音频</v>
       </c>
     </row>
     <row r="93">
@@ -1387,10 +1360,10 @@
         <v/>
       </c>
       <c r="B93" t="str">
-        <v>conference.advanceEntryTimeNotice</v>
+        <v>audio.audioInput</v>
       </c>
       <c r="C93" t="str">
-        <v>（请设置5~180分钟）</v>
+        <v>音频输入</v>
       </c>
     </row>
     <row r="94">
@@ -1398,10 +1371,10 @@
         <v/>
       </c>
       <c r="B94" t="str">
-        <v>conference.instanceMeetingPassword</v>
+        <v>audio.inputPlaceHolder</v>
       </c>
       <c r="C94" t="str">
-        <v>即时会议密码</v>
+        <v>请选择麦克风</v>
       </c>
     </row>
     <row r="95">
@@ -1409,10 +1382,10 @@
         <v/>
       </c>
       <c r="B95" t="str">
-        <v>conference.reserveMeetingPassword</v>
+        <v>audio.clearNoise</v>
       </c>
       <c r="C95" t="str">
-        <v>预约会议密码</v>
+        <v>启用噪声消除</v>
       </c>
     </row>
     <row r="96">
@@ -1420,10 +1393,10 @@
         <v/>
       </c>
       <c r="B96" t="str">
-        <v>conference.randomPassword</v>
+        <v>audio.microphoneTest</v>
       </c>
       <c r="C96" t="str">
-        <v>随机密码</v>
+        <v>麦克风测试</v>
       </c>
     </row>
     <row r="97">
@@ -1431,10 +1404,10 @@
         <v/>
       </c>
       <c r="B97" t="str">
-        <v>conference.customPassword</v>
+        <v>audio.audioOutput</v>
       </c>
       <c r="C97" t="str">
-        <v>自定义密码</v>
+        <v>音频输出</v>
       </c>
     </row>
     <row r="98">
@@ -1442,10 +1415,10 @@
         <v/>
       </c>
       <c r="B98" t="str">
-        <v>conference.customPasswordNotice</v>
+        <v>audio.outputPlaceHolder</v>
       </c>
       <c r="C98" t="str">
-        <v>（请输入6位纯数字）</v>
+        <v>请选择扬声器</v>
       </c>
     </row>
     <row r="99">
@@ -1453,10 +1426,10 @@
         <v/>
       </c>
       <c r="B99" t="str">
-        <v>conference.loginSelector</v>
+        <v>audio.play</v>
       </c>
       <c r="C99" t="str">
-        <v>登录选项框</v>
+        <v>播放测试音频</v>
       </c>
     </row>
     <row r="100">
@@ -1464,10 +1437,10 @@
         <v/>
       </c>
       <c r="B100" t="str">
-        <v>conference.dndWhenCalling</v>
+        <v>conference.title</v>
       </c>
       <c r="C100" t="str">
-        <v>通话中免打扰</v>
+        <v>会议</v>
       </c>
     </row>
     <row r="101">
@@ -1475,10 +1448,10 @@
         <v/>
       </c>
       <c r="B101" t="str">
-        <v>conference.advancedSetting</v>
+        <v>conference.share</v>
       </c>
       <c r="C101" t="str">
-        <v>高级设置</v>
+        <v>内容分享</v>
       </c>
     </row>
     <row r="102">
@@ -1486,10 +1459,10 @@
         <v/>
       </c>
       <c r="B102" t="str">
-        <v>common.title</v>
+        <v>conference.minWindowWhenSharing</v>
       </c>
       <c r="C102" t="str">
-        <v>通用</v>
+        <v>发送内容共享时最小化VCD窗口</v>
       </c>
     </row>
     <row r="103">
@@ -1497,10 +1470,10 @@
         <v/>
       </c>
       <c r="B103" t="str">
-        <v>common.autoStart</v>
+        <v>conference.maxWindowWhenWatchingSharing</v>
       </c>
       <c r="C103" t="str">
-        <v>开机自动启动</v>
+        <v>观看他人内容共享时自动最大化VCD窗口</v>
       </c>
     </row>
     <row r="104">
@@ -1508,10 +1481,10 @@
         <v/>
       </c>
       <c r="B104" t="str">
-        <v>common.forceMinimize</v>
+        <v>conference.enableGpu</v>
       </c>
       <c r="C104" t="str">
-        <v>关闭时最小化</v>
+        <v>屏幕共享时启用GPU加速</v>
       </c>
     </row>
     <row r="105">
@@ -1519,10 +1492,10 @@
         <v/>
       </c>
       <c r="B105" t="str">
-        <v>common.language</v>
+        <v>conference.preferredPictureFluency</v>
       </c>
       <c r="C105" t="str">
-        <v>切换语言</v>
+        <v>画面流畅度优先</v>
       </c>
     </row>
     <row r="106">
@@ -1530,10 +1503,10 @@
         <v/>
       </c>
       <c r="B106" t="str">
-        <v>common.address</v>
+        <v>conference.shareComputerSound</v>
       </c>
       <c r="C106" t="str">
-        <v>软终端管理平台地址</v>
+        <v>共享电脑声音</v>
       </c>
     </row>
     <row r="107">
@@ -1541,10 +1514,10 @@
         <v/>
       </c>
       <c r="B107" t="str">
-        <v>common.addressPlaceHolder</v>
+        <v>conference.baseSetting</v>
       </c>
       <c r="C107" t="str">
-        <v>例如 127.0.0.1</v>
+        <v>基本设置</v>
       </c>
     </row>
     <row r="108">
@@ -1552,10 +1525,10 @@
         <v/>
       </c>
       <c r="B108" t="str">
-        <v>common.updateChannel</v>
+        <v>conference.autoSilence</v>
       </c>
       <c r="C108" t="str">
-        <v>升级通道</v>
+        <v>入会自动静音</v>
       </c>
     </row>
     <row r="109">
@@ -1563,10 +1536,10 @@
         <v/>
       </c>
       <c r="B109" t="str">
-        <v>common.noobGuide</v>
+        <v>conference.noticeWhenLeaving</v>
       </c>
       <c r="C109" t="str">
-        <v>查看新手引导</v>
+        <v>入会及离会提示音</v>
       </c>
     </row>
     <row r="110">
@@ -1574,10 +1547,10 @@
         <v/>
       </c>
       <c r="B110" t="str">
-        <v>common.property</v>
+        <v>conference.noticeTitle</v>
       </c>
       <c r="C110" t="str">
-        <v>标签</v>
+        <v>是否在会议开始和结束时会有提示音提醒？</v>
       </c>
     </row>
     <row r="111">
@@ -1585,10 +1558,10 @@
         <v/>
       </c>
       <c r="B111" t="str">
-        <v>common.langChangeNotice</v>
+        <v>conference.noticeOnlyJoiner</v>
       </c>
       <c r="C111" t="str">
-        <v xml:space="preserve">语言已切换至 </v>
+        <v>仅入会方接收提示音</v>
       </c>
     </row>
     <row r="112">
@@ -1596,10 +1569,10 @@
         <v/>
       </c>
       <c r="B112" t="str">
-        <v>common.addProperty</v>
+        <v>conference.noticeBoth</v>
       </c>
       <c r="C112" t="str">
-        <v>添加标签</v>
+        <v>仅入会方和主持人接收提示音</v>
       </c>
     </row>
     <row r="113">
@@ -1607,10 +1580,10 @@
         <v/>
       </c>
       <c r="B113" t="str">
-        <v>common.addPropertyNotice</v>
+        <v>conference.noticeAll</v>
       </c>
       <c r="C113" t="str">
-        <v>添加标签成功！</v>
+        <v>所有参会方接收提示音</v>
       </c>
     </row>
     <row r="114">
@@ -1618,10 +1591,10 @@
         <v/>
       </c>
       <c r="B114" t="str">
-        <v>common.fullPropertyNotice</v>
+        <v>conference.advanceEntryTime</v>
       </c>
       <c r="C114" t="str">
-        <v>当前标签已满，无法继续添加！</v>
+        <v>提前入会时间</v>
       </c>
     </row>
     <row r="115">
@@ -1629,10 +1602,10 @@
         <v/>
       </c>
       <c r="B115" t="str">
-        <v>common.deletePropertyNotice</v>
+        <v>conference.advanceEntryTimeUnite</v>
       </c>
       <c r="C115" t="str">
-        <v>标签删除成功！</v>
+        <v>分钟</v>
       </c>
     </row>
     <row r="116">
@@ -1640,10 +1613,10 @@
         <v/>
       </c>
       <c r="B116" t="str">
-        <v>common.emptyPropertyNotice</v>
+        <v>conference.advanceEntryTimeNotice</v>
       </c>
       <c r="C116" t="str">
-        <v>当前输入标签为空</v>
+        <v>（请设置5~180分钟）</v>
       </c>
     </row>
     <row r="117">
@@ -1651,10 +1624,10 @@
         <v/>
       </c>
       <c r="B117" t="str">
-        <v>common.propertyCreateAt</v>
+        <v>conference.instanceMeetingPassword</v>
       </c>
       <c r="C117" t="str">
-        <v>标签创建于</v>
+        <v>即时会议密码</v>
       </c>
     </row>
     <row r="118">
@@ -1662,10 +1635,10 @@
         <v/>
       </c>
       <c r="B118" t="str">
-        <v>about.updateStatusMap.checking</v>
+        <v>conference.reserveMeetingPassword</v>
       </c>
       <c r="C118" t="str">
-        <v>开始检查更新</v>
+        <v>预约会议密码</v>
       </c>
     </row>
     <row r="119">
@@ -1673,10 +1646,10 @@
         <v/>
       </c>
       <c r="B119" t="str">
-        <v>about.updateStatusMap.finded</v>
+        <v>conference.randomPassword</v>
       </c>
       <c r="C119" t="str">
-        <v>发现一个可用更新</v>
+        <v>随机密码</v>
       </c>
     </row>
     <row r="120">
@@ -1684,10 +1657,10 @@
         <v/>
       </c>
       <c r="B120" t="str">
-        <v>about.updateStatusMap.none</v>
+        <v>conference.customPassword</v>
       </c>
       <c r="C120" t="str">
-        <v>没有可用更新</v>
+        <v>自定义密码</v>
       </c>
     </row>
     <row r="121">
@@ -1695,10 +1668,10 @@
         <v/>
       </c>
       <c r="B121" t="str">
-        <v>about.updateStatusMap.downloaded</v>
+        <v>conference.customPasswordNotice</v>
       </c>
       <c r="C121" t="str">
-        <v>更新下载完成</v>
+        <v>（请输入6位纯数字）</v>
       </c>
     </row>
     <row r="122">
@@ -1706,10 +1679,10 @@
         <v/>
       </c>
       <c r="B122" t="str">
-        <v>about.updateStatusMap.downloading</v>
+        <v>conference.loginSelector</v>
       </c>
       <c r="C122" t="str">
-        <v>更新下载中</v>
+        <v>登录选项框</v>
       </c>
     </row>
     <row r="123">
@@ -1717,10 +1690,10 @@
         <v/>
       </c>
       <c r="B123" t="str">
-        <v>video.cameraNotice.open</v>
+        <v>conference.dndWhenCalling</v>
       </c>
       <c r="C123" t="str">
-        <v>请确认您的摄像头已经接通并开启。</v>
+        <v>通话中免打扰</v>
       </c>
     </row>
     <row r="124">
@@ -1728,10 +1701,10 @@
         <v/>
       </c>
       <c r="B124" t="str">
-        <v>video.cameraNotice.correct</v>
+        <v>conference.advancedSetting</v>
       </c>
       <c r="C124" t="str">
-        <v>检查视频选项以使用正确的网络摄像头。</v>
+        <v>高级设置</v>
       </c>
     </row>
     <row r="125">
@@ -1739,10 +1712,10 @@
         <v/>
       </c>
       <c r="B125" t="str">
-        <v>video.cameraNotice.single</v>
+        <v>conference.videoQuality</v>
       </c>
       <c r="C125" t="str">
-        <v>请确认其他程序没有占用您的摄像头。</v>
+        <v>视频质量</v>
       </c>
     </row>
     <row r="126">
@@ -1750,10 +1723,10 @@
         <v/>
       </c>
       <c r="B126" t="str">
-        <v>video.cameraNotice.restart</v>
+        <v>conference.superMode</v>
       </c>
       <c r="C126" t="str">
-        <v>重启您的电脑</v>
+        <v>超清模式</v>
       </c>
     </row>
     <row r="127">
@@ -1761,10 +1734,10 @@
         <v/>
       </c>
       <c r="B127" t="str">
-        <v>common.updateChannelList.insiders</v>
+        <v>conference.HDMode</v>
       </c>
       <c r="C127" t="str">
-        <v>内测</v>
+        <v>高清模式</v>
       </c>
     </row>
     <row r="128">
@@ -1772,10 +1745,10 @@
         <v/>
       </c>
       <c r="B128" t="str">
-        <v>common.updateChannelList.faster</v>
+        <v>conference.SDMode</v>
       </c>
       <c r="C128" t="str">
-        <v>快速</v>
+        <v>标清模式</v>
       </c>
     </row>
     <row r="129">
@@ -1783,15 +1756,32 @@
         <v/>
       </c>
       <c r="B129" t="str">
-        <v>common.updateChannelList.stable</v>
+        <v>conference.tipFor1080P</v>
       </c>
       <c r="C129" t="str">
-        <v>稳定</v>
+        <v>充分发挥系统性能，展现最好视频画质，会占用较大系统与网络资源。</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="str">
+        <v/>
+      </c>
+      <c r="B130" t="str">
+        <v>conference.tipFor720P</v>
+      </c>
+      <c r="C130" t="str">
+        <v>平衡系统流畅度与画质效果，适用于大多数场景。</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="str">
-        <v>main</v>
+        <v/>
+      </c>
+      <c r="B131" t="str">
+        <v>conference.tipFor360P</v>
+      </c>
+      <c r="C131" t="str">
+        <v>调低带宽并降低视频质量，可以提高系统流畅度。</v>
       </c>
     </row>
     <row r="132">
@@ -1799,13 +1789,10 @@
         <v/>
       </c>
       <c r="B132" t="str">
-        <v>showWindow</v>
+        <v>common.title</v>
       </c>
       <c r="C132" t="str">
-        <v>显示主面板</v>
-      </c>
-      <c r="D132" t="str">
-        <v>Display main panel</v>
+        <v>通用</v>
       </c>
     </row>
     <row r="133">
@@ -1813,13 +1800,10 @@
         <v/>
       </c>
       <c r="B133" t="str">
-        <v>quit</v>
+        <v>common.autoStart</v>
       </c>
       <c r="C133" t="str">
-        <v>退出</v>
-      </c>
-      <c r="D133" t="str">
-        <v>Quit</v>
+        <v>开机自动启动</v>
       </c>
     </row>
     <row r="134">
@@ -1827,13 +1811,10 @@
         <v/>
       </c>
       <c r="B134" t="str">
-        <v>joinConference</v>
+        <v>common.forceMinimize</v>
       </c>
       <c r="C134" t="str">
-        <v>加入会议</v>
-      </c>
-      <c r="D134" t="str">
-        <v>Meet now</v>
+        <v>关闭时最小化</v>
       </c>
     </row>
     <row r="135">
@@ -1841,13 +1822,10 @@
         <v/>
       </c>
       <c r="B135" t="str">
-        <v>logout</v>
+        <v>common.language</v>
       </c>
       <c r="C135" t="str">
-        <v>注销</v>
-      </c>
-      <c r="D135" t="str">
-        <v>Log out</v>
+        <v>切换语言</v>
       </c>
     </row>
     <row r="136">
@@ -1855,18 +1833,32 @@
         <v/>
       </c>
       <c r="B136" t="str">
-        <v>language</v>
+        <v>common.address</v>
       </c>
       <c r="C136" t="str">
-        <v>语言</v>
-      </c>
-      <c r="D136" t="str">
-        <v>Language</v>
+        <v>软终端管理平台地址</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="str">
+        <v/>
+      </c>
+      <c r="B137" t="str">
+        <v>common.addressPlaceHolder</v>
+      </c>
+      <c r="C137" t="str">
+        <v>例如 127.0.0.1</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="str">
-        <v>dial</v>
+        <v/>
+      </c>
+      <c r="B138" t="str">
+        <v>common.updateChannel</v>
+      </c>
+      <c r="C138" t="str">
+        <v>升级通道</v>
       </c>
     </row>
     <row r="139">
@@ -1874,10 +1866,10 @@
         <v/>
       </c>
       <c r="B139" t="str">
-        <v>title.conferenceDetail</v>
+        <v>common.noobGuide</v>
       </c>
       <c r="C139" t="str">
-        <v>会议详情</v>
+        <v>查看新手引导</v>
       </c>
     </row>
     <row r="140">
@@ -1885,10 +1877,10 @@
         <v/>
       </c>
       <c r="B140" t="str">
-        <v>title.callDetail</v>
+        <v>common.property</v>
       </c>
       <c r="C140" t="str">
-        <v>通话详情</v>
+        <v>标签</v>
       </c>
     </row>
     <row r="141">
@@ -1896,10 +1888,13 @@
         <v/>
       </c>
       <c r="B141" t="str">
-        <v>title.dial</v>
+        <v>common.langChangeNotice</v>
       </c>
       <c r="C141" t="str">
-        <v>拨号</v>
+        <v>语言已切换至{lang}！</v>
+      </c>
+      <c r="D141" t="str">
+        <v>Language has been switched to {lang}</v>
       </c>
     </row>
     <row r="142">
@@ -1907,10 +1902,10 @@
         <v/>
       </c>
       <c r="B142" t="str">
-        <v>dialpad.clear</v>
+        <v>common.addProperty</v>
       </c>
       <c r="C142" t="str">
-        <v>清空</v>
+        <v>添加标签</v>
       </c>
     </row>
     <row r="143">
@@ -1918,10 +1913,10 @@
         <v/>
       </c>
       <c r="B143" t="str">
-        <v>dialpad.backspace</v>
+        <v>common.addPropertyNotice</v>
       </c>
       <c r="C143" t="str">
-        <v>退格</v>
+        <v>添加标签成功！</v>
       </c>
     </row>
     <row r="144">
@@ -1929,10 +1924,10 @@
         <v/>
       </c>
       <c r="B144" t="str">
-        <v>dialpad.addLocal</v>
+        <v>common.fullPropertyNotice</v>
       </c>
       <c r="C144" t="str">
-        <v>添加为本地联系人</v>
+        <v>当前标签已满，无法继续添加！</v>
       </c>
     </row>
     <row r="145">
@@ -1940,10 +1935,10 @@
         <v/>
       </c>
       <c r="B145" t="str">
-        <v>dialpad.videoCall</v>
+        <v>common.propertyExist</v>
       </c>
       <c r="C145" t="str">
-        <v>视频呼叫</v>
+        <v>当前标签已满，无法继续添加！</v>
       </c>
     </row>
     <row r="146">
@@ -1951,10 +1946,10 @@
         <v/>
       </c>
       <c r="B146" t="str">
-        <v>dialpad.audioCall</v>
+        <v>common.deletePropertyNotice</v>
       </c>
       <c r="C146" t="str">
-        <v>音频呼叫</v>
+        <v>标签删除成功！</v>
       </c>
     </row>
     <row r="147">
@@ -1962,10 +1957,10 @@
         <v/>
       </c>
       <c r="B147" t="str">
-        <v>dialpad.more</v>
+        <v>common.emptyPropertyNotice</v>
       </c>
       <c r="C147" t="str">
-        <v>更多</v>
+        <v>当前输入标签为空</v>
       </c>
     </row>
     <row r="148">
@@ -1973,10 +1968,10 @@
         <v/>
       </c>
       <c r="B148" t="str">
-        <v>dialpad.del</v>
+        <v>common.propertyCreateAt</v>
       </c>
       <c r="C148" t="str">
-        <v>删除</v>
+        <v>标签创建于</v>
       </c>
     </row>
     <row r="149">
@@ -1984,13 +1979,10 @@
         <v/>
       </c>
       <c r="B149" t="str">
-        <v>record.all</v>
+        <v>common.invalidAddress</v>
       </c>
       <c r="C149" t="str">
-        <v>所有通话</v>
-      </c>
-      <c r="D149" t="str">
-        <v>所有通话</v>
+        <v>您输入的地址不合法！</v>
       </c>
     </row>
     <row r="150">
@@ -1998,13 +1990,10 @@
         <v/>
       </c>
       <c r="B150" t="str">
-        <v>record.missed</v>
+        <v>about.updateStatusMap.checking</v>
       </c>
       <c r="C150" t="str">
-        <v>未接来电</v>
-      </c>
-      <c r="D150" t="str">
-        <v>未接来电</v>
+        <v>开始检查更新</v>
       </c>
     </row>
     <row r="151">
@@ -2012,13 +2001,10 @@
         <v/>
       </c>
       <c r="B151" t="str">
-        <v>record.today</v>
+        <v>about.updateStatusMap.finded</v>
       </c>
       <c r="C151" t="str">
-        <v>今天</v>
-      </c>
-      <c r="D151" t="str">
-        <v>today</v>
+        <v>发现一个可用更新</v>
       </c>
     </row>
     <row r="152">
@@ -2026,13 +2012,10 @@
         <v/>
       </c>
       <c r="B152" t="str">
-        <v>record.yesterday</v>
+        <v>about.updateStatusMap.none</v>
       </c>
       <c r="C152" t="str">
-        <v>昨天</v>
-      </c>
-      <c r="D152" t="str">
-        <v>yesterday</v>
+        <v>当前已是最新版本</v>
       </c>
     </row>
     <row r="153">
@@ -2040,10 +2023,10 @@
         <v/>
       </c>
       <c r="B153" t="str">
-        <v>record.callOut</v>
+        <v>about.updateStatusMap.downloaded</v>
       </c>
       <c r="C153" t="str">
-        <v>呼出</v>
+        <v>更新下载完成</v>
       </c>
     </row>
     <row r="154">
@@ -2051,10 +2034,10 @@
         <v/>
       </c>
       <c r="B154" t="str">
-        <v>record.refuse</v>
+        <v>about.updateStatusMap.downloading</v>
       </c>
       <c r="C154" t="str">
-        <v>已拒接</v>
+        <v>更新下载中</v>
       </c>
     </row>
     <row r="155">
@@ -2062,10 +2045,10 @@
         <v/>
       </c>
       <c r="B155" t="str">
-        <v>record.missCall</v>
+        <v>video.cameraNotice.open</v>
       </c>
       <c r="C155" t="str">
-        <v>未接</v>
+        <v>请确认您的摄像头已经接通并开启。</v>
       </c>
     </row>
     <row r="156">
@@ -2073,10 +2056,10 @@
         <v/>
       </c>
       <c r="B156" t="str">
-        <v>record.callIn</v>
+        <v>video.cameraNotice.correct</v>
       </c>
       <c r="C156" t="str">
-        <v>呼入</v>
+        <v>检查视频选项以使用正确的网络摄像头。</v>
       </c>
     </row>
     <row r="157">
@@ -2084,10 +2067,10 @@
         <v/>
       </c>
       <c r="B157" t="str">
-        <v>button.video</v>
+        <v>video.cameraNotice.single</v>
       </c>
       <c r="C157" t="str">
-        <v>视频通话</v>
+        <v>请确认其他程序没有占用您的摄像头。</v>
       </c>
     </row>
     <row r="158">
@@ -2095,10 +2078,10 @@
         <v/>
       </c>
       <c r="B158" t="str">
-        <v>button.audio</v>
+        <v>video.cameraNotice.restart</v>
       </c>
       <c r="C158" t="str">
-        <v>音频通话</v>
+        <v>重启您的电脑</v>
       </c>
     </row>
     <row r="159">
@@ -2106,10 +2089,10 @@
         <v/>
       </c>
       <c r="B159" t="str">
-        <v>conferenceDetail</v>
-      </c>
-      <c r="D159" t="str">
-        <v>会议详情</v>
+        <v>common.updateChannelList.insiders</v>
+      </c>
+      <c r="C159" t="str">
+        <v>内测</v>
       </c>
     </row>
     <row r="160">
@@ -2117,10 +2100,10 @@
         <v/>
       </c>
       <c r="B160" t="str">
-        <v>callDetail</v>
-      </c>
-      <c r="D160" t="str">
-        <v>通话详情</v>
+        <v>common.updateChannelList.faster</v>
+      </c>
+      <c r="C160" t="str">
+        <v>快速</v>
       </c>
     </row>
     <row r="161">
@@ -2128,15 +2111,15 @@
         <v/>
       </c>
       <c r="B161" t="str">
-        <v>dial</v>
-      </c>
-      <c r="D161" t="str">
-        <v>Dial</v>
+        <v>common.updateChannelList.stable</v>
+      </c>
+      <c r="C161" t="str">
+        <v>稳定</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="str">
-        <v>contact</v>
+        <v>main</v>
       </c>
     </row>
     <row r="164">
@@ -2144,10 +2127,13 @@
         <v/>
       </c>
       <c r="B164" t="str">
-        <v>common.add</v>
+        <v>showWindow</v>
       </c>
       <c r="C164" t="str">
-        <v>添加联系人</v>
+        <v>显示主面板</v>
+      </c>
+      <c r="D164" t="str">
+        <v>Display main panel</v>
       </c>
     </row>
     <row r="165">
@@ -2155,10 +2141,13 @@
         <v/>
       </c>
       <c r="B165" t="str">
-        <v>common.more</v>
+        <v>quit</v>
       </c>
       <c r="C165" t="str">
-        <v>更多</v>
+        <v>退出</v>
+      </c>
+      <c r="D165" t="str">
+        <v>Quit</v>
       </c>
     </row>
     <row r="166">
@@ -2166,10 +2155,13 @@
         <v/>
       </c>
       <c r="B166" t="str">
-        <v>common.person</v>
+        <v>joinConference</v>
       </c>
       <c r="C166" t="str">
-        <v>人</v>
+        <v>加入会议</v>
+      </c>
+      <c r="D166" t="str">
+        <v>Meet now</v>
       </c>
     </row>
     <row r="167">
@@ -2177,10 +2169,13 @@
         <v/>
       </c>
       <c r="B167" t="str">
-        <v>local.describe</v>
+        <v>logout</v>
       </c>
       <c r="C167" t="str">
-        <v>本地联系人</v>
+        <v>注销</v>
+      </c>
+      <c r="D167" t="str">
+        <v>Log out</v>
       </c>
     </row>
     <row r="168">
@@ -2188,32 +2183,18 @@
         <v/>
       </c>
       <c r="B168" t="str">
-        <v>frequent.noFrequent</v>
+        <v>language</v>
       </c>
       <c r="C168" t="str">
-        <v>暂未添加常用联系人</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" t="str">
-        <v/>
-      </c>
-      <c r="B169" t="str">
-        <v>frequent.addFrequentGroup</v>
-      </c>
-      <c r="C169" t="str">
-        <v>添加常用联系人分组</v>
+        <v>语言</v>
+      </c>
+      <c r="D168" t="str">
+        <v>Language</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="str">
-        <v/>
-      </c>
-      <c r="B170" t="str">
-        <v>frequent.addGroup</v>
-      </c>
-      <c r="C170" t="str">
-        <v>添加分组</v>
+        <v>dial</v>
       </c>
     </row>
     <row r="171">
@@ -2221,10 +2202,10 @@
         <v/>
       </c>
       <c r="B171" t="str">
-        <v>frequent.editGroup</v>
+        <v>title.conferenceDetail</v>
       </c>
       <c r="C171" t="str">
-        <v>编辑分组</v>
+        <v>会议详情</v>
       </c>
     </row>
     <row r="172">
@@ -2232,10 +2213,10 @@
         <v/>
       </c>
       <c r="B172" t="str">
-        <v>frequent.deleteGroup</v>
+        <v>title.callDetail</v>
       </c>
       <c r="C172" t="str">
-        <v>删除分组</v>
+        <v>通话详情</v>
       </c>
     </row>
     <row r="173">
@@ -2243,10 +2224,10 @@
         <v/>
       </c>
       <c r="B173" t="str">
-        <v>frequent.moveContact</v>
+        <v>title.dial</v>
       </c>
       <c r="C173" t="str">
-        <v>移动该联系人至</v>
+        <v>拨号</v>
       </c>
     </row>
     <row r="174">
@@ -2254,10 +2235,10 @@
         <v/>
       </c>
       <c r="B174" t="str">
-        <v>frequent.noOtherGroup</v>
+        <v>title.dialPlate</v>
       </c>
       <c r="C174" t="str">
-        <v>暂无其他分组</v>
+        <v>拨号盘</v>
       </c>
     </row>
     <row r="175">
@@ -2265,10 +2246,10 @@
         <v/>
       </c>
       <c r="B175" t="str">
-        <v>frequent.removeContact</v>
+        <v>dialpad.clear</v>
       </c>
       <c r="C175" t="str">
-        <v>移除该常用联系人</v>
+        <v>清空</v>
       </c>
     </row>
     <row r="176">
@@ -2276,10 +2257,10 @@
         <v/>
       </c>
       <c r="B176" t="str">
-        <v>corporate.describe</v>
+        <v>dialpad.backspace</v>
       </c>
       <c r="C176" t="str">
-        <v>企业联系人</v>
+        <v>退格</v>
       </c>
     </row>
     <row r="177">
@@ -2287,10 +2268,10 @@
         <v/>
       </c>
       <c r="B177" t="str">
-        <v>label.name</v>
+        <v>dialpad.addLocal</v>
       </c>
       <c r="C177" t="str">
-        <v>姓名</v>
+        <v>添加为本地联系人</v>
       </c>
     </row>
     <row r="178">
@@ -2298,10 +2279,10 @@
         <v/>
       </c>
       <c r="B178" t="str">
-        <v>label.account</v>
+        <v>dialpad.videoCall</v>
       </c>
       <c r="C178" t="str">
-        <v>账号</v>
+        <v>视频呼叫</v>
       </c>
     </row>
     <row r="179">
@@ -2309,10 +2290,10 @@
         <v/>
       </c>
       <c r="B179" t="str">
-        <v>label.phone</v>
+        <v>dialpad.audioCall</v>
       </c>
       <c r="C179" t="str">
-        <v>手机</v>
+        <v>音频呼叫</v>
       </c>
     </row>
     <row r="180">
@@ -2320,10 +2301,10 @@
         <v/>
       </c>
       <c r="B180" t="str">
-        <v>label.email</v>
+        <v>dialpad.more</v>
       </c>
       <c r="C180" t="str">
-        <v>邮箱</v>
+        <v>更多</v>
       </c>
     </row>
     <row r="181">
@@ -2331,10 +2312,10 @@
         <v/>
       </c>
       <c r="B181" t="str">
-        <v>label.number</v>
+        <v>dialpad.del</v>
       </c>
       <c r="C181" t="str">
-        <v>号码</v>
+        <v>删除</v>
       </c>
     </row>
     <row r="182">
@@ -2342,10 +2323,13 @@
         <v/>
       </c>
       <c r="B182" t="str">
-        <v>label.group</v>
+        <v>record.all</v>
       </c>
       <c r="C182" t="str">
-        <v>分组</v>
+        <v>所有通话</v>
+      </c>
+      <c r="D182" t="str">
+        <v>所有通话</v>
       </c>
     </row>
     <row r="183">
@@ -2353,10 +2337,13 @@
         <v/>
       </c>
       <c r="B183" t="str">
-        <v>label.department</v>
+        <v>record.missed</v>
       </c>
       <c r="C183" t="str">
-        <v>部门</v>
+        <v>未接来电</v>
+      </c>
+      <c r="D183" t="str">
+        <v>未接来电</v>
       </c>
     </row>
     <row r="184">
@@ -2364,10 +2351,13 @@
         <v/>
       </c>
       <c r="B184" t="str">
-        <v>label.organizer</v>
+        <v>record.today</v>
       </c>
       <c r="C184" t="str">
-        <v>组织者</v>
+        <v>今天</v>
+      </c>
+      <c r="D184" t="str">
+        <v>today</v>
       </c>
     </row>
     <row r="185">
@@ -2375,10 +2365,13 @@
         <v/>
       </c>
       <c r="B185" t="str">
-        <v>label.noEmail</v>
+        <v>record.yesterday</v>
       </c>
       <c r="C185" t="str">
-        <v>暂无邮箱</v>
+        <v>昨天</v>
+      </c>
+      <c r="D185" t="str">
+        <v>yesterday</v>
       </c>
     </row>
     <row r="186">
@@ -2386,10 +2379,10 @@
         <v/>
       </c>
       <c r="B186" t="str">
-        <v>label.unknown</v>
+        <v>record.callOut</v>
       </c>
       <c r="C186" t="str">
-        <v>未知联系人</v>
+        <v>呼出</v>
       </c>
     </row>
     <row r="187">
@@ -2397,10 +2390,10 @@
         <v/>
       </c>
       <c r="B187" t="str">
-        <v>label.unknownInfo</v>
+        <v>record.refuse</v>
       </c>
       <c r="C187" t="str">
-        <v>暂时无法获取当前联系人的个性签名信息。</v>
+        <v>已拒接</v>
       </c>
     </row>
     <row r="188">
@@ -2408,10 +2401,10 @@
         <v/>
       </c>
       <c r="B188" t="str">
-        <v>label.unknownOrganizer</v>
+        <v>record.missCall</v>
       </c>
       <c r="C188" t="str">
-        <v>暂时无法获取当前会议的组织者。</v>
+        <v>未接</v>
       </c>
     </row>
     <row r="189">
@@ -2419,10 +2412,10 @@
         <v/>
       </c>
       <c r="B189" t="str">
-        <v>label.unknownDevice</v>
+        <v>record.callIn</v>
       </c>
       <c r="C189" t="str">
-        <v>暂时无法获取当前设备绑定的会议室。</v>
+        <v>呼入</v>
       </c>
     </row>
     <row r="190">
@@ -2430,10 +2423,10 @@
         <v/>
       </c>
       <c r="B190" t="str">
-        <v>label.unknownVMR</v>
+        <v>button.video</v>
       </c>
       <c r="C190" t="str">
-        <v>暂时无法获取当前虚拟会议模式。</v>
+        <v>视频通话</v>
       </c>
     </row>
     <row r="191">
@@ -2441,10 +2434,10 @@
         <v/>
       </c>
       <c r="B191" t="str">
-        <v>label.videoConference</v>
+        <v>button.audio</v>
       </c>
       <c r="C191" t="str">
-        <v>视频会议</v>
+        <v>音频通话</v>
       </c>
     </row>
     <row r="192">
@@ -2452,10 +2445,10 @@
         <v/>
       </c>
       <c r="B192" t="str">
-        <v>label.conferenceId</v>
-      </c>
-      <c r="C192" t="str">
-        <v>会议ID</v>
+        <v>conferenceDetail</v>
+      </c>
+      <c r="D192" t="str">
+        <v>会议详情</v>
       </c>
     </row>
     <row r="193">
@@ -2463,10 +2456,10 @@
         <v/>
       </c>
       <c r="B193" t="str">
-        <v>label.serviceNumber</v>
-      </c>
-      <c r="C193" t="str">
-        <v>服务号</v>
+        <v>callDetail</v>
+      </c>
+      <c r="D193" t="str">
+        <v>通话详情</v>
       </c>
     </row>
     <row r="194">
@@ -2474,32 +2467,15 @@
         <v/>
       </c>
       <c r="B194" t="str">
-        <v>label.noContact</v>
-      </c>
-      <c r="C194" t="str">
-        <v>暂无联系人</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" t="str">
-        <v/>
-      </c>
-      <c r="B195" t="str">
-        <v>placeholder.inputName</v>
-      </c>
-      <c r="C195" t="str">
-        <v>请输入姓名</v>
+        <v>dial</v>
+      </c>
+      <c r="D194" t="str">
+        <v>Dial</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="str">
-        <v/>
-      </c>
-      <c r="B196" t="str">
-        <v>placeholder.inputAccount</v>
-      </c>
-      <c r="C196" t="str">
-        <v>请输入账号</v>
+        <v>contact</v>
       </c>
     </row>
     <row r="197">
@@ -2507,10 +2483,10 @@
         <v/>
       </c>
       <c r="B197" t="str">
-        <v>placeholder.inputPhone</v>
+        <v>common.add</v>
       </c>
       <c r="C197" t="str">
-        <v>请输入手机号</v>
+        <v>添加联系人</v>
       </c>
     </row>
     <row r="198">
@@ -2518,10 +2494,10 @@
         <v/>
       </c>
       <c r="B198" t="str">
-        <v>placeholder.inputEmail</v>
+        <v>common.more</v>
       </c>
       <c r="C198" t="str">
-        <v>请输入邮箱</v>
+        <v>更多</v>
       </c>
     </row>
     <row r="199">
@@ -2529,10 +2505,10 @@
         <v/>
       </c>
       <c r="B199" t="str">
-        <v>message.success</v>
+        <v>common.person</v>
       </c>
       <c r="C199" t="str">
-        <v>操作成功！</v>
+        <v>人</v>
       </c>
     </row>
     <row r="200">
@@ -2540,10 +2516,10 @@
         <v/>
       </c>
       <c r="B200" t="str">
-        <v>message.inputName</v>
+        <v>local.describe</v>
       </c>
       <c r="C200" t="str">
-        <v>请输入用户姓名！</v>
+        <v>本地联系人</v>
       </c>
     </row>
     <row r="201">
@@ -2551,10 +2527,10 @@
         <v/>
       </c>
       <c r="B201" t="str">
-        <v>message.inputAccount</v>
+        <v>frequent.noFrequent</v>
       </c>
       <c r="C201" t="str">
-        <v>请输入账号！</v>
+        <v>暂未添加常用联系人</v>
       </c>
     </row>
     <row r="202">
@@ -2562,10 +2538,10 @@
         <v/>
       </c>
       <c r="B202" t="str">
-        <v>message.nameNoLess64</v>
+        <v>frequent.addFrequentGroup</v>
       </c>
       <c r="C202" t="str">
-        <v>用户名不能少于64位！</v>
+        <v>添加常用联系人分组</v>
       </c>
     </row>
     <row r="203">
@@ -2573,10 +2549,10 @@
         <v/>
       </c>
       <c r="B203" t="str">
-        <v>message.accountNoLess20</v>
+        <v>frequent.addGroup</v>
       </c>
       <c r="C203" t="str">
-        <v>账号不能少于20位！</v>
+        <v>添加分组</v>
       </c>
     </row>
     <row r="204">
@@ -2584,10 +2560,10 @@
         <v/>
       </c>
       <c r="B204" t="str">
-        <v>message.phoneNoMore11</v>
+        <v>frequent.editGroup</v>
       </c>
       <c r="C204" t="str">
-        <v>手机号不能超过11位!</v>
+        <v>编辑分组</v>
       </c>
     </row>
     <row r="205">
@@ -2595,10 +2571,10 @@
         <v/>
       </c>
       <c r="B205" t="str">
-        <v>message.wrongPhoneNumber</v>
+        <v>frequent.deleteGroup</v>
       </c>
       <c r="C205" t="str">
-        <v>手机号格式不正确!</v>
+        <v>删除分组</v>
       </c>
     </row>
     <row r="206">
@@ -2606,10 +2582,10 @@
         <v/>
       </c>
       <c r="B206" t="str">
-        <v>message.emailNoMore254</v>
+        <v>frequent.moveContact</v>
       </c>
       <c r="C206" t="str">
-        <v>邮箱不能超过254位!</v>
+        <v>移动该联系人至</v>
       </c>
     </row>
     <row r="207">
@@ -2617,10 +2593,10 @@
         <v/>
       </c>
       <c r="B207" t="str">
-        <v>message.wrongEmail</v>
+        <v>frequent.noOtherGroup</v>
       </c>
       <c r="C207" t="str">
-        <v>邮箱格式不正确！</v>
+        <v>暂无其他分组</v>
       </c>
     </row>
     <row r="208">
@@ -2628,10 +2604,10 @@
         <v/>
       </c>
       <c r="B208" t="str">
-        <v>message.addContact</v>
+        <v>frequent.removeContact</v>
       </c>
       <c r="C208" t="str">
-        <v>您最多只能添加{number}个联系人</v>
+        <v>移除该常用联系人</v>
       </c>
     </row>
     <row r="209">
@@ -2639,10 +2615,10 @@
         <v/>
       </c>
       <c r="B209" t="str">
-        <v>message.confirmDelete</v>
+        <v>corporate.describe</v>
       </c>
       <c r="C209" t="str">
-        <v>确认删除用户{name}？</v>
+        <v>企业联系人</v>
       </c>
     </row>
     <row r="210">
@@ -2650,10 +2626,10 @@
         <v/>
       </c>
       <c r="B210" t="str">
-        <v>message.deleteSuccess</v>
+        <v>label.name</v>
       </c>
       <c r="C210" t="str">
-        <v>删除成功</v>
+        <v>姓名</v>
       </c>
     </row>
     <row r="211">
@@ -2661,10 +2637,10 @@
         <v/>
       </c>
       <c r="B211" t="str">
-        <v>message.deleteFailed</v>
+        <v>label.account</v>
       </c>
       <c r="C211" t="str">
-        <v>删除失败，请重试!</v>
+        <v>账号</v>
       </c>
     </row>
     <row r="212">
@@ -2672,10 +2648,10 @@
         <v/>
       </c>
       <c r="B212" t="str">
-        <v>message.confirmDeleteGroup</v>
+        <v>label.phone</v>
       </c>
       <c r="C212" t="str">
-        <v>确认删除当前分组？</v>
+        <v>手机</v>
       </c>
     </row>
     <row r="213">
@@ -2683,10 +2659,10 @@
         <v/>
       </c>
       <c r="B213" t="str">
-        <v>message.moveSuccess</v>
+        <v>label.email</v>
       </c>
       <c r="C213" t="str">
-        <v>移动成功</v>
+        <v>邮箱</v>
       </c>
     </row>
     <row r="214">
@@ -2694,10 +2670,10 @@
         <v/>
       </c>
       <c r="B214" t="str">
-        <v>message.moveFailed</v>
+        <v>label.number</v>
       </c>
       <c r="C214" t="str">
-        <v>移动失败，可能目标分组已经存在此联系人，请重试</v>
+        <v>号码</v>
       </c>
     </row>
     <row r="215">
@@ -2705,10 +2681,10 @@
         <v/>
       </c>
       <c r="B215" t="str">
-        <v>message.sureToDelFreContact</v>
+        <v>label.group</v>
       </c>
       <c r="C215" t="str">
-        <v>确认删除当前常用联系人?</v>
+        <v>分组</v>
       </c>
     </row>
     <row r="216">
@@ -2716,10 +2692,10 @@
         <v/>
       </c>
       <c r="B216" t="str">
-        <v>status.cancel</v>
+        <v>label.department</v>
       </c>
       <c r="C216" t="str">
-        <v>已取消</v>
+        <v>部门</v>
       </c>
     </row>
     <row r="217">
@@ -2727,10 +2703,10 @@
         <v/>
       </c>
       <c r="B217" t="str">
-        <v>button.confirm</v>
+        <v>label.organizer</v>
       </c>
       <c r="C217" t="str">
-        <v>确定</v>
+        <v>组织者</v>
       </c>
     </row>
     <row r="218">
@@ -2738,10 +2714,10 @@
         <v/>
       </c>
       <c r="B218" t="str">
-        <v>button.cancel</v>
+        <v>label.noEmail</v>
       </c>
       <c r="C218" t="str">
-        <v>取消</v>
+        <v>暂无邮箱</v>
       </c>
     </row>
     <row r="219">
@@ -2749,10 +2725,10 @@
         <v/>
       </c>
       <c r="B219" t="str">
-        <v>button.editContact</v>
+        <v>label.unknown</v>
       </c>
       <c r="C219" t="str">
-        <v>编辑该联系人</v>
+        <v>未知联系人</v>
       </c>
     </row>
     <row r="220">
@@ -2760,10 +2736,10 @@
         <v/>
       </c>
       <c r="B220" t="str">
-        <v>button.deleteContact</v>
+        <v>label.unknownInfo</v>
       </c>
       <c r="C220" t="str">
-        <v>删除该联系人</v>
+        <v>暂时无法获取当前联系人的个性签名信息。</v>
       </c>
     </row>
     <row r="221">
@@ -2771,10 +2747,10 @@
         <v/>
       </c>
       <c r="B221" t="str">
-        <v>button.back</v>
+        <v>label.unknownOrganizer</v>
       </c>
       <c r="C221" t="str">
-        <v>返回</v>
+        <v>暂时无法获取当前会议的组织者。</v>
       </c>
     </row>
     <row r="222">
@@ -2782,10 +2758,10 @@
         <v/>
       </c>
       <c r="B222" t="str">
-        <v>button.meetingNow</v>
+        <v>label.unknownDevice</v>
       </c>
       <c r="C222" t="str">
-        <v>立即开会</v>
+        <v>暂时无法获取当前设备绑定的会议室。</v>
       </c>
     </row>
     <row r="223">
@@ -2793,10 +2769,10 @@
         <v/>
       </c>
       <c r="B223" t="str">
-        <v>titles.search</v>
+        <v>label.unknownVMR</v>
       </c>
       <c r="C223" t="str">
-        <v>拨号搜素结果</v>
+        <v>暂时无法获取当前虚拟会议模式。</v>
       </c>
     </row>
     <row r="224">
@@ -2804,10 +2780,10 @@
         <v/>
       </c>
       <c r="B224" t="str">
-        <v>titles.callGroup</v>
+        <v>label.videoConference</v>
       </c>
       <c r="C224" t="str">
-        <v>发起群呼</v>
+        <v>视频会议</v>
       </c>
     </row>
     <row r="225">
@@ -2815,10 +2791,10 @@
         <v/>
       </c>
       <c r="B225" t="str">
-        <v>local.title.addAs</v>
+        <v>label.conferenceId</v>
       </c>
       <c r="C225" t="str">
-        <v>添加为本地联系人</v>
+        <v>会议ID</v>
       </c>
     </row>
     <row r="226">
@@ -2826,10 +2802,10 @@
         <v/>
       </c>
       <c r="B226" t="str">
-        <v>local.title.add</v>
+        <v>label.serviceNumber</v>
       </c>
       <c r="C226" t="str">
-        <v>添加本地联系人</v>
+        <v>服务号</v>
       </c>
     </row>
     <row r="227">
@@ -2837,10 +2813,10 @@
         <v/>
       </c>
       <c r="B227" t="str">
-        <v>local.title.edit</v>
+        <v>label.noContact</v>
       </c>
       <c r="C227" t="str">
-        <v>编辑本地联系人</v>
+        <v>暂无联系人</v>
       </c>
     </row>
     <row r="228">
@@ -2848,10 +2824,10 @@
         <v/>
       </c>
       <c r="B228" t="str">
-        <v>local.title.noContact</v>
+        <v>placeholder.inputName</v>
       </c>
       <c r="C228" t="str">
-        <v>暂未添加本地联系人</v>
+        <v>请输入姓名</v>
       </c>
     </row>
     <row r="229">
@@ -2859,10 +2835,10 @@
         <v/>
       </c>
       <c r="B229" t="str">
-        <v>modal.placeholder.enterGroupName</v>
+        <v>placeholder.inputAccount</v>
       </c>
       <c r="C229" t="str">
-        <v>请输入分组名称</v>
+        <v>请输入账号</v>
       </c>
     </row>
     <row r="230">
@@ -2870,10 +2846,10 @@
         <v/>
       </c>
       <c r="B230" t="str">
-        <v>modal.title.addGroup</v>
+        <v>placeholder.inputPhone</v>
       </c>
       <c r="C230" t="str">
-        <v>添加分组</v>
+        <v>请输入手机号</v>
       </c>
     </row>
     <row r="231">
@@ -2881,10 +2857,10 @@
         <v/>
       </c>
       <c r="B231" t="str">
-        <v>modal.title.updateGroup</v>
+        <v>placeholder.inputEmail</v>
       </c>
       <c r="C231" t="str">
-        <v>更新分组</v>
+        <v>请输入邮箱</v>
       </c>
     </row>
     <row r="232">
@@ -2892,10 +2868,10 @@
         <v/>
       </c>
       <c r="B232" t="str">
-        <v>modal.title.groupNoMore30</v>
+        <v>placeholder.search</v>
       </c>
       <c r="C232" t="str">
-        <v>分组长度不能超过30</v>
+        <v>搜索联系人</v>
       </c>
     </row>
     <row r="233">
@@ -2903,10 +2879,10 @@
         <v/>
       </c>
       <c r="B233" t="str">
-        <v>modal.title.groupNameNoEmpty</v>
+        <v>message.success</v>
       </c>
       <c r="C233" t="str">
-        <v>分组名称不能为空</v>
+        <v>操作成功！</v>
       </c>
     </row>
     <row r="234">
@@ -2914,10 +2890,10 @@
         <v/>
       </c>
       <c r="B234" t="str">
-        <v>modal.message.updateSuccess</v>
+        <v>message.inputName</v>
       </c>
       <c r="C234" t="str">
-        <v>更新成功!</v>
+        <v>请输入用户姓名！</v>
       </c>
     </row>
     <row r="235">
@@ -2925,10 +2901,10 @@
         <v/>
       </c>
       <c r="B235" t="str">
-        <v>modal.message.addSuccess</v>
+        <v>message.inputAccount</v>
       </c>
       <c r="C235" t="str">
-        <v>添加成功!</v>
+        <v>请输入账号！</v>
       </c>
     </row>
     <row r="236">
@@ -2936,15 +2912,3842 @@
         <v/>
       </c>
       <c r="B236" t="str">
+        <v>message.nameNoLess64</v>
+      </c>
+      <c r="C236" t="str">
+        <v>用户名不能少于64位！</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="str">
+        <v/>
+      </c>
+      <c r="B237" t="str">
+        <v>message.accountNoLess20</v>
+      </c>
+      <c r="C237" t="str">
+        <v>账号不能少于20位！</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="str">
+        <v/>
+      </c>
+      <c r="B238" t="str">
+        <v>message.phoneNoMore11</v>
+      </c>
+      <c r="C238" t="str">
+        <v>手机号不能超过11位!</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="str">
+        <v/>
+      </c>
+      <c r="B239" t="str">
+        <v>message.wrongPhoneNumber</v>
+      </c>
+      <c r="C239" t="str">
+        <v>手机号格式不正确!</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="str">
+        <v/>
+      </c>
+      <c r="B240" t="str">
+        <v>message.emailNoMore254</v>
+      </c>
+      <c r="C240" t="str">
+        <v>邮箱不能超过254位!</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="str">
+        <v/>
+      </c>
+      <c r="B241" t="str">
+        <v>message.wrongEmail</v>
+      </c>
+      <c r="C241" t="str">
+        <v>邮箱格式不正确！</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="str">
+        <v/>
+      </c>
+      <c r="B242" t="str">
+        <v>message.addContact</v>
+      </c>
+      <c r="C242" t="str">
+        <v>您最多只能添加{number}个联系人</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="str">
+        <v/>
+      </c>
+      <c r="B243" t="str">
+        <v>message.confirmDelete</v>
+      </c>
+      <c r="C243" t="str">
+        <v>确认删除用户{name}？</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="str">
+        <v/>
+      </c>
+      <c r="B244" t="str">
+        <v>message.deleteSuccess</v>
+      </c>
+      <c r="C244" t="str">
+        <v>删除成功</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="str">
+        <v/>
+      </c>
+      <c r="B245" t="str">
+        <v>message.deleteFailed</v>
+      </c>
+      <c r="C245" t="str">
+        <v>删除失败，请重试!</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="str">
+        <v/>
+      </c>
+      <c r="B246" t="str">
+        <v>message.confirmDeleteGroup</v>
+      </c>
+      <c r="C246" t="str">
+        <v>确认删除当前分组？</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="str">
+        <v/>
+      </c>
+      <c r="B247" t="str">
+        <v>message.moveSuccess</v>
+      </c>
+      <c r="C247" t="str">
+        <v>移动成功</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="str">
+        <v/>
+      </c>
+      <c r="B248" t="str">
+        <v>message.moveFailed</v>
+      </c>
+      <c r="C248" t="str">
+        <v>移动失败，可能目标分组已经存在此联系人，请重试</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="str">
+        <v/>
+      </c>
+      <c r="B249" t="str">
+        <v>message.sureToDelFreContact</v>
+      </c>
+      <c r="C249" t="str">
+        <v>确认删除当前常用联系人?</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="str">
+        <v/>
+      </c>
+      <c r="B250" t="str">
+        <v>status.cancel</v>
+      </c>
+      <c r="C250" t="str">
+        <v>已取消</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="str">
+        <v/>
+      </c>
+      <c r="B251" t="str">
+        <v>button.confirm</v>
+      </c>
+      <c r="C251" t="str">
+        <v>确定</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="str">
+        <v/>
+      </c>
+      <c r="B252" t="str">
+        <v>button.cancel</v>
+      </c>
+      <c r="C252" t="str">
+        <v>取消</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="str">
+        <v/>
+      </c>
+      <c r="B253" t="str">
+        <v>button.editContact</v>
+      </c>
+      <c r="C253" t="str">
+        <v>编辑该联系人</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="str">
+        <v/>
+      </c>
+      <c r="B254" t="str">
+        <v>button.deleteContact</v>
+      </c>
+      <c r="C254" t="str">
+        <v>删除该联系人</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="str">
+        <v/>
+      </c>
+      <c r="B255" t="str">
+        <v>button.back</v>
+      </c>
+      <c r="C255" t="str">
+        <v>返回</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="str">
+        <v/>
+      </c>
+      <c r="B256" t="str">
+        <v>button.meetingNow</v>
+      </c>
+      <c r="C256" t="str">
+        <v>立即开会</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="str">
+        <v/>
+      </c>
+      <c r="B257" t="str">
+        <v>button.pullUp</v>
+      </c>
+      <c r="C257" t="str">
+        <v>收起</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="str">
+        <v/>
+      </c>
+      <c r="B258" t="str">
+        <v>button.more</v>
+      </c>
+      <c r="C258" t="str">
+        <v>更多</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="str">
+        <v/>
+      </c>
+      <c r="B259" t="str">
+        <v>titles.search</v>
+      </c>
+      <c r="C259" t="str">
+        <v>拨号搜素结果</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="str">
+        <v/>
+      </c>
+      <c r="B260" t="str">
+        <v>titles.callGroup</v>
+      </c>
+      <c r="C260" t="str">
+        <v>发起群呼</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="str">
+        <v/>
+      </c>
+      <c r="B261" t="str">
+        <v>tree.clearAll</v>
+      </c>
+      <c r="C261" t="str">
+        <v>全部清空</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="str">
+        <v/>
+      </c>
+      <c r="B262" t="str">
+        <v>tree.del</v>
+      </c>
+      <c r="C262" t="str">
+        <v>删除</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="str">
+        <v/>
+      </c>
+      <c r="B263" t="str">
+        <v>tree.choosePerson</v>
+      </c>
+      <c r="C263" t="str">
+        <v>请选择参会成员</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="str">
+        <v/>
+      </c>
+      <c r="B264" t="str">
+        <v>tree.loadFailed</v>
+      </c>
+      <c r="C264" t="str">
+        <v>加载失败!</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="str">
+        <v/>
+      </c>
+      <c r="B265" t="str">
+        <v>tree.search</v>
+      </c>
+      <c r="C265" t="str">
+        <v>搜索</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="str">
+        <v/>
+      </c>
+      <c r="B266" t="str">
+        <v>local.title.addAs</v>
+      </c>
+      <c r="C266" t="str">
+        <v>添加为本地联系人</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="str">
+        <v/>
+      </c>
+      <c r="B267" t="str">
+        <v>local.title.add</v>
+      </c>
+      <c r="C267" t="str">
+        <v>添加本地联系人</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="str">
+        <v/>
+      </c>
+      <c r="B268" t="str">
+        <v>local.title.edit</v>
+      </c>
+      <c r="C268" t="str">
+        <v>编辑本地联系人</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="str">
+        <v/>
+      </c>
+      <c r="B269" t="str">
+        <v>local.title.noContact</v>
+      </c>
+      <c r="C269" t="str">
+        <v>暂未添加本地联系人</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="str">
+        <v/>
+      </c>
+      <c r="B270" t="str">
+        <v>modal.placeholder.enterGroupName</v>
+      </c>
+      <c r="C270" t="str">
+        <v>请输入分组名称</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="str">
+        <v/>
+      </c>
+      <c r="B271" t="str">
+        <v>modal.title.addGroup</v>
+      </c>
+      <c r="C271" t="str">
+        <v>添加分组</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="str">
+        <v/>
+      </c>
+      <c r="B272" t="str">
+        <v>modal.title.updateGroup</v>
+      </c>
+      <c r="C272" t="str">
+        <v>更新分组</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="str">
+        <v/>
+      </c>
+      <c r="B273" t="str">
+        <v>modal.title.groupNoMore30</v>
+      </c>
+      <c r="C273" t="str">
+        <v>分组长度不能超过30</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="str">
+        <v/>
+      </c>
+      <c r="B274" t="str">
+        <v>modal.title.groupNameNoEmpty</v>
+      </c>
+      <c r="C274" t="str">
+        <v>分组名称不能为空</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="str">
+        <v/>
+      </c>
+      <c r="B275" t="str">
+        <v>modal.message.updateSuccess</v>
+      </c>
+      <c r="C275" t="str">
+        <v>更新成功!</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="str">
+        <v/>
+      </c>
+      <c r="B276" t="str">
+        <v>modal.message.addSuccess</v>
+      </c>
+      <c r="C276" t="str">
+        <v>添加成功!</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="str">
+        <v/>
+      </c>
+      <c r="B277" t="str">
         <v>modal.message.sameGroupName</v>
       </c>
-      <c r="C236" t="str">
+      <c r="C277" t="str">
         <v>您已经添加了相同的分组！</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="str">
+        <v>join</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="str">
+        <v/>
+      </c>
+      <c r="B280" t="str">
+        <v>title.joinMeeting</v>
+      </c>
+      <c r="C280" t="str">
+        <v>加入会议</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="str">
+        <v/>
+      </c>
+      <c r="B281" t="str">
+        <v>title.back</v>
+      </c>
+      <c r="C281" t="str">
+        <v>返回</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="str">
+        <v/>
+      </c>
+      <c r="B282" t="str">
+        <v>title.join</v>
+      </c>
+      <c r="C282" t="str">
+        <v>加入</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="str">
+        <v/>
+      </c>
+      <c r="B283" t="str">
+        <v>title.inputConferenceId</v>
+      </c>
+      <c r="C283" t="str">
+        <v>输入会议号码</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="str">
+        <v/>
+      </c>
+      <c r="B284" t="str">
+        <v>title.startMeeting</v>
+      </c>
+      <c r="C284" t="str">
+        <v>开始会议</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="str">
+        <v/>
+      </c>
+      <c r="B285" t="str">
+        <v>placeholder.conferenceId</v>
+      </c>
+      <c r="C285" t="str">
+        <v>会议 ID</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="str">
+        <v/>
+      </c>
+      <c r="B286" t="str">
+        <v>placeholder.password</v>
+      </c>
+      <c r="C286" t="str">
+        <v>会议密码</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="str">
+        <v/>
+      </c>
+      <c r="B287" t="str">
+        <v>account.history</v>
+      </c>
+      <c r="C287" t="str">
+        <v>历史记录</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="str">
+        <v/>
+      </c>
+      <c r="B288" t="str">
+        <v>account.clear</v>
+      </c>
+      <c r="C288" t="str">
+        <v>清空</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="str">
+        <v/>
+      </c>
+      <c r="B289" t="str">
+        <v>message.conferenceIdNoEmpty</v>
+      </c>
+      <c r="C289" t="str">
+        <v>会议ID不能为空</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="str">
+        <v/>
+      </c>
+      <c r="B290" t="str">
+        <v>message.idNoMore64</v>
+      </c>
+      <c r="C290" t="str">
+        <v>会议ID最多为64位</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="str">
+        <v/>
+      </c>
+      <c r="B291" t="str">
+        <v>message.ymsIdNoMore5</v>
+      </c>
+      <c r="C291" t="str">
+        <v>YMS账号会议ID仅支持五位数字输入</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="str">
+        <v/>
+      </c>
+      <c r="B292" t="str">
+        <v>message.cloudIdNoMore10</v>
+      </c>
+      <c r="C292" t="str">
+        <v>Cloud账号会议ID仅支持5位或者10位数字输入</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="str">
+        <v/>
+      </c>
+      <c r="B293" t="str">
+        <v>button.openMic</v>
+      </c>
+      <c r="C293" t="str">
+        <v>打开麦克风</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="str">
+        <v/>
+      </c>
+      <c r="B294" t="str">
+        <v>button.closeMic</v>
+      </c>
+      <c r="C294" t="str">
+        <v>关闭麦克风</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="str">
+        <v/>
+      </c>
+      <c r="B295" t="str">
+        <v>button.openCamera</v>
+      </c>
+      <c r="C295" t="str">
+        <v>打开摄像头</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="str">
+        <v/>
+      </c>
+      <c r="B296" t="str">
+        <v>button.closeCamera</v>
+      </c>
+      <c r="C296" t="str">
+        <v>关闭摄像头</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="str">
+        <v/>
+      </c>
+      <c r="B297" t="str">
+        <v>title.InitiateMeeting</v>
+      </c>
+      <c r="D297" t="str">
+        <v>Meeting Now</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="str">
+        <v>nav</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="str">
+        <v/>
+      </c>
+      <c r="B300" t="str">
+        <v>meeting</v>
+      </c>
+      <c r="C300" t="str">
+        <v>会议</v>
+      </c>
+      <c r="D300" t="str">
+        <v>Meeting</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="str">
+        <v/>
+      </c>
+      <c r="B301" t="str">
+        <v>schedule</v>
+      </c>
+      <c r="C301" t="str">
+        <v>日程</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="str">
+        <v/>
+      </c>
+      <c r="B302" t="str">
+        <v>contact</v>
+      </c>
+      <c r="C302" t="str">
+        <v>联系人</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="str">
+        <v/>
+      </c>
+      <c r="B303" t="str">
+        <v>setting</v>
+      </c>
+      <c r="C303" t="str">
+        <v>设置</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="str">
+        <v/>
+      </c>
+      <c r="B304" t="str">
+        <v>newMeeting</v>
+      </c>
+      <c r="C304" t="str">
+        <v>新的会议</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="str">
+        <v/>
+      </c>
+      <c r="B305" t="str">
+        <v>InitiateMeeting</v>
+      </c>
+      <c r="C305" t="str">
+        <v>发起会议</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="str">
+        <v/>
+      </c>
+      <c r="B306" t="str">
+        <v>joinMeeting</v>
+      </c>
+      <c r="C306" t="str">
+        <v>加入会议</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="str">
+        <v/>
+      </c>
+      <c r="B307" t="str">
+        <v>dial</v>
+      </c>
+      <c r="C307" t="str">
+        <v>拨号</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="str">
+        <v/>
+      </c>
+      <c r="B308" t="str">
+        <v>corporate</v>
+      </c>
+      <c r="C308" t="str">
+        <v>企业联系人</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="str">
+        <v/>
+      </c>
+      <c r="B309" t="str">
+        <v>frequent</v>
+      </c>
+      <c r="C309" t="str">
+        <v>常用联系人</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="str">
+        <v/>
+      </c>
+      <c r="B310" t="str">
+        <v>local</v>
+      </c>
+      <c r="C310" t="str">
+        <v>本地联系人</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="str">
+        <v/>
+      </c>
+      <c r="B311" t="str">
+        <v>account</v>
+      </c>
+      <c r="C311" t="str">
+        <v>个人资料</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="str">
+        <v/>
+      </c>
+      <c r="B312" t="str">
+        <v>common</v>
+      </c>
+      <c r="C312" t="str">
+        <v>通用</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="str">
+        <v/>
+      </c>
+      <c r="B313" t="str">
+        <v>conference</v>
+      </c>
+      <c r="C313" t="str">
+        <v>会议</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="str">
+        <v/>
+      </c>
+      <c r="B314" t="str">
+        <v>audio</v>
+      </c>
+      <c r="C314" t="str">
+        <v>音频</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="str">
+        <v/>
+      </c>
+      <c r="B315" t="str">
+        <v>video</v>
+      </c>
+      <c r="C315" t="str">
+        <v>视频</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="str">
+        <v/>
+      </c>
+      <c r="B316" t="str">
+        <v>about</v>
+      </c>
+      <c r="C316" t="str">
+        <v>关于</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="str">
+        <v/>
+      </c>
+      <c r="B317" t="str">
+        <v>logout</v>
+      </c>
+      <c r="C317" t="str">
+        <v>注销</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="str">
+        <v/>
+      </c>
+      <c r="B318" t="str">
+        <v>feedback</v>
+      </c>
+      <c r="C318" t="str">
+        <v>反馈</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="str">
+        <v>conversation</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="str">
+        <v/>
+      </c>
+      <c r="B321" t="str">
+        <v>main.maximizeOrMinimize</v>
+      </c>
+      <c r="C321" t="str">
+        <v>最大化/最小化</v>
+      </c>
+      <c r="D321" t="str">
+        <v>maximize/minimize</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="str">
+        <v/>
+      </c>
+      <c r="B322" t="str">
+        <v>main.inviteMember</v>
+      </c>
+      <c r="C322" t="str">
+        <v>邀请成员</v>
+      </c>
+      <c r="D322" t="str">
+        <v>Invite Member</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="str">
+        <v/>
+      </c>
+      <c r="B323" t="str">
+        <v>main.lockConference</v>
+      </c>
+      <c r="C323" t="str">
+        <v>锁定会议</v>
+      </c>
+      <c r="D323" t="str">
+        <v>Lock Conference</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="str">
+        <v/>
+      </c>
+      <c r="B324" t="str">
+        <v>main.memberList</v>
+      </c>
+      <c r="C324" t="str">
+        <v>成员列表</v>
+      </c>
+      <c r="D324" t="str">
+        <v>Member List</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="str">
+        <v/>
+      </c>
+      <c r="B325" t="str">
+        <v>main.chat</v>
+      </c>
+      <c r="C325" t="str">
+        <v>聊天</v>
+      </c>
+      <c r="D325" t="str">
+        <v>Chat</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="str">
+        <v/>
+      </c>
+      <c r="B326" t="str">
+        <v>main.setting</v>
+      </c>
+      <c r="C326" t="str">
+        <v>会议设置</v>
+      </c>
+      <c r="D326" t="str">
+        <v>Setting</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="str">
+        <v/>
+      </c>
+      <c r="B327" t="str">
+        <v>main.popSharing</v>
+      </c>
+      <c r="C327" t="str">
+        <v>弹出辅流</v>
+      </c>
+      <c r="D327" t="str">
+        <v>POP Sharing</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="str">
+        <v/>
+      </c>
+      <c r="B328" t="str">
+        <v>main.screenShare</v>
+      </c>
+      <c r="C328" t="str">
+        <v>辅流分享</v>
+      </c>
+      <c r="D328" t="str">
+        <v>Screen Share</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="str">
+        <v/>
+      </c>
+      <c r="B329" t="str">
+        <v>main.localVideo</v>
+      </c>
+      <c r="C329" t="str">
+        <v>本地视频</v>
+      </c>
+      <c r="D329" t="str">
+        <v>Local Video</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="str">
+        <v/>
+      </c>
+      <c r="B330" t="str">
+        <v>main.audioConference</v>
+      </c>
+      <c r="C330" t="str">
+        <v>音频会议</v>
+      </c>
+      <c r="D330" t="str">
+        <v>Audio Conference</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="str">
+        <v/>
+      </c>
+      <c r="B331" t="str">
+        <v>main.audioCall</v>
+      </c>
+      <c r="C331" t="str">
+        <v>音频通话</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="str">
+        <v/>
+      </c>
+      <c r="B332" t="str">
+        <v>main.videoCall</v>
+      </c>
+      <c r="C332" t="str">
+        <v>视频通话</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="str">
+        <v/>
+      </c>
+      <c r="B333" t="str">
+        <v>title.calling</v>
+      </c>
+      <c r="C333" t="str">
+        <v>正在呼叫</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="str">
+        <v/>
+      </c>
+      <c r="B334" t="str">
+        <v>title.connecting</v>
+      </c>
+      <c r="C334" t="str">
+        <v>正在呼叫 {target}</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="str">
+        <v/>
+      </c>
+      <c r="B335" t="str">
+        <v>title.connected</v>
+      </c>
+      <c r="C335" t="str">
+        <v>正在与 {target} 进行通话</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="str">
+        <v/>
+      </c>
+      <c r="B336" t="str">
+        <v>title.ringing</v>
+      </c>
+      <c r="C336" t="str">
+        <v>{target} 正在来电</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="str">
+        <v/>
+      </c>
+      <c r="B337" t="str">
+        <v>title.disconnected</v>
+      </c>
+      <c r="C337" t="str">
+        <v>与 {target} 的通话已结束</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="str">
+        <v/>
+      </c>
+      <c r="B338" t="str">
+        <v>title.expired</v>
+      </c>
+      <c r="C338" t="str">
+        <v>当前通话已失效</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="str">
+        <v/>
+      </c>
+      <c r="B339" t="str">
+        <v>title.with</v>
+      </c>
+      <c r="C339" t="str">
+        <v>与</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="str">
+        <v/>
+      </c>
+      <c r="B340" t="str">
+        <v>title.communicating</v>
+      </c>
+      <c r="C340" t="str">
+        <v>通话中</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="str">
+        <v/>
+      </c>
+      <c r="B341" t="str">
+        <v>title.unknownUser</v>
+      </c>
+      <c r="C341" t="str">
+        <v>未知用户</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="str">
+        <v/>
+      </c>
+      <c r="B342" t="str">
+        <v>title.audioSubject</v>
+      </c>
+      <c r="C342" t="str">
+        <v>{target} 的音频会议</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="str">
+        <v/>
+      </c>
+      <c r="B343" t="str">
+        <v>title.videoSubject</v>
+      </c>
+      <c r="C343" t="str">
+        <v>{target} 的视频会议</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="str">
+        <v/>
+      </c>
+      <c r="B344" t="str">
+        <v>statistics.send</v>
+      </c>
+      <c r="C344" t="str">
+        <v>接受</v>
+      </c>
+      <c r="D344" t="str">
+        <v xml:space="preserve">send             </v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="str">
+        <v/>
+      </c>
+      <c r="B345" t="str">
+        <v>statistics.receive</v>
+      </c>
+      <c r="C345" t="str">
+        <v>发送</v>
+      </c>
+      <c r="D345" t="str">
+        <v xml:space="preserve">receive          </v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="str">
+        <v/>
+      </c>
+      <c r="B346" t="str">
+        <v>statistics.deviceType</v>
+      </c>
+      <c r="C346" t="str">
+        <v>终端类型</v>
+      </c>
+      <c r="D346" t="str">
+        <v xml:space="preserve">deviceType       </v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="str">
+        <v/>
+      </c>
+      <c r="B347" t="str">
+        <v>statistics.refreshDeviceInfo</v>
+      </c>
+      <c r="C347" t="str">
+        <v>刷新设备信息</v>
+      </c>
+      <c r="D347" t="str">
+        <v>refreshDeviceInfo</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="str">
+        <v/>
+      </c>
+      <c r="B348" t="str">
+        <v>statistics.closeDeviceInfo</v>
+      </c>
+      <c r="C348" t="str">
+        <v>关闭设备详情</v>
+      </c>
+      <c r="D348" t="str">
+        <v xml:space="preserve">closeDeviceInfo  </v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="str">
+        <v/>
+      </c>
+      <c r="B349" t="str">
+        <v>statistics.bitrate</v>
+      </c>
+      <c r="C349" t="str">
+        <v>带宽</v>
+      </c>
+      <c r="D349" t="str">
+        <v xml:space="preserve">bitrate          </v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="str">
+        <v/>
+      </c>
+      <c r="B350" t="str">
+        <v>statistics.ratio</v>
+      </c>
+      <c r="C350" t="str">
+        <v>分辨率</v>
+      </c>
+      <c r="D350" t="str">
+        <v xml:space="preserve">ratio            </v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="str">
+        <v/>
+      </c>
+      <c r="B351" t="str">
+        <v>statistics.frameRate</v>
+      </c>
+      <c r="C351" t="str">
+        <v>帧率</v>
+      </c>
+      <c r="D351" t="str">
+        <v xml:space="preserve">frameRate        </v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="str">
+        <v/>
+      </c>
+      <c r="B352" t="str">
+        <v>statistics.codec</v>
+      </c>
+      <c r="C352" t="str">
+        <v>编解码</v>
+      </c>
+      <c r="D352" t="str">
+        <v xml:space="preserve">codec            </v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="str">
+        <v/>
+      </c>
+      <c r="B353" t="str">
+        <v>statistics.jitter</v>
+      </c>
+      <c r="C353" t="str">
+        <v>抖动</v>
+      </c>
+      <c r="D353" t="str">
+        <v xml:space="preserve">jitter           </v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="str">
+        <v/>
+      </c>
+      <c r="B354" t="str">
+        <v>statistics.packetsLost</v>
+      </c>
+      <c r="C354" t="str">
+        <v>丢包数</v>
+      </c>
+      <c r="D354" t="str">
+        <v xml:space="preserve">packetsLost      </v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="str">
+        <v/>
+      </c>
+      <c r="B355" t="str">
+        <v>statistics.packetsLostRate</v>
+      </c>
+      <c r="C355" t="str">
+        <v>丢包率</v>
+      </c>
+      <c r="D355" t="str">
+        <v xml:space="preserve">packetsLostRate  </v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="str">
+        <v/>
+      </c>
+      <c r="B356" t="str">
+        <v>statistics.video</v>
+      </c>
+      <c r="C356" t="str">
+        <v>视频</v>
+      </c>
+      <c r="D356" t="str">
+        <v xml:space="preserve">video            </v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="str">
+        <v/>
+      </c>
+      <c r="B357" t="str">
+        <v>statistics.audio</v>
+      </c>
+      <c r="C357" t="str">
+        <v>音频</v>
+      </c>
+      <c r="D357" t="str">
+        <v xml:space="preserve">audio            </v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="str">
+        <v/>
+      </c>
+      <c r="B358" t="str">
+        <v>statistics.screen</v>
+      </c>
+      <c r="C358" t="str">
+        <v>辅流</v>
+      </c>
+      <c r="D358" t="str">
+        <v xml:space="preserve">screen           </v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="str">
+        <v/>
+      </c>
+      <c r="B359" t="str">
+        <v>statistics.excellent</v>
+      </c>
+      <c r="C359" t="str">
+        <v>极佳</v>
+      </c>
+      <c r="D359" t="str">
+        <v xml:space="preserve">excellent        </v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="str">
+        <v/>
+      </c>
+      <c r="B360" t="str">
+        <v>statistics.good</v>
+      </c>
+      <c r="C360" t="str">
+        <v>良好</v>
+      </c>
+      <c r="D360" t="str">
+        <v xml:space="preserve">good             </v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="str">
+        <v/>
+      </c>
+      <c r="B361" t="str">
+        <v>statistics.general</v>
+      </c>
+      <c r="C361" t="str">
+        <v>一般</v>
+      </c>
+      <c r="D361" t="str">
+        <v xml:space="preserve">general          </v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="str">
+        <v/>
+      </c>
+      <c r="B362" t="str">
+        <v>statistics.poor</v>
+      </c>
+      <c r="C362" t="str">
+        <v>极差</v>
+      </c>
+      <c r="D362" t="str">
+        <v xml:space="preserve">poor             </v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="str">
+        <v/>
+      </c>
+      <c r="B363" t="str">
+        <v>statistics.network</v>
+      </c>
+      <c r="C363" t="str">
+        <v>网络</v>
+      </c>
+      <c r="D363" t="str">
+        <v xml:space="preserve">network          </v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="str">
+        <v/>
+      </c>
+      <c r="B364" t="str">
+        <v>statistics.totalBitrate</v>
+      </c>
+      <c r="C364" t="str">
+        <v>总带宽</v>
+      </c>
+      <c r="D364" t="str">
+        <v xml:space="preserve">Total Bitrate    </v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="str">
+        <v/>
+      </c>
+      <c r="B365" t="str">
+        <v>statistics.ip</v>
+      </c>
+      <c r="C365" t="str">
+        <v>IP地址</v>
+      </c>
+      <c r="D365" t="str">
+        <v xml:space="preserve">ip               </v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="str">
+        <v/>
+      </c>
+      <c r="B366" t="str">
+        <v>statistics.protocolType</v>
+      </c>
+      <c r="C366" t="str">
+        <v>协议类型</v>
+      </c>
+      <c r="D366" t="str">
+        <v xml:space="preserve">Protocol Type    </v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="str">
+        <v/>
+      </c>
+      <c r="B367" t="str">
+        <v>header.conferenceLocked</v>
+      </c>
+      <c r="C367" t="str">
+        <v>会议已锁定</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="str">
+        <v/>
+      </c>
+      <c r="B368" t="str">
+        <v>header.safeConversation</v>
+      </c>
+      <c r="C368" t="str">
+        <v>通话保护</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="str">
+        <v/>
+      </c>
+      <c r="B369" t="str">
+        <v>header.signal</v>
+      </c>
+      <c r="C369" t="str">
+        <v>信号</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="str">
+        <v/>
+      </c>
+      <c r="B370" t="str">
+        <v>controls.turnOffCamera</v>
+      </c>
+      <c r="C370" t="str">
+        <v>关闭摄像头</v>
+      </c>
+      <c r="D370" t="str">
+        <v>Turn Off Camera</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="str">
+        <v/>
+      </c>
+      <c r="B371" t="str">
+        <v>controls.turnOnCamera</v>
+      </c>
+      <c r="C371" t="str">
+        <v>打开摄像头</v>
+      </c>
+      <c r="D371" t="str">
+        <v>Turn On Camera</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="str">
+        <v/>
+      </c>
+      <c r="B372" t="str">
+        <v>controls.turnOffMicrophone</v>
+      </c>
+      <c r="C372" t="str">
+        <v>关闭麦克风</v>
+      </c>
+      <c r="D372" t="str">
+        <v>Turn Off Microphone</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="str">
+        <v/>
+      </c>
+      <c r="B373" t="str">
+        <v>controls.turnOnMicrophone</v>
+      </c>
+      <c r="C373" t="str">
+        <v>打开麦克风</v>
+      </c>
+      <c r="D373" t="str">
+        <v>Turn On Microphone</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="str">
+        <v/>
+      </c>
+      <c r="B374" t="str">
+        <v>controls.raiseHangs</v>
+      </c>
+      <c r="C374" t="str">
+        <v>举手</v>
+      </c>
+      <c r="D374" t="str">
+        <v>Raise Hangs</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="str">
+        <v/>
+      </c>
+      <c r="B375" t="str">
+        <v>controls.cancelRaiseHangs</v>
+      </c>
+      <c r="C375" t="str">
+        <v>取消举手</v>
+      </c>
+      <c r="D375" t="str">
+        <v>Cancel Raise Hangs</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="str">
+        <v/>
+      </c>
+      <c r="B376" t="str">
+        <v>controls.screenShare</v>
+      </c>
+      <c r="C376" t="str">
+        <v>分享辅流</v>
+      </c>
+      <c r="D376" t="str">
+        <v>Screen Share</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="str">
+        <v/>
+      </c>
+      <c r="B377" t="str">
+        <v>controls.screenSharing</v>
+      </c>
+      <c r="C377" t="str">
+        <v>正在分享辅流</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="str">
+        <v/>
+      </c>
+      <c r="B378" t="str">
+        <v>controls.more</v>
+      </c>
+      <c r="C378" t="str">
+        <v>更多</v>
+      </c>
+      <c r="D378" t="str">
+        <v>More</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="str">
+        <v/>
+      </c>
+      <c r="B379" t="str">
+        <v>controls.toAudio</v>
+      </c>
+      <c r="C379" t="str">
+        <v>切换为音频会议</v>
+      </c>
+      <c r="D379" t="str">
+        <v>To Audio Conference</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="str">
+        <v/>
+      </c>
+      <c r="B380" t="str">
+        <v>controls.toAudioCall</v>
+      </c>
+      <c r="C380" t="str">
+        <v>切换为音频通话</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="str">
+        <v/>
+      </c>
+      <c r="B381" t="str">
+        <v>controls.plate</v>
+      </c>
+      <c r="C381" t="str">
+        <v>拨号盘</v>
+      </c>
+      <c r="D381" t="str">
+        <v>Dial Plate</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="str">
+        <v/>
+      </c>
+      <c r="B382" t="str">
+        <v>controls.exitConference</v>
+      </c>
+      <c r="C382" t="str">
+        <v>退出会议</v>
+      </c>
+      <c r="D382" t="str">
+        <v>Exit Conference</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="str">
+        <v/>
+      </c>
+      <c r="B383" t="str">
+        <v>controls.terminateOrLeave</v>
+      </c>
+      <c r="C383" t="str">
+        <v>您要结束会议还是离开会议?</v>
+      </c>
+      <c r="D383" t="str">
+        <v>Would you want to terminate or just exit Conference?</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="str">
+        <v/>
+      </c>
+      <c r="B384" t="str">
+        <v>controls.terminateConference</v>
+      </c>
+      <c r="C384" t="str">
+        <v>结束会议</v>
+      </c>
+      <c r="D384" t="str">
+        <v>Terminate Conference</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="str">
+        <v/>
+      </c>
+      <c r="B385" t="str">
+        <v>controls.cancel</v>
+      </c>
+      <c r="C385" t="str">
+        <v>取消</v>
+      </c>
+      <c r="D385" t="str">
+        <v>Cancel</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="str">
+        <v/>
+      </c>
+      <c r="B386" t="str">
+        <v>controls.ensureLeave</v>
+      </c>
+      <c r="C386" t="str">
+        <v>您确定要离开会议?</v>
+      </c>
+      <c r="D386" t="str">
+        <v>Are you sure to exit conference?</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="str">
+        <v/>
+      </c>
+      <c r="B387" t="str">
+        <v>controls.justLeaveConference</v>
+      </c>
+      <c r="C387" t="str">
+        <v>离开会议，会议继续进行</v>
+      </c>
+      <c r="D387" t="str">
+        <v>The conference is continue when exit</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="str">
+        <v/>
+      </c>
+      <c r="B388" t="str">
+        <v>controls.leaveConference</v>
+      </c>
+      <c r="C388" t="str">
+        <v>离开会议</v>
+      </c>
+      <c r="D388" t="str">
+        <v>Exit Conference</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="str">
+        <v/>
+      </c>
+      <c r="B389" t="str">
+        <v>controls.hangUp</v>
+      </c>
+      <c r="C389" t="str">
+        <v>挂断</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="str">
+        <v/>
+      </c>
+      <c r="B390" t="str">
+        <v>invite.copyConferenceInfo</v>
+      </c>
+      <c r="C390" t="str">
+        <v>复制会议信息</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="str">
+        <v/>
+      </c>
+      <c r="B391" t="str">
+        <v>invite.copySucceed</v>
+      </c>
+      <c r="C391" t="str">
+        <v>复制成功</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="str">
+        <v/>
+      </c>
+      <c r="B392" t="str">
+        <v>invite.inviteContact</v>
+      </c>
+      <c r="C392" t="str">
+        <v>邀请联系人</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="str">
+        <v/>
+      </c>
+      <c r="B393" t="str">
+        <v>invite.inviteOthers</v>
+      </c>
+      <c r="C393" t="str">
+        <v>邀请其他</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="str">
+        <v/>
+      </c>
+      <c r="B394" t="str">
+        <v>invite.protocol</v>
+      </c>
+      <c r="C394" t="str">
+        <v>协议</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="str">
+        <v/>
+      </c>
+      <c r="B395" t="str">
+        <v>invite.yealinkCloud</v>
+      </c>
+      <c r="C395" t="str">
+        <v>亿联云账号</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="str">
+        <v/>
+      </c>
+      <c r="B396" t="str">
+        <v>invite.address</v>
+      </c>
+      <c r="C396" t="str">
+        <v>地址</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="str">
+        <v/>
+      </c>
+      <c r="B397" t="str">
+        <v>invite.number</v>
+      </c>
+      <c r="C397" t="str">
+        <v>号码</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="str">
+        <v/>
+      </c>
+      <c r="B398" t="str">
+        <v>invite.inputIpOrUri</v>
+      </c>
+      <c r="C398" t="str">
+        <v>请输入IP地址或URI</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="str">
+        <v/>
+      </c>
+      <c r="B399" t="str">
+        <v>invite.inputCloudNumber</v>
+      </c>
+      <c r="C399" t="str">
+        <v>请输入9位云账号</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="str">
+        <v/>
+      </c>
+      <c r="B400" t="str">
+        <v>invite.inputRTMP</v>
+      </c>
+      <c r="C400" t="str">
+        <v>请输入RTMP地址</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="str">
+        <v/>
+      </c>
+      <c r="B401" t="str">
+        <v>invite.inputSFB</v>
+      </c>
+      <c r="C401" t="str">
+        <v>请输入SfB (Lync)账号</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="str">
+        <v/>
+      </c>
+      <c r="B402" t="str">
+        <v>share.title</v>
+      </c>
+      <c r="C402" t="str">
+        <v>选择一个您想要共享的窗口或程序</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="str">
+        <v/>
+      </c>
+      <c r="B403" t="str">
+        <v>share.shareAudio</v>
+      </c>
+      <c r="C403" t="str">
+        <v>共享电脑声音</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="str">
+        <v/>
+      </c>
+      <c r="B404" t="str">
+        <v>share.preferVideoFluency</v>
+      </c>
+      <c r="C404" t="str">
+        <v>视频流畅度优先</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="str">
+        <v/>
+      </c>
+      <c r="B405" t="str">
+        <v>share.preferVideoFluencyTips</v>
+      </c>
+      <c r="C405" t="str">
+        <v>开启后可提升内容共享的视频流畅度，但会增加电脑的性能损耗和带宽</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="str">
+        <v/>
+      </c>
+      <c r="B406" t="str">
+        <v>member.me</v>
+      </c>
+      <c r="C406" t="str">
+        <v>我</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="str">
+        <v/>
+      </c>
+      <c r="B407" t="str">
+        <v>member.presenter</v>
+      </c>
+      <c r="C407" t="str">
+        <v>主持人</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="str">
+        <v/>
+      </c>
+      <c r="B408" t="str">
+        <v>member.visitor</v>
+      </c>
+      <c r="C408" t="str">
+        <v>访客</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="str">
+        <v/>
+      </c>
+      <c r="B409" t="str">
+        <v>member.castViewer</v>
+      </c>
+      <c r="C409" t="str">
+        <v>广播方</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="str">
+        <v/>
+      </c>
+      <c r="B410" t="str">
+        <v>member.presenterTitle</v>
+      </c>
+      <c r="C410" t="str">
+        <v>主持人（{count}）</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="str">
+        <v/>
+      </c>
+      <c r="B411" t="str">
+        <v>member.visitorTitle</v>
+      </c>
+      <c r="C411" t="str">
+        <v>访客（{count}）</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="str">
+        <v/>
+      </c>
+      <c r="B412" t="str">
+        <v>member.castViewerTitle</v>
+      </c>
+      <c r="C412" t="str">
+        <v>广播方（{count}）</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="str">
+        <v/>
+      </c>
+      <c r="B413" t="str">
+        <v>member.alreadyInConference</v>
+      </c>
+      <c r="C413" t="str">
+        <v>已入会</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="str">
+        <v/>
+      </c>
+      <c r="B414" t="str">
+        <v>member.searchContact</v>
+      </c>
+      <c r="C414" t="str">
+        <v>搜索联系人</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="str">
+        <v/>
+      </c>
+      <c r="B415" t="str">
+        <v>member.openSearchFrame</v>
+      </c>
+      <c r="C415" t="str">
+        <v>打开搜索框</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="str">
+        <v/>
+      </c>
+      <c r="B416" t="str">
+        <v>member.closeSearchFrame</v>
+      </c>
+      <c r="C416" t="str">
+        <v>关闭搜索框</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="str">
+        <v/>
+      </c>
+      <c r="B417" t="str">
+        <v>member.muteAll</v>
+      </c>
+      <c r="C417" t="str">
+        <v>全员禁言</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="str">
+        <v/>
+      </c>
+      <c r="B418" t="str">
+        <v>member.unMuteAll</v>
+      </c>
+      <c r="C418" t="str">
+        <v>解除全员禁言</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="str">
+        <v/>
+      </c>
+      <c r="B419" t="str">
+        <v>member.conferenceHall</v>
+      </c>
+      <c r="C419" t="str">
+        <v>会议大厅</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="str">
+        <v/>
+      </c>
+      <c r="B420" t="str">
+        <v>member.allowAll</v>
+      </c>
+      <c r="C420" t="str">
+        <v>全部允许</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="str">
+        <v/>
+      </c>
+      <c r="B421" t="str">
+        <v>member.refuseAll</v>
+      </c>
+      <c r="C421" t="str">
+        <v>全部拒绝</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="str">
+        <v/>
+      </c>
+      <c r="B422" t="str">
+        <v>member.raiseHangs</v>
+      </c>
+      <c r="C422" t="str">
+        <v>举手发言</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="str">
+        <v/>
+      </c>
+      <c r="B423" t="str">
+        <v>member.otherInvite</v>
+      </c>
+      <c r="C423" t="str">
+        <v>第三方邀请</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="str">
+        <v/>
+      </c>
+      <c r="B424" t="str">
+        <v>member.reInvite</v>
+      </c>
+      <c r="C424" t="str">
+        <v>重新邀请</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="str">
+        <v/>
+      </c>
+      <c r="B425" t="str">
+        <v>member.ringing</v>
+      </c>
+      <c r="C425" t="str">
+        <v>呼叫中...</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="str">
+        <v/>
+      </c>
+      <c r="B426" t="str">
+        <v>member.inviteFailed</v>
+      </c>
+      <c r="C426" t="str">
+        <v>邀请失败</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="str">
+        <v/>
+      </c>
+      <c r="B427" t="str">
+        <v>member.inviteSucceed</v>
+      </c>
+      <c r="C427" t="str">
+        <v>邀请成功</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="str">
+        <v/>
+      </c>
+      <c r="B428" t="str">
+        <v>member.isSharing</v>
+      </c>
+      <c r="C428" t="str">
+        <v>正在分享辅流</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="str">
+        <v/>
+      </c>
+      <c r="B429" t="str">
+        <v>member.deviceInfo</v>
+      </c>
+      <c r="C429" t="str">
+        <v>设备详情</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="str">
+        <v/>
+      </c>
+      <c r="B430" t="str">
+        <v>member.toWaiting</v>
+      </c>
+      <c r="C430" t="str">
+        <v>设为等待</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="str">
+        <v/>
+      </c>
+      <c r="B431" t="str">
+        <v>member.toVisitor</v>
+      </c>
+      <c r="C431" t="str">
+        <v>设为访客</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="str">
+        <v/>
+      </c>
+      <c r="B432" t="str">
+        <v>member.toPresenter</v>
+      </c>
+      <c r="C432" t="str">
+        <v>设为主持人</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="str">
+        <v/>
+      </c>
+      <c r="B433" t="str">
+        <v>member.toSpeaker</v>
+      </c>
+      <c r="C433" t="str">
+        <v>设为演讲者</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="str">
+        <v/>
+      </c>
+      <c r="B434" t="str">
+        <v>member.cancelSpeaker</v>
+      </c>
+      <c r="C434" t="str">
+        <v>取消演讲者</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="str">
+        <v/>
+      </c>
+      <c r="B435" t="str">
+        <v>member.kickFromMeeting</v>
+      </c>
+      <c r="C435" t="str">
+        <v>移出会议</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="str">
+        <v/>
+      </c>
+      <c r="B436" t="str">
+        <v>member.allowSpeak</v>
+      </c>
+      <c r="C436" t="str">
+        <v>允许发言</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="str">
+        <v/>
+      </c>
+      <c r="B437" t="str">
+        <v>member.allowConference</v>
+      </c>
+      <c r="C437" t="str">
+        <v>允许入会</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="str">
+        <v/>
+      </c>
+      <c r="B438" t="str">
+        <v>member.refuseSpeak</v>
+      </c>
+      <c r="C438" t="str">
+        <v>拒绝发言</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="str">
+        <v/>
+      </c>
+      <c r="B439" t="str">
+        <v>member.refuseConference</v>
+      </c>
+      <c r="C439" t="str">
+        <v>拒绝入会</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="str">
+        <v/>
+      </c>
+      <c r="B440" t="str">
+        <v>member.allowOrRefuse</v>
+      </c>
+      <c r="C440" t="str">
+        <v>同意/拒绝</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="str">
+        <v/>
+      </c>
+      <c r="B441" t="str">
+        <v>chat.all</v>
+      </c>
+      <c r="C441" t="str">
+        <v>全体</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="str">
+        <v/>
+      </c>
+      <c r="B442" t="str">
+        <v>chat.allUser</v>
+      </c>
+      <c r="C442" t="str">
+        <v>所有人</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="str">
+        <v/>
+      </c>
+      <c r="B443" t="str">
+        <v>chat.me</v>
+      </c>
+      <c r="C443" t="str">
+        <v>我</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="str">
+        <v/>
+      </c>
+      <c r="B444" t="str">
+        <v>chat.send</v>
+      </c>
+      <c r="C444" t="str">
+        <v>发送</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="str">
+        <v/>
+      </c>
+      <c r="B445" t="str">
+        <v>chat.sendTo</v>
+      </c>
+      <c r="C445" t="str">
+        <v>发给</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="str">
+        <v/>
+      </c>
+      <c r="B446" t="str">
+        <v>chat.inputMessage</v>
+      </c>
+      <c r="C446" t="str">
+        <v>请输入您将要发送的消息</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="str">
+        <v/>
+      </c>
+      <c r="B447" t="str">
+        <v>chat.stranger</v>
+      </c>
+      <c r="C447" t="str">
+        <v>陌生人</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="str">
+        <v/>
+      </c>
+      <c r="B448" t="str">
+        <v>chat.privateChat</v>
+      </c>
+      <c r="C448" t="str">
+        <v>私聊</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="str">
+        <v/>
+      </c>
+      <c r="B449" t="str">
+        <v>lock.unLockTips</v>
+      </c>
+      <c r="C449" t="str">
+        <v>会议解锁后，新的参会成员可以直接进入会议。</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="str">
+        <v/>
+      </c>
+      <c r="B450" t="str">
+        <v>lock.lockTips</v>
+      </c>
+      <c r="C450" t="str">
+        <v>会议锁定后，以下新的参会成员可直接进入会议，无需在会议大厅中等待</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="str">
+        <v/>
+      </c>
+      <c r="B451" t="str">
+        <v>lock.invitedUser</v>
+      </c>
+      <c r="C451" t="str">
+        <v>受邀人员</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="str">
+        <v/>
+      </c>
+      <c r="B452" t="str">
+        <v>lock.presenter</v>
+      </c>
+      <c r="C452" t="str">
+        <v>主持人</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="str">
+        <v/>
+      </c>
+      <c r="B453" t="str">
+        <v>lock.all</v>
+      </c>
+      <c r="C453" t="str">
+        <v>组织内所有人</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="str">
+        <v/>
+      </c>
+      <c r="B454" t="str">
+        <v>lock.lock</v>
+      </c>
+      <c r="C454" t="str">
+        <v>锁定会议</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="str">
+        <v/>
+      </c>
+      <c r="B455" t="str">
+        <v>lock.unLock</v>
+      </c>
+      <c r="C455" t="str">
+        <v>解锁会议</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="str">
+        <v/>
+      </c>
+      <c r="B456" t="str">
+        <v>setting.conference</v>
+      </c>
+      <c r="C456" t="str">
+        <v>会议</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="str">
+        <v/>
+      </c>
+      <c r="B457" t="str">
+        <v>setting.media</v>
+      </c>
+      <c r="C457" t="str">
+        <v>音视频</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="str">
+        <v/>
+      </c>
+      <c r="B458" t="str">
+        <v>setting.layout</v>
+      </c>
+      <c r="C458" t="str">
+        <v>画面布局</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="str">
+        <v/>
+      </c>
+      <c r="B459" t="str">
+        <v>setting.conferenceTips</v>
+      </c>
+      <c r="C459" t="str">
+        <v>入会和离开的提示</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="str">
+        <v/>
+      </c>
+      <c r="B460" t="str">
+        <v>setting.noDevice</v>
+      </c>
+      <c r="C460" t="str">
+        <v>无设备</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="str">
+        <v/>
+      </c>
+      <c r="B461" t="str">
+        <v>setting.camera</v>
+      </c>
+      <c r="C461" t="str">
+        <v>摄像头</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="str">
+        <v/>
+      </c>
+      <c r="B462" t="str">
+        <v>setting.microphone</v>
+      </c>
+      <c r="C462" t="str">
+        <v>麦克风</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="str">
+        <v/>
+      </c>
+      <c r="B463" t="str">
+        <v>setting.microphoneTest</v>
+      </c>
+      <c r="C463" t="str">
+        <v>麦克风测试</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="str">
+        <v/>
+      </c>
+      <c r="B464" t="str">
+        <v>setting.speaker</v>
+      </c>
+      <c r="C464" t="str">
+        <v>扬声器</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="str">
+        <v/>
+      </c>
+      <c r="B465" t="str">
+        <v>setting.playAudio</v>
+      </c>
+      <c r="C465" t="str">
+        <v>播放测试音频</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="str">
+        <v/>
+      </c>
+      <c r="B466" t="str">
+        <v>exception.video</v>
+      </c>
+      <c r="C466" t="str">
+        <v>当前摄像头异常，请检查后重试</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="str">
+        <v/>
+      </c>
+      <c r="B467" t="str">
+        <v>exception.audio</v>
+      </c>
+      <c r="C467" t="str">
+        <v>当前麦克风异常，请检查后重试</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="str">
+        <v/>
+      </c>
+      <c r="B468" t="str">
+        <v>exception.both</v>
+      </c>
+      <c r="C468" t="str">
+        <v>当前摄像头和麦克风异常，请检查后重试</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="str">
+        <v/>
+      </c>
+      <c r="B469" t="str">
+        <v>exception.network</v>
+      </c>
+      <c r="C469" t="str">
+        <v>当前网络状况不佳，建议切换为音频通话</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="str">
+        <v/>
+      </c>
+      <c r="B470" t="str">
+        <v>tip.notOnLine</v>
+      </c>
+      <c r="C470" t="str">
+        <v>对方可能暂时不在或设备静音，建议稍后再次尝试！</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="str">
+        <v/>
+      </c>
+      <c r="B471" t="str">
+        <v>tip.unstableNetwork</v>
+      </c>
+      <c r="C471" t="str">
+        <v>当前网络状况不佳，建议切换为音频通话。</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="str">
+        <v/>
+      </c>
+      <c r="B472" t="str">
+        <v>tip.willHangup</v>
+      </c>
+      <c r="C472" t="str">
+        <v>对方长时间未接听，请稍后重试！</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="str">
+        <v/>
+      </c>
+      <c r="B473" t="str">
+        <v>tip.answerInConference</v>
+      </c>
+      <c r="C473" t="str">
+        <v>接通来电将离开会议，请确认!</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="str">
+        <v/>
+      </c>
+      <c r="B474" t="str">
+        <v>tip.callInConference</v>
+      </c>
+      <c r="C474" t="str">
+        <v>拨打电话将离开会议，请确认!</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="str">
+        <v/>
+      </c>
+      <c r="B475" t="str">
+        <v>tip.answerInCall</v>
+      </c>
+      <c r="C475" t="str">
+        <v>接通来电将挂断当前通话，请确认!</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="str">
+        <v/>
+      </c>
+      <c r="B476" t="str">
+        <v>tip.callInCall</v>
+      </c>
+      <c r="C476" t="str">
+        <v>拨打电话将挂断当前通话，请确认!</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="str">
+        <v/>
+      </c>
+      <c r="B477" t="str">
+        <v>tip.joinInCalling</v>
+      </c>
+      <c r="C477" t="str">
+        <v>加入会议将终止呼叫，请确认!</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="str">
+        <v/>
+      </c>
+      <c r="B478" t="str">
+        <v>tip.joinInCall</v>
+      </c>
+      <c r="C478" t="str">
+        <v>加入会议将终止通话，请确认!</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="str">
+        <v/>
+      </c>
+      <c r="B479" t="str">
+        <v>tip.joinInConference</v>
+      </c>
+      <c r="C479" t="str">
+        <v>即将退出当前会议，请确认!</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="str">
+        <v/>
+      </c>
+      <c r="B480" t="str">
+        <v>tip.inviteMore</v>
+      </c>
+      <c r="C480" t="str">
+        <v>邀请更多人加入会议</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="str">
+        <v/>
+      </c>
+      <c r="B481" t="str">
+        <v>error.server</v>
+      </c>
+      <c r="C481" t="str">
+        <v>当前服务器无法访问</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="str">
+        <v/>
+      </c>
+      <c r="B482" t="str">
+        <v>main.message.mute</v>
+      </c>
+      <c r="C482" t="str">
+        <v>您被主持人禁言</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="str">
+        <v/>
+      </c>
+      <c r="B483" t="str">
+        <v>main.message.unMute</v>
+      </c>
+      <c r="C483" t="str">
+        <v>您被主持人解除禁言</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="str">
+        <v/>
+      </c>
+      <c r="B484" t="str">
+        <v>main.message.applying</v>
+      </c>
+      <c r="C484" t="str">
+        <v>您正在申请发言</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="str">
+        <v/>
+      </c>
+      <c r="B485" t="str">
+        <v>main.message.cancelSpeakApply</v>
+      </c>
+      <c r="C485" t="str">
+        <v>您取消了发言申请</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="str">
+        <v/>
+      </c>
+      <c r="B486" t="str">
+        <v>main.message.speakApplyRefused</v>
+      </c>
+      <c r="C486" t="str">
+        <v>您的发言申请被拒绝</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="str">
+        <v/>
+      </c>
+      <c r="B487" t="str">
+        <v>main.message.speakApplyAllowed</v>
+      </c>
+      <c r="C487" t="str">
+        <v>您的发言申请被允许</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="str">
+        <v/>
+      </c>
+      <c r="B488" t="str">
+        <v>main.message.toPresenter</v>
+      </c>
+      <c r="C488" t="str">
+        <v>您被设置为主持人</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="str">
+        <v/>
+      </c>
+      <c r="B489" t="str">
+        <v>main.message.toVisitor</v>
+      </c>
+      <c r="C489" t="str">
+        <v>您被设置为访客</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="str">
+        <v/>
+      </c>
+      <c r="B490" t="str">
+        <v>main.message.toSpeaker</v>
+      </c>
+      <c r="C490" t="str">
+        <v>您被设置为演讲者</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="str">
+        <v/>
+      </c>
+      <c r="B491" t="str">
+        <v>main.message.cancelSpeaker</v>
+      </c>
+      <c r="C491" t="str">
+        <v>您被取消演讲权限</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="str">
+        <v/>
+      </c>
+      <c r="B492" t="str">
+        <v>main.message.toConferenceHall</v>
+      </c>
+      <c r="C492" t="str">
+        <v>您已被主持人移到会议大厅</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="str">
+        <v/>
+      </c>
+      <c r="B493" t="str">
+        <v>main.message.allowToConference</v>
+      </c>
+      <c r="C493" t="str">
+        <v>您已被主持人批准进入会议</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="str">
+        <v/>
+      </c>
+      <c r="B494" t="str">
+        <v>main.message.kickFromMeeting</v>
+      </c>
+      <c r="C494" t="str">
+        <v>您被移出会议</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="str">
+        <v/>
+      </c>
+      <c r="B495" t="str">
+        <v>main.message.joinMeeting</v>
+      </c>
+      <c r="C495" t="str">
+        <v>{target} 加入会议</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="str">
+        <v/>
+      </c>
+      <c r="B496" t="str">
+        <v>main.message.enterHall</v>
+      </c>
+      <c r="C496" t="str">
+        <v>{target} 加入会议大厅</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="str">
+        <v/>
+      </c>
+      <c r="B497" t="str">
+        <v>main.message.exitMeeting</v>
+      </c>
+      <c r="C497" t="str">
+        <v>{target} 离开会议</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="str">
+        <v/>
+      </c>
+      <c r="B498" t="str">
+        <v>statistics.message.fetchFailed</v>
+      </c>
+      <c r="C498" t="str">
+        <v>获取失败</v>
+      </c>
+      <c r="D498" t="str">
+        <v>Fetch Failed</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="str">
+        <v/>
+      </c>
+      <c r="B499" t="str">
+        <v>invite.message.alreadyExist</v>
+      </c>
+      <c r="C499" t="str">
+        <v>该成员已在会议中</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="str">
+        <v/>
+      </c>
+      <c r="B500" t="str">
+        <v>invite.message.invited</v>
+      </c>
+      <c r="C500" t="str">
+        <v>已邀请</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="str">
+        <v/>
+      </c>
+      <c r="B501" t="str">
+        <v>invite.message.inviteSucceed</v>
+      </c>
+      <c r="C501" t="str">
+        <v>邀请成功</v>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="str">
+        <v/>
+      </c>
+      <c r="B502" t="str">
+        <v>invite.message.inviteFailed</v>
+      </c>
+      <c r="C502" t="str">
+        <v>邀请失败,请重试</v>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="str">
+        <v/>
+      </c>
+      <c r="B503" t="str">
+        <v>share.message.sharingEnded</v>
+      </c>
+      <c r="C503" t="str">
+        <v>由于共享的窗口被关闭，内容共享结束</v>
+      </c>
+      <c r="D503" t="str">
+        <v>The sharing is terminate, cause by the closed application</v>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="str">
+        <v/>
+      </c>
+      <c r="B504" t="str">
+        <v>main.videoConference</v>
+      </c>
+      <c r="D504" t="str">
+        <v>Video Conference</v>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="str">
+        <v>common</v>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="str">
+        <v/>
+      </c>
+      <c r="B507" t="str">
+        <v>controls.ensure</v>
+      </c>
+      <c r="C507" t="str">
+        <v>确定</v>
+      </c>
+      <c r="D507" t="str">
+        <v>ensure</v>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="str">
+        <v/>
+      </c>
+      <c r="B508" t="str">
+        <v>controls.cancel</v>
+      </c>
+      <c r="C508" t="str">
+        <v>取消</v>
+      </c>
+      <c r="D508" t="str">
+        <v>cancel</v>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="str">
+        <v/>
+      </c>
+      <c r="B509" t="str">
+        <v>controls.close</v>
+      </c>
+      <c r="C509" t="str">
+        <v>关闭</v>
+      </c>
+      <c r="D509" t="str">
+        <v>close</v>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="str">
+        <v/>
+      </c>
+      <c r="B510" t="str">
+        <v>controls.enlarge</v>
+      </c>
+      <c r="C510" t="str">
+        <v>放大</v>
+      </c>
+      <c r="D510" t="str">
+        <v>enlarge</v>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="str">
+        <v/>
+      </c>
+      <c r="B511" t="str">
+        <v>controls.shrink</v>
+      </c>
+      <c r="C511" t="str">
+        <v>缩小</v>
+      </c>
+      <c r="D511" t="str">
+        <v>shrink</v>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="str">
+        <v/>
+      </c>
+      <c r="B512" t="str">
+        <v>controls.expand</v>
+      </c>
+      <c r="C512" t="str">
+        <v>展开</v>
+      </c>
+      <c r="D512" t="str">
+        <v>expand</v>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="str">
+        <v/>
+      </c>
+      <c r="B513" t="str">
+        <v>controls.hide</v>
+      </c>
+      <c r="C513" t="str">
+        <v>隐藏</v>
+      </c>
+      <c r="D513" t="str">
+        <v>hide</v>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="str">
+        <v/>
+      </c>
+      <c r="B514" t="str">
+        <v>controls.maximize</v>
+      </c>
+      <c r="C514" t="str">
+        <v>最大化</v>
+      </c>
+      <c r="D514" t="str">
+        <v>maximize</v>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="str">
+        <v/>
+      </c>
+      <c r="B515" t="str">
+        <v>controls.minimize</v>
+      </c>
+      <c r="C515" t="str">
+        <v>最小化</v>
+      </c>
+      <c r="D515" t="str">
+        <v>minimize</v>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="str">
+        <v/>
+      </c>
+      <c r="B516" t="str">
+        <v>controls.allow</v>
+      </c>
+      <c r="C516" t="str">
+        <v>同意</v>
+      </c>
+      <c r="D516" t="str">
+        <v>allow</v>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="str">
+        <v/>
+      </c>
+      <c r="B517" t="str">
+        <v>controls.refuse</v>
+      </c>
+      <c r="C517" t="str">
+        <v>拒绝</v>
+      </c>
+      <c r="D517" t="str">
+        <v>refuse</v>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="str">
+        <v/>
+      </c>
+      <c r="B518" t="str">
+        <v>controls.allowOrRefuse</v>
+      </c>
+      <c r="C518" t="str">
+        <v>同意/拒绝</v>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="str">
+        <v/>
+      </c>
+      <c r="B519" t="str">
+        <v>message.passwordError</v>
+      </c>
+      <c r="C519" t="str">
+        <v>登录密码错误</v>
+      </c>
+      <c r="D519" t="str">
+        <v>Password Error</v>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="str">
+        <v/>
+      </c>
+      <c r="B520" t="str">
+        <v>message.accountError</v>
+      </c>
+      <c r="C520" t="str">
+        <v>账号错误</v>
+      </c>
+      <c r="D520" t="str">
+        <v>Account Error</v>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="str">
+        <v>home</v>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="str">
+        <v/>
+      </c>
+      <c r="B523" t="str">
+        <v>newMeeting</v>
+      </c>
+      <c r="C523" t="str">
+        <v>新的会议</v>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="str">
+        <v/>
+      </c>
+      <c r="B524" t="str">
+        <v>startMeeting</v>
+      </c>
+      <c r="C524" t="str">
+        <v>开始会议</v>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="str">
+        <v/>
+      </c>
+      <c r="B525" t="str">
+        <v>reservation</v>
+      </c>
+      <c r="C525" t="str">
+        <v>预约会议</v>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="str">
+        <v/>
+      </c>
+      <c r="B526" t="str">
+        <v>nextMeeting</v>
+      </c>
+      <c r="C526" t="str">
+        <v>下一场会议</v>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="str">
+        <v/>
+      </c>
+      <c r="B527" t="str">
+        <v>cycleMeeting</v>
+      </c>
+      <c r="C527" t="str">
+        <v>周期会议</v>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="str">
+        <v/>
+      </c>
+      <c r="B528" t="str">
+        <v>live</v>
+      </c>
+      <c r="C528" t="str">
+        <v>直播</v>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="str">
+        <v/>
+      </c>
+      <c r="B529" t="str">
+        <v>detail</v>
+      </c>
+      <c r="C529" t="str">
+        <v>详情</v>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" t="str">
+        <v/>
+      </c>
+      <c r="B530" t="str">
+        <v>join</v>
+      </c>
+      <c r="C530" t="str">
+        <v>加入会议</v>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="str">
+        <v/>
+      </c>
+      <c r="B531" t="str">
+        <v>noMeeting</v>
+      </c>
+      <c r="C531" t="str">
+        <v>今日无会议安排</v>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="str">
+        <v/>
+      </c>
+      <c r="B532" t="str">
+        <v>onGoing</v>
+      </c>
+      <c r="C532" t="str">
+        <v>会议进行中</v>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" t="str">
+        <v/>
+      </c>
+      <c r="B533" t="str">
+        <v>distance</v>
+      </c>
+      <c r="C533" t="str">
+        <v>{distance}分钟后开始</v>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" t="str">
+        <v>date</v>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" t="str">
+        <v/>
+      </c>
+      <c r="B536" t="str">
+        <v>Sunday</v>
+      </c>
+      <c r="C536" t="str">
+        <v>星期日</v>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" t="str">
+        <v/>
+      </c>
+      <c r="B537" t="str">
+        <v>Monday</v>
+      </c>
+      <c r="C537" t="str">
+        <v>星期一</v>
+      </c>
+      <c r="D537" t="str">
+        <v>Monday</v>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" t="str">
+        <v/>
+      </c>
+      <c r="B538" t="str">
+        <v>Tuesday</v>
+      </c>
+      <c r="C538" t="str">
+        <v>星期二</v>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" t="str">
+        <v/>
+      </c>
+      <c r="B539" t="str">
+        <v>Wednesday</v>
+      </c>
+      <c r="C539" t="str">
+        <v>星期三</v>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" t="str">
+        <v/>
+      </c>
+      <c r="B540" t="str">
+        <v>Thursday</v>
+      </c>
+      <c r="C540" t="str">
+        <v>星期四</v>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" t="str">
+        <v/>
+      </c>
+      <c r="B541" t="str">
+        <v>Friday</v>
+      </c>
+      <c r="C541" t="str">
+        <v>星期五</v>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="str">
+        <v/>
+      </c>
+      <c r="B542" t="str">
+        <v>Saturday</v>
+      </c>
+      <c r="C542" t="str">
+        <v>星期六</v>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" t="str">
+        <v/>
+      </c>
+      <c r="B543" t="str">
+        <v>year</v>
+      </c>
+      <c r="C543" t="str">
+        <v>年</v>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" t="str">
+        <v/>
+      </c>
+      <c r="B544" t="str">
+        <v>month</v>
+      </c>
+      <c r="C544" t="str">
+        <v>月</v>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" t="str">
+        <v/>
+      </c>
+      <c r="B545" t="str">
+        <v>day</v>
+      </c>
+      <c r="C545" t="str">
+        <v>日</v>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" t="str">
+        <v/>
+      </c>
+      <c r="B546" t="str">
+        <v>dateString</v>
+      </c>
+      <c r="C546" t="str">
+        <v>{y}年{m}月{d}日</v>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" t="str">
+        <v>schedule</v>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" t="str">
+        <v/>
+      </c>
+      <c r="B549" t="str">
+        <v>meetingSchedule</v>
+      </c>
+      <c r="C549" t="str">
+        <v>会议日程</v>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" t="str">
+        <v/>
+      </c>
+      <c r="B550" t="str">
+        <v>copyInfo</v>
+      </c>
+      <c r="C550" t="str">
+        <v>复制信息</v>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" t="str">
+        <v/>
+      </c>
+      <c r="B551" t="str">
+        <v>copy</v>
+      </c>
+      <c r="C551" t="str">
+        <v>复制</v>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" t="str">
+        <v/>
+      </c>
+      <c r="B552" t="str">
+        <v>share</v>
+      </c>
+      <c r="C552" t="str">
+        <v>分享会议</v>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" t="str">
+        <v/>
+      </c>
+      <c r="B553" t="str">
+        <v>live</v>
+      </c>
+      <c r="C553" t="str">
+        <v>直播</v>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" t="str">
+        <v/>
+      </c>
+      <c r="B554" t="str">
+        <v>watchLive</v>
+      </c>
+      <c r="C554" t="str">
+        <v>观看直播</v>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" t="str">
+        <v/>
+      </c>
+      <c r="B555" t="str">
+        <v>time</v>
+      </c>
+      <c r="C555" t="str">
+        <v>时间</v>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" t="str">
+        <v/>
+      </c>
+      <c r="B556" t="str">
+        <v>cycle</v>
+      </c>
+      <c r="C556" t="str">
+        <v>周期</v>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" t="str">
+        <v/>
+      </c>
+      <c r="B557" t="str">
+        <v>cycleMeeting</v>
+      </c>
+      <c r="C557" t="str">
+        <v>周期会议</v>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" t="str">
+        <v/>
+      </c>
+      <c r="B558" t="str">
+        <v>meetingRoom</v>
+      </c>
+      <c r="C558" t="str">
+        <v>会议室</v>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" t="str">
+        <v/>
+      </c>
+      <c r="B559" t="str">
+        <v>conferenceId</v>
+      </c>
+      <c r="C559" t="str">
+        <v>会议ID</v>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" t="str">
+        <v/>
+      </c>
+      <c r="B560" t="str">
+        <v>password</v>
+      </c>
+      <c r="C560" t="str">
+        <v>会议密码</v>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" t="str">
+        <v/>
+      </c>
+      <c r="B561" t="str">
+        <v>liveLink</v>
+      </c>
+      <c r="C561" t="str">
+        <v>直播链接</v>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" t="str">
+        <v/>
+      </c>
+      <c r="B562" t="str">
+        <v>remark</v>
+      </c>
+      <c r="C562" t="str">
+        <v>备注</v>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" t="str">
+        <v/>
+      </c>
+      <c r="B563" t="str">
+        <v>emptyRemark</v>
+      </c>
+      <c r="C563" t="str">
+        <v>当前会议的备注信息为空</v>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" t="str">
+        <v/>
+      </c>
+      <c r="B564" t="str">
+        <v>meetingMember</v>
+      </c>
+      <c r="C564" t="str">
+        <v>会议成员</v>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" t="str">
+        <v/>
+      </c>
+      <c r="B565" t="str">
+        <v>videoJoin</v>
+      </c>
+      <c r="C565" t="str">
+        <v>视频加入</v>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" t="str">
+        <v/>
+      </c>
+      <c r="B566" t="str">
+        <v>audioJoin</v>
+      </c>
+      <c r="C566" t="str">
+        <v>音频加入</v>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" t="str">
+        <v/>
+      </c>
+      <c r="B567" t="str">
+        <v>unStart</v>
+      </c>
+      <c r="C567" t="str">
+        <v>当前会议尚未开始</v>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" t="str">
+        <v/>
+      </c>
+      <c r="B568" t="str">
+        <v>ended</v>
+      </c>
+      <c r="C568" t="str">
+        <v>当前会议已经结束</v>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" t="str">
+        <v/>
+      </c>
+      <c r="B569" t="str">
+        <v>confirmDel</v>
+      </c>
+      <c r="C569" t="str">
+        <v>确定删除该会议</v>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" t="str">
+        <v/>
+      </c>
+      <c r="B570" t="str">
+        <v>emptySchedule</v>
+      </c>
+      <c r="C570" t="str">
+        <v>暂无会议日程</v>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" t="str">
+        <v/>
+      </c>
+      <c r="B571" t="str">
+        <v>backToday</v>
+      </c>
+      <c r="C571" t="str">
+        <v>回到今天</v>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" t="str">
+        <v/>
+      </c>
+      <c r="B572" t="str">
+        <v>reservation</v>
+      </c>
+      <c r="C572" t="str">
+        <v>预约会议</v>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" t="str">
+        <v>empty</v>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" t="str">
+        <v/>
+      </c>
+      <c r="B575" t="str">
+        <v>calendar</v>
+      </c>
+      <c r="C575" t="str">
+        <v>暂无日程信息</v>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" t="str">
+        <v/>
+      </c>
+      <c r="B576" t="str">
+        <v>record</v>
+      </c>
+      <c r="C576" t="str">
+        <v>暂无通话记录</v>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" t="str">
+        <v/>
+      </c>
+      <c r="B577" t="str">
+        <v>contact</v>
+      </c>
+      <c r="C577" t="str">
+        <v>暂无联系人信息</v>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" t="str">
+        <v/>
+      </c>
+      <c r="B578" t="str">
+        <v>search</v>
+      </c>
+      <c r="C578" t="str">
+        <v>暂无搜索结果</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D236"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D578"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/src/renderer/i18n/result.xlsx
+++ b/src/renderer/i18n/result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Yealink UME\app\UCDoc\yl1995@yealink.com\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4383FDF-2C24-4A96-A53A-31D79B138A96}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F53DF0A8-5C5B-4150-8923-FBD86A982F2B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3214,9 +3214,6 @@
     <t>组织内所有人</t>
   </si>
   <si>
-    <t>Anyone from enterprise contacts</t>
-  </si>
-  <si>
     <t>lock.lock</t>
   </si>
   <si>
@@ -3470,12 +3467,6 @@
   </si>
   <si>
     <t>invite.message.invited</t>
-  </si>
-  <si>
-    <t>已邀请</t>
-  </si>
-  <si>
-    <t>Invited</t>
   </si>
   <si>
     <t>invite.message.inviteSucceed</t>
@@ -5059,10 +5050,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Tips for joining and leaving meeting</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Network is poor. Switching to audio call is remommended.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -5396,6 +5383,22 @@
   </si>
   <si>
     <t>First</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tips for joining and leaving</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>All enterprise contacts</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已发送邀请</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Invitation Sent</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5812,8 +5815,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D672"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C205" workbookViewId="0">
-      <selection activeCell="D223" sqref="D223"/>
+    <sheetView tabSelected="1" topLeftCell="C510" workbookViewId="0">
+      <selection activeCell="D535" sqref="D535"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.55000000000000004"/>
@@ -5983,7 +5986,7 @@
         <v>33</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>1374</v>
+        <v>1371</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>34</v>
@@ -6165,7 +6168,7 @@
         <v>71</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>1375</v>
+        <v>1372</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>72</v>
@@ -6249,10 +6252,10 @@
         <v>88</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>1376</v>
+        <v>1373</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>1377</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -6324,7 +6327,7 @@
         <v>101</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>1378</v>
+        <v>1375</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>102</v>
@@ -6380,10 +6383,10 @@
         <v>112</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>1379</v>
+        <v>1376</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>1380</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -6492,10 +6495,10 @@
         <v>134</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>1382</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -6668,7 +6671,7 @@
         <v>170</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>1555</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -6948,7 +6951,7 @@
         <v>222</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>1383</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -7004,7 +7007,7 @@
         <v>232</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>1556</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -7102,7 +7105,7 @@
         <v>252</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>1384</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -7158,7 +7161,7 @@
         <v>263</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>1385</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -7228,7 +7231,7 @@
         <v>277</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>1576</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -7239,7 +7242,7 @@
         <v>278</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>1386</v>
+        <v>1383</v>
       </c>
       <c r="D106" s="1" t="s">
         <v>279</v>
@@ -7323,7 +7326,7 @@
         <v>293</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>1387</v>
+        <v>1384</v>
       </c>
       <c r="D112" s="1" t="s">
         <v>294</v>
@@ -7337,10 +7340,10 @@
         <v>295</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>1388</v>
+        <v>1385</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>1574</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="114" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -7351,10 +7354,10 @@
         <v>296</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>1389</v>
+        <v>1386</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>1575</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -7382,7 +7385,7 @@
         <v>301</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>1390</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -7421,10 +7424,10 @@
         <v>308</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>1391</v>
+        <v>1388</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>1392</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -7438,7 +7441,7 @@
         <v>310</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>1393</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -7494,7 +7497,7 @@
         <v>321</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>1557</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -7547,7 +7550,7 @@
         <v>331</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>1394</v>
+        <v>1391</v>
       </c>
       <c r="D128" s="1" t="s">
         <v>332</v>
@@ -7561,7 +7564,7 @@
         <v>333</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>1395</v>
+        <v>1392</v>
       </c>
       <c r="D129" s="1" t="s">
         <v>334</v>
@@ -7575,7 +7578,7 @@
         <v>335</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="D130" s="1" t="s">
         <v>336</v>
@@ -7704,7 +7707,7 @@
         <v>362</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>1558</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -7732,7 +7735,7 @@
         <v>367</v>
       </c>
       <c r="D141" s="3" t="s">
-        <v>1397</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -7774,7 +7777,7 @@
         <v>375</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>1398</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -7841,10 +7844,10 @@
         <v>388</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>1559</v>
+        <v>1556</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>1560</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -8243,7 +8246,7 @@
         <v>458</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>1561</v>
+        <v>1558</v>
       </c>
       <c r="D181" s="1" t="s">
         <v>459</v>
@@ -8285,7 +8288,7 @@
         <v>466</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>1562</v>
+        <v>1559</v>
       </c>
       <c r="D184" s="1" t="s">
         <v>467</v>
@@ -8453,7 +8456,7 @@
         <v>500</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>1553</v>
+        <v>1550</v>
       </c>
       <c r="D196" s="1" t="s">
         <v>467</v>
@@ -8542,10 +8545,10 @@
         <v>515</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>1399</v>
+        <v>1396</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>1400</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -8570,10 +8573,10 @@
         <v>519</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>1535</v>
+        <v>1532</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>1536</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -8626,10 +8629,10 @@
         <v>529</v>
       </c>
       <c r="C210" s="4" t="s">
-        <v>1529</v>
+        <v>1526</v>
       </c>
       <c r="D210" s="4" t="s">
-        <v>1528</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="211" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -8640,10 +8643,10 @@
         <v>530</v>
       </c>
       <c r="C211" s="4" t="s">
+        <v>1524</v>
+      </c>
+      <c r="D211" s="4" t="s">
         <v>1527</v>
-      </c>
-      <c r="D211" s="4" t="s">
-        <v>1530</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -8836,10 +8839,10 @@
         <v>559</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>1401</v>
+        <v>1398</v>
       </c>
       <c r="D225" s="1" t="s">
-        <v>1402</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -8923,7 +8926,7 @@
         <v>576</v>
       </c>
       <c r="D231" s="1" t="s">
-        <v>1563</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -8962,10 +8965,10 @@
         <v>582</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>1403</v>
+        <v>1400</v>
       </c>
       <c r="D234" s="1" t="s">
-        <v>1564</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -9119,7 +9122,7 @@
         <v>606</v>
       </c>
       <c r="D245" s="1" t="s">
-        <v>1404</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -9161,7 +9164,7 @@
         <v>614</v>
       </c>
       <c r="D248" s="1" t="s">
-        <v>1405</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -9175,7 +9178,7 @@
         <v>616</v>
       </c>
       <c r="D249" s="1" t="s">
-        <v>1406</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -9189,7 +9192,7 @@
         <v>618</v>
       </c>
       <c r="D250" s="1" t="s">
-        <v>1407</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -9200,10 +9203,10 @@
         <v>619</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>1408</v>
+        <v>1405</v>
       </c>
       <c r="D251" s="1" t="s">
-        <v>1410</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -9217,7 +9220,7 @@
         <v>621</v>
       </c>
       <c r="D252" s="1" t="s">
-        <v>1411</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -9231,7 +9234,7 @@
         <v>623</v>
       </c>
       <c r="D253" s="1" t="s">
-        <v>1409</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -9284,7 +9287,7 @@
         <v>631</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>1412</v>
+        <v>1409</v>
       </c>
       <c r="D257" s="1" t="s">
         <v>632</v>
@@ -9438,10 +9441,10 @@
         <v>651</v>
       </c>
       <c r="C268" s="1" t="s">
-        <v>1533</v>
+        <v>1530</v>
       </c>
       <c r="D268" s="1" t="s">
-        <v>1534</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -9494,10 +9497,10 @@
         <v>661</v>
       </c>
       <c r="C272" s="4" t="s">
-        <v>1532</v>
+        <v>1529</v>
       </c>
       <c r="D272" s="4" t="s">
-        <v>1531</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -9648,10 +9651,10 @@
         <v>684</v>
       </c>
       <c r="C283" s="1" t="s">
-        <v>1537</v>
+        <v>1534</v>
       </c>
       <c r="D283" s="1" t="s">
-        <v>1526</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -9676,10 +9679,10 @@
         <v>686</v>
       </c>
       <c r="C285" s="1" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="D285" s="1" t="s">
-        <v>1414</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -9732,7 +9735,7 @@
         <v>693</v>
       </c>
       <c r="C289" s="1" t="s">
-        <v>1415</v>
+        <v>1412</v>
       </c>
       <c r="D289" s="1" t="s">
         <v>694</v>
@@ -9807,7 +9810,7 @@
         <v>703</v>
       </c>
       <c r="C296" s="1" t="s">
-        <v>1416</v>
+        <v>1413</v>
       </c>
       <c r="D296" s="1" t="s">
         <v>705</v>
@@ -9852,7 +9855,7 @@
         <v>710</v>
       </c>
       <c r="D299" s="1" t="s">
-        <v>1417</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -9866,7 +9869,7 @@
         <v>712</v>
       </c>
       <c r="D300" s="1" t="s">
-        <v>1418</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -9891,7 +9894,7 @@
         <v>68</v>
       </c>
       <c r="C302" s="1" t="s">
-        <v>1419</v>
+        <v>1416</v>
       </c>
       <c r="D302" s="1" t="s">
         <v>714</v>
@@ -9905,10 +9908,10 @@
         <v>715</v>
       </c>
       <c r="C303" s="1" t="s">
-        <v>1546</v>
+        <v>1543</v>
       </c>
       <c r="D303" s="1" t="s">
-        <v>1547</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -9919,10 +9922,10 @@
         <v>716</v>
       </c>
       <c r="C304" s="1" t="s">
-        <v>1565</v>
+        <v>1562</v>
       </c>
       <c r="D304" s="1" t="s">
-        <v>1420</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -9936,7 +9939,7 @@
         <v>42</v>
       </c>
       <c r="D305" s="1" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -9950,7 +9953,7 @@
         <v>45</v>
       </c>
       <c r="D306" s="1" t="s">
-        <v>1422</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -9992,7 +9995,7 @@
         <v>722</v>
       </c>
       <c r="D309" s="1" t="s">
-        <v>1577</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -10017,10 +10020,10 @@
         <v>726</v>
       </c>
       <c r="C311" s="1" t="s">
-        <v>1423</v>
+        <v>1420</v>
       </c>
       <c r="D311" s="1" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -10031,10 +10034,10 @@
         <v>727</v>
       </c>
       <c r="C312" s="1" t="s">
-        <v>1425</v>
+        <v>1422</v>
       </c>
       <c r="D312" s="1" t="s">
-        <v>1426</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -10399,10 +10402,10 @@
         <v>762</v>
       </c>
       <c r="C342" s="1" t="s">
-        <v>1538</v>
+        <v>1535</v>
       </c>
       <c r="D342" s="1" t="s">
-        <v>1566</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -10525,7 +10528,7 @@
         <v>785</v>
       </c>
       <c r="C351" s="1" t="s">
-        <v>1552</v>
+        <v>1549</v>
       </c>
       <c r="D351" s="1" t="s">
         <v>786</v>
@@ -10539,7 +10542,7 @@
         <v>787</v>
       </c>
       <c r="C352" s="1" t="s">
-        <v>1553</v>
+        <v>1550</v>
       </c>
       <c r="D352" s="1" t="s">
         <v>467</v>
@@ -10612,7 +10615,7 @@
         <v>797</v>
       </c>
       <c r="D357" s="1" t="s">
-        <v>1446</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -10640,7 +10643,7 @@
         <v>802</v>
       </c>
       <c r="D359" s="1" t="s">
-        <v>1449</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -10651,10 +10654,10 @@
         <v>803</v>
       </c>
       <c r="C360" s="1" t="s">
+        <v>1444</v>
+      </c>
+      <c r="D360" s="1" t="s">
         <v>1447</v>
-      </c>
-      <c r="D360" s="1" t="s">
-        <v>1450</v>
       </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -10665,10 +10668,10 @@
         <v>804</v>
       </c>
       <c r="C361" s="1" t="s">
-        <v>1448</v>
+        <v>1445</v>
       </c>
       <c r="D361" s="1" t="s">
-        <v>1539</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -10707,7 +10710,7 @@
         <v>810</v>
       </c>
       <c r="C364" s="1" t="s">
-        <v>1451</v>
+        <v>1448</v>
       </c>
       <c r="D364" s="1" t="s">
         <v>811</v>
@@ -10791,10 +10794,10 @@
         <v>825</v>
       </c>
       <c r="C370" s="1" t="s">
-        <v>1567</v>
+        <v>1564</v>
       </c>
       <c r="D370" s="1" t="s">
-        <v>1569</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -10805,10 +10808,10 @@
         <v>826</v>
       </c>
       <c r="C371" s="1" t="s">
-        <v>1568</v>
+        <v>1565</v>
       </c>
       <c r="D371" s="1" t="s">
-        <v>1570</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -10948,7 +10951,7 @@
         <v>271</v>
       </c>
       <c r="D381" s="1" t="s">
-        <v>1452</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -10959,10 +10962,10 @@
         <v>852</v>
       </c>
       <c r="C382" s="1" t="s">
-        <v>1454</v>
+        <v>1451</v>
       </c>
       <c r="D382" s="1" t="s">
-        <v>1453</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -11060,7 +11063,7 @@
         <v>872</v>
       </c>
       <c r="D389" s="1" t="s">
-        <v>1455</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -11169,10 +11172,10 @@
         <v>884</v>
       </c>
       <c r="C397" s="2" t="s">
-        <v>1456</v>
+        <v>1453</v>
       </c>
       <c r="D397" s="2" t="s">
-        <v>1571</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="398" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -11183,10 +11186,10 @@
         <v>885</v>
       </c>
       <c r="C398" s="2" t="s">
-        <v>1457</v>
+        <v>1454</v>
       </c>
       <c r="D398" s="2" t="s">
-        <v>1572</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -11197,10 +11200,10 @@
         <v>886</v>
       </c>
       <c r="C399" s="1" t="s">
-        <v>1458</v>
+        <v>1455</v>
       </c>
       <c r="D399" s="1" t="s">
-        <v>1460</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -11214,7 +11217,7 @@
         <v>888</v>
       </c>
       <c r="D400" s="1" t="s">
-        <v>1459</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -11281,10 +11284,10 @@
         <v>897</v>
       </c>
       <c r="C405" s="1" t="s">
-        <v>1554</v>
+        <v>1551</v>
       </c>
       <c r="D405" s="1" t="s">
-        <v>1461</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -11309,7 +11312,7 @@
         <v>900</v>
       </c>
       <c r="C407" s="1" t="s">
-        <v>1573</v>
+        <v>1570</v>
       </c>
       <c r="D407" s="1" t="s">
         <v>901</v>
@@ -11326,7 +11329,7 @@
         <v>903</v>
       </c>
       <c r="D408" s="1" t="s">
-        <v>1462</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -11410,7 +11413,7 @@
         <v>917</v>
       </c>
       <c r="D414" s="1" t="s">
-        <v>1463</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -11421,10 +11424,10 @@
         <v>918</v>
       </c>
       <c r="C415" s="1" t="s">
-        <v>1464</v>
+        <v>1461</v>
       </c>
       <c r="D415" s="1" t="s">
-        <v>1578</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -11435,10 +11438,10 @@
         <v>919</v>
       </c>
       <c r="C416" s="1" t="s">
-        <v>1465</v>
+        <v>1462</v>
       </c>
       <c r="D416" s="1" t="s">
-        <v>1579</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -11480,7 +11483,7 @@
         <v>927</v>
       </c>
       <c r="D419" s="1" t="s">
-        <v>1466</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="420" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -11508,7 +11511,7 @@
         <v>872</v>
       </c>
       <c r="D421" s="1" t="s">
-        <v>1455</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -11575,7 +11578,7 @@
         <v>941</v>
       </c>
       <c r="C426" s="1" t="s">
-        <v>1467</v>
+        <v>1464</v>
       </c>
       <c r="D426" s="1" t="s">
         <v>942</v>
@@ -11617,10 +11620,10 @@
         <v>949</v>
       </c>
       <c r="C429" s="1" t="s">
-        <v>1595</v>
+        <v>1592</v>
       </c>
       <c r="D429" s="1" t="s">
-        <v>1594</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="430" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -11631,10 +11634,10 @@
         <v>950</v>
       </c>
       <c r="C430" s="4" t="s">
-        <v>1545</v>
+        <v>1542</v>
       </c>
       <c r="D430" s="4" t="s">
-        <v>1581</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="431" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -11645,10 +11648,10 @@
         <v>951</v>
       </c>
       <c r="C431" s="4" t="s">
-        <v>1580</v>
+        <v>1577</v>
       </c>
       <c r="D431" s="4" t="s">
-        <v>1582</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="432" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -11659,10 +11662,10 @@
         <v>952</v>
       </c>
       <c r="C432" s="1" t="s">
-        <v>1583</v>
+        <v>1580</v>
       </c>
       <c r="D432" s="1" t="s">
-        <v>1584</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="433" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -11701,10 +11704,10 @@
         <v>956</v>
       </c>
       <c r="C435" s="1" t="s">
-        <v>1468</v>
+        <v>1465</v>
       </c>
       <c r="D435" s="1" t="s">
-        <v>1469</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -11715,10 +11718,10 @@
         <v>957</v>
       </c>
       <c r="C436" s="1" t="s">
-        <v>1585</v>
+        <v>1582</v>
       </c>
       <c r="D436" s="1" t="s">
-        <v>1586</v>
+        <v>1583</v>
       </c>
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -11729,10 +11732,10 @@
         <v>958</v>
       </c>
       <c r="C437" s="1" t="s">
-        <v>1587</v>
+        <v>1584</v>
       </c>
       <c r="D437" s="1" t="s">
-        <v>1588</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -11746,7 +11749,7 @@
         <v>960</v>
       </c>
       <c r="D438" s="1" t="s">
-        <v>1470</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -11785,7 +11788,7 @@
         <v>967</v>
       </c>
       <c r="C441" s="1" t="s">
-        <v>1472</v>
+        <v>1469</v>
       </c>
       <c r="D441" s="1" t="s">
         <v>968</v>
@@ -11799,7 +11802,7 @@
         <v>969</v>
       </c>
       <c r="C442" s="1" t="s">
-        <v>1471</v>
+        <v>1468</v>
       </c>
       <c r="D442" s="1" t="s">
         <v>970</v>
@@ -11813,10 +11816,10 @@
         <v>971</v>
       </c>
       <c r="C443" s="1" t="s">
-        <v>1475</v>
+        <v>1472</v>
       </c>
       <c r="D443" s="1" t="s">
-        <v>1476</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="444" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -11827,10 +11830,10 @@
         <v>972</v>
       </c>
       <c r="C444" s="1" t="s">
-        <v>1473</v>
+        <v>1470</v>
       </c>
       <c r="D444" s="1" t="s">
-        <v>1477</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -11841,10 +11844,10 @@
         <v>973</v>
       </c>
       <c r="C445" s="1" t="s">
-        <v>1474</v>
+        <v>1471</v>
       </c>
       <c r="D445" s="1" t="s">
-        <v>1478</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -11869,10 +11872,10 @@
         <v>976</v>
       </c>
       <c r="C447" s="1" t="s">
-        <v>1590</v>
+        <v>1587</v>
       </c>
       <c r="D447" s="1" t="s">
-        <v>1591</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="448" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -11883,10 +11886,10 @@
         <v>977</v>
       </c>
       <c r="C448" s="1" t="s">
-        <v>1479</v>
+        <v>1476</v>
       </c>
       <c r="D448" s="1" t="s">
-        <v>1481</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="449" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -11897,10 +11900,10 @@
         <v>978</v>
       </c>
       <c r="C449" s="1" t="s">
-        <v>1480</v>
+        <v>1477</v>
       </c>
       <c r="D449" s="1" t="s">
-        <v>1589</v>
+        <v>1586</v>
       </c>
     </row>
     <row r="450" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -11953,10 +11956,10 @@
         <v>988</v>
       </c>
       <c r="C453" s="1" t="s">
-        <v>1616</v>
+        <v>1612</v>
       </c>
       <c r="D453" s="1" t="s">
-        <v>1614</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="454" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -11967,10 +11970,10 @@
         <v>989</v>
       </c>
       <c r="C454" s="1" t="s">
-        <v>1617</v>
+        <v>1613</v>
       </c>
       <c r="D454" s="1" t="s">
-        <v>1615</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="455" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -11981,10 +11984,10 @@
         <v>990</v>
       </c>
       <c r="C455" s="2" t="s">
-        <v>1456</v>
+        <v>1453</v>
       </c>
       <c r="D455" s="2" t="s">
-        <v>1592</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="456" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -11995,7 +11998,7 @@
         <v>991</v>
       </c>
       <c r="C456" s="1" t="s">
-        <v>1593</v>
+        <v>1590</v>
       </c>
       <c r="D456" s="1" t="s">
         <v>992</v>
@@ -12012,7 +12015,7 @@
         <v>994</v>
       </c>
       <c r="D457" s="1" t="s">
-        <v>1482</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="458" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -12023,10 +12026,10 @@
         <v>995</v>
       </c>
       <c r="C458" s="1" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
       <c r="D458" s="1" t="s">
-        <v>1484</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="459" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -12093,7 +12096,7 @@
         <v>1008</v>
       </c>
       <c r="C463" s="1" t="s">
-        <v>1485</v>
+        <v>1482</v>
       </c>
       <c r="D463" s="1" t="s">
         <v>1009</v>
@@ -12107,7 +12110,7 @@
         <v>1010</v>
       </c>
       <c r="C464" s="1" t="s">
-        <v>1486</v>
+        <v>1483</v>
       </c>
       <c r="D464" s="1" t="s">
         <v>1011</v>
@@ -12177,7 +12180,7 @@
         <v>1024</v>
       </c>
       <c r="C469" s="1" t="s">
-        <v>1613</v>
+        <v>1609</v>
       </c>
       <c r="D469" s="1" t="s">
         <v>1025</v>
@@ -12194,7 +12197,7 @@
         <v>1027</v>
       </c>
       <c r="D470" s="1" t="s">
-        <v>1618</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="471" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -12219,10 +12222,10 @@
         <v>1031</v>
       </c>
       <c r="C472" s="1" t="s">
-        <v>1620</v>
+        <v>1616</v>
       </c>
       <c r="D472" s="1" t="s">
-        <v>1619</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="473" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -12278,7 +12281,7 @@
         <v>962</v>
       </c>
       <c r="D476" s="1" t="s">
-        <v>1487</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="477" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -12317,10 +12320,10 @@
         <v>1045</v>
       </c>
       <c r="C479" s="1" t="s">
-        <v>1489</v>
+        <v>1486</v>
       </c>
       <c r="D479" s="1" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="480" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -12404,7 +12407,7 @@
         <v>965</v>
       </c>
       <c r="D485" s="1" t="s">
-        <v>1596</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="486" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -12418,7 +12421,7 @@
         <v>1063</v>
       </c>
       <c r="D486" s="1" t="s">
-        <v>1064</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="487" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -12426,7 +12429,7 @@
         <v>6</v>
       </c>
       <c r="B487" s="1" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="C487" s="1" t="s">
         <v>767</v>
@@ -12440,13 +12443,13 @@
         <v>6</v>
       </c>
       <c r="B488" s="1" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C488" s="1" t="s">
         <v>1066</v>
       </c>
-      <c r="C488" s="1" t="s">
+      <c r="D488" s="1" t="s">
         <v>1067</v>
-      </c>
-      <c r="D488" s="1" t="s">
-        <v>1068</v>
       </c>
     </row>
     <row r="489" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -12454,7 +12457,7 @@
         <v>6</v>
       </c>
       <c r="B489" s="1" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="C489" s="1" t="s">
         <v>268</v>
@@ -12468,13 +12471,13 @@
         <v>6</v>
       </c>
       <c r="B490" s="1" t="s">
+        <v>1069</v>
+      </c>
+      <c r="C490" s="1" t="s">
         <v>1070</v>
       </c>
-      <c r="C490" s="1" t="s">
+      <c r="D490" s="1" t="s">
         <v>1071</v>
-      </c>
-      <c r="D490" s="1" t="s">
-        <v>1072</v>
       </c>
     </row>
     <row r="491" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -12482,13 +12485,13 @@
         <v>6</v>
       </c>
       <c r="B491" s="1" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C491" s="1" t="s">
         <v>1073</v>
       </c>
-      <c r="C491" s="1" t="s">
-        <v>1074</v>
-      </c>
       <c r="D491" s="1" t="s">
-        <v>1597</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="492" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -12496,13 +12499,13 @@
         <v>6</v>
       </c>
       <c r="B492" s="1" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C492" s="1" t="s">
         <v>1075</v>
       </c>
-      <c r="C492" s="1" t="s">
-        <v>1076</v>
-      </c>
       <c r="D492" s="1" t="s">
-        <v>1598</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="493" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -12510,13 +12513,13 @@
         <v>6</v>
       </c>
       <c r="B493" s="1" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C493" s="1" t="s">
+        <v>1487</v>
+      </c>
+      <c r="D493" s="1" t="s">
         <v>1077</v>
-      </c>
-      <c r="C493" s="1" t="s">
-        <v>1490</v>
-      </c>
-      <c r="D493" s="1" t="s">
-        <v>1078</v>
       </c>
     </row>
     <row r="494" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -12524,7 +12527,7 @@
         <v>6</v>
       </c>
       <c r="B494" s="1" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="C494" s="1" t="s">
         <v>219</v>
@@ -12538,13 +12541,13 @@
         <v>6</v>
       </c>
       <c r="B495" s="1" t="s">
+        <v>1079</v>
+      </c>
+      <c r="C495" s="1" t="s">
         <v>1080</v>
       </c>
-      <c r="C495" s="1" t="s">
+      <c r="D495" s="1" t="s">
         <v>1081</v>
-      </c>
-      <c r="D495" s="1" t="s">
-        <v>1082</v>
       </c>
     </row>
     <row r="496" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -12552,7 +12555,7 @@
         <v>6</v>
       </c>
       <c r="B496" s="1" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="C496" s="1" t="s">
         <v>257</v>
@@ -12566,13 +12569,13 @@
         <v>6</v>
       </c>
       <c r="B497" s="1" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C497" s="1" t="s">
         <v>1084</v>
       </c>
-      <c r="C497" s="1" t="s">
+      <c r="D497" s="1" t="s">
         <v>1085</v>
-      </c>
-      <c r="D497" s="1" t="s">
-        <v>1086</v>
       </c>
     </row>
     <row r="498" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -12580,10 +12583,10 @@
         <v>6</v>
       </c>
       <c r="B498" s="1" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C498" s="1" t="s">
         <v>1087</v>
-      </c>
-      <c r="C498" s="1" t="s">
-        <v>1088</v>
       </c>
       <c r="D498" s="1" t="s">
         <v>266</v>
@@ -12594,13 +12597,13 @@
         <v>6</v>
       </c>
       <c r="B499" s="1" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="C499" s="1" t="s">
-        <v>1491</v>
+        <v>1488</v>
       </c>
       <c r="D499" s="1" t="s">
-        <v>1492</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="500" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -12608,13 +12611,13 @@
         <v>6</v>
       </c>
       <c r="B500" s="1" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="C500" s="1" t="s">
-        <v>1493</v>
+        <v>1490</v>
       </c>
       <c r="D500" s="1" t="s">
-        <v>1494</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="501" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -12622,13 +12625,13 @@
         <v>6</v>
       </c>
       <c r="B501" s="1" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="C501" s="1" t="s">
-        <v>1495</v>
+        <v>1492</v>
       </c>
       <c r="D501" s="1" t="s">
-        <v>1496</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="502" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -12636,13 +12639,13 @@
         <v>6</v>
       </c>
       <c r="B502" s="1" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="C502" s="1" t="s">
-        <v>1497</v>
+        <v>1494</v>
       </c>
       <c r="D502" s="1" t="s">
-        <v>1599</v>
+        <v>1595</v>
       </c>
     </row>
     <row r="503" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -12650,13 +12653,13 @@
         <v>6</v>
       </c>
       <c r="B503" s="1" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="C503" s="1" t="s">
-        <v>1498</v>
+        <v>1495</v>
       </c>
       <c r="D503" s="1" t="s">
-        <v>1600</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="504" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -12664,13 +12667,13 @@
         <v>6</v>
       </c>
       <c r="B504" s="1" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C504" s="1" t="s">
         <v>1094</v>
       </c>
-      <c r="C504" s="1" t="s">
-        <v>1095</v>
-      </c>
       <c r="D504" s="1" t="s">
-        <v>1599</v>
+        <v>1595</v>
       </c>
     </row>
     <row r="505" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -12678,13 +12681,13 @@
         <v>6</v>
       </c>
       <c r="B505" s="1" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="C505" s="1" t="s">
-        <v>1499</v>
+        <v>1496</v>
       </c>
       <c r="D505" s="1" t="s">
-        <v>1500</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="506" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -12692,13 +12695,13 @@
         <v>6</v>
       </c>
       <c r="B506" s="1" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C506" s="1" t="s">
         <v>1097</v>
       </c>
-      <c r="C506" s="1" t="s">
-        <v>1098</v>
-      </c>
       <c r="D506" s="1" t="s">
-        <v>1601</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="507" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -12706,13 +12709,13 @@
         <v>6</v>
       </c>
       <c r="B507" s="1" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="C507" s="1" t="s">
-        <v>1501</v>
+        <v>1498</v>
       </c>
       <c r="D507" s="1" t="s">
-        <v>1602</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="508" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -12720,13 +12723,13 @@
         <v>6</v>
       </c>
       <c r="B508" s="1" t="s">
+        <v>1099</v>
+      </c>
+      <c r="C508" s="1" t="s">
         <v>1100</v>
       </c>
-      <c r="C508" s="1" t="s">
-        <v>1101</v>
-      </c>
       <c r="D508" s="1" t="s">
-        <v>1604</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="509" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -12734,13 +12737,13 @@
         <v>6</v>
       </c>
       <c r="B509" s="1" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="C509" s="1" t="s">
-        <v>1502</v>
+        <v>1499</v>
       </c>
       <c r="D509" s="1" t="s">
-        <v>1605</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="510" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -12748,13 +12751,13 @@
         <v>6</v>
       </c>
       <c r="B510" s="1" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C510" s="1" t="s">
         <v>1103</v>
       </c>
-      <c r="C510" s="1" t="s">
-        <v>1104</v>
-      </c>
       <c r="D510" s="1" t="s">
-        <v>1603</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="511" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -12762,13 +12765,13 @@
         <v>6</v>
       </c>
       <c r="B511" s="1" t="s">
+        <v>1104</v>
+      </c>
+      <c r="C511" s="1" t="s">
         <v>1105</v>
       </c>
-      <c r="C511" s="1" t="s">
-        <v>1106</v>
-      </c>
       <c r="D511" s="1" t="s">
-        <v>1606</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="512" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -12776,13 +12779,13 @@
         <v>6</v>
       </c>
       <c r="B512" s="1" t="s">
+        <v>1106</v>
+      </c>
+      <c r="C512" s="1" t="s">
         <v>1107</v>
       </c>
-      <c r="C512" s="1" t="s">
+      <c r="D512" s="1" t="s">
         <v>1108</v>
-      </c>
-      <c r="D512" s="1" t="s">
-        <v>1109</v>
       </c>
     </row>
     <row r="513" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -12790,13 +12793,13 @@
         <v>6</v>
       </c>
       <c r="B513" s="1" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="C513" s="1" t="s">
-        <v>1608</v>
+        <v>1604</v>
       </c>
       <c r="D513" s="1" t="s">
-        <v>1607</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="514" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -12804,13 +12807,13 @@
         <v>6</v>
       </c>
       <c r="B514" s="1" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="C514" s="1" t="s">
-        <v>1503</v>
+        <v>1500</v>
       </c>
       <c r="D514" s="1" t="s">
-        <v>1504</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="515" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -12818,13 +12821,13 @@
         <v>6</v>
       </c>
       <c r="B515" s="4" t="s">
+        <v>1111</v>
+      </c>
+      <c r="C515" s="4" t="s">
         <v>1112</v>
       </c>
-      <c r="C515" s="4" t="s">
-        <v>1113</v>
-      </c>
       <c r="D515" s="4" t="s">
-        <v>1609</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="516" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -12832,13 +12835,13 @@
         <v>6</v>
       </c>
       <c r="B516" s="1" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="C516" s="1" t="s">
-        <v>1505</v>
+        <v>1502</v>
       </c>
       <c r="D516" s="1" t="s">
-        <v>1610</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="517" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -12846,13 +12849,13 @@
         <v>6</v>
       </c>
       <c r="B517" s="1" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C517" s="1" t="s">
         <v>1115</v>
       </c>
-      <c r="C517" s="1" t="s">
-        <v>1116</v>
-      </c>
       <c r="D517" s="1" t="s">
-        <v>1506</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="518" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -12860,13 +12863,13 @@
         <v>6</v>
       </c>
       <c r="B518" s="1" t="s">
+        <v>1116</v>
+      </c>
+      <c r="C518" s="1" t="s">
         <v>1117</v>
       </c>
-      <c r="C518" s="1" t="s">
-        <v>1118</v>
-      </c>
       <c r="D518" s="1" t="s">
-        <v>1507</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="519" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -12874,13 +12877,13 @@
         <v>6</v>
       </c>
       <c r="B519" s="1" t="s">
+        <v>1118</v>
+      </c>
+      <c r="C519" s="1" t="s">
         <v>1119</v>
       </c>
-      <c r="C519" s="1" t="s">
-        <v>1120</v>
-      </c>
       <c r="D519" s="1" t="s">
-        <v>1611</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="520" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -12888,13 +12891,13 @@
         <v>6</v>
       </c>
       <c r="B520" s="1" t="s">
+        <v>1120</v>
+      </c>
+      <c r="C520" s="1" t="s">
         <v>1121</v>
       </c>
-      <c r="C520" s="1" t="s">
-        <v>1122</v>
-      </c>
       <c r="D520" s="1" t="s">
-        <v>1612</v>
+        <v>1608</v>
       </c>
     </row>
     <row r="521" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -12902,13 +12905,13 @@
         <v>6</v>
       </c>
       <c r="B521" s="1" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="C521" s="1" t="s">
-        <v>1510</v>
+        <v>1507</v>
       </c>
       <c r="D521" s="1" t="s">
-        <v>1508</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="522" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -12916,13 +12919,13 @@
         <v>6</v>
       </c>
       <c r="B522" s="1" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C522" s="1" t="s">
         <v>1124</v>
       </c>
-      <c r="C522" s="1" t="s">
-        <v>1125</v>
-      </c>
       <c r="D522" s="1" t="s">
-        <v>1509</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="523" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -12930,13 +12933,13 @@
         <v>6</v>
       </c>
       <c r="B523" s="1" t="s">
+        <v>1125</v>
+      </c>
+      <c r="C523" s="1" t="s">
         <v>1126</v>
       </c>
-      <c r="C523" s="1" t="s">
-        <v>1127</v>
-      </c>
       <c r="D523" s="1" t="s">
-        <v>1511</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="524" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -12944,13 +12947,13 @@
         <v>6</v>
       </c>
       <c r="B524" s="1" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="C524" s="1" t="s">
-        <v>1513</v>
+        <v>1510</v>
       </c>
       <c r="D524" s="1" t="s">
-        <v>1512</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="525" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -12958,13 +12961,13 @@
         <v>6</v>
       </c>
       <c r="B525" s="1" t="s">
+        <v>1128</v>
+      </c>
+      <c r="C525" s="1" t="s">
         <v>1129</v>
       </c>
-      <c r="C525" s="1" t="s">
-        <v>1130</v>
-      </c>
       <c r="D525" s="1" t="s">
-        <v>1514</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="526" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -12972,13 +12975,13 @@
         <v>6</v>
       </c>
       <c r="B526" s="1" t="s">
+        <v>1130</v>
+      </c>
+      <c r="C526" s="1" t="s">
         <v>1131</v>
       </c>
-      <c r="C526" s="1" t="s">
-        <v>1132</v>
-      </c>
       <c r="D526" s="1" t="s">
-        <v>1515</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="527" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -12986,13 +12989,13 @@
         <v>6</v>
       </c>
       <c r="B527" s="1" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="C527" s="1" t="s">
-        <v>1516</v>
+        <v>1513</v>
       </c>
       <c r="D527" s="1" t="s">
-        <v>1517</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="528" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -13000,13 +13003,13 @@
         <v>6</v>
       </c>
       <c r="B528" s="1" t="s">
+        <v>1133</v>
+      </c>
+      <c r="C528" s="1" t="s">
         <v>1134</v>
       </c>
-      <c r="C528" s="1" t="s">
-        <v>1135</v>
-      </c>
       <c r="D528" s="1" t="s">
-        <v>1518</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="529" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -13014,13 +13017,13 @@
         <v>6</v>
       </c>
       <c r="B529" s="1" t="s">
+        <v>1135</v>
+      </c>
+      <c r="C529" s="1" t="s">
         <v>1136</v>
       </c>
-      <c r="C529" s="1" t="s">
-        <v>1137</v>
-      </c>
       <c r="D529" s="1" t="s">
-        <v>1519</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="530" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -13028,13 +13031,13 @@
         <v>6</v>
       </c>
       <c r="B530" s="1" t="s">
+        <v>1137</v>
+      </c>
+      <c r="C530" s="1" t="s">
         <v>1138</v>
       </c>
-      <c r="C530" s="1" t="s">
-        <v>1139</v>
-      </c>
       <c r="D530" s="1" t="s">
-        <v>1521</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="531" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -13042,13 +13045,13 @@
         <v>6</v>
       </c>
       <c r="B531" s="1" t="s">
+        <v>1139</v>
+      </c>
+      <c r="C531" s="1" t="s">
+        <v>1517</v>
+      </c>
+      <c r="D531" s="1" t="s">
         <v>1140</v>
-      </c>
-      <c r="C531" s="1" t="s">
-        <v>1520</v>
-      </c>
-      <c r="D531" s="1" t="s">
-        <v>1141</v>
       </c>
     </row>
     <row r="532" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -13056,13 +13059,13 @@
         <v>6</v>
       </c>
       <c r="B532" s="1" t="s">
+        <v>1141</v>
+      </c>
+      <c r="C532" s="1" t="s">
         <v>1142</v>
       </c>
-      <c r="C532" s="1" t="s">
-        <v>1143</v>
-      </c>
       <c r="D532" s="1" t="s">
-        <v>1522</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="533" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -13070,13 +13073,13 @@
         <v>6</v>
       </c>
       <c r="B533" s="1" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="C533" s="1" t="s">
         <v>670</v>
       </c>
       <c r="D533" s="1" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="534" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -13084,13 +13087,13 @@
         <v>6</v>
       </c>
       <c r="B534" s="1" t="s">
+        <v>1145</v>
+      </c>
+      <c r="C534" s="1" t="s">
         <v>1146</v>
       </c>
-      <c r="C534" s="1" t="s">
+      <c r="D534" s="1" t="s">
         <v>1147</v>
-      </c>
-      <c r="D534" s="1" t="s">
-        <v>1148</v>
       </c>
     </row>
     <row r="535" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -13098,13 +13101,13 @@
         <v>6</v>
       </c>
       <c r="B535" s="1" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="C535" s="1" t="s">
-        <v>1150</v>
+        <v>1685</v>
       </c>
       <c r="D535" s="1" t="s">
-        <v>1151</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="536" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -13112,13 +13115,13 @@
         <v>6</v>
       </c>
       <c r="B536" s="1" t="s">
-        <v>1152</v>
+        <v>1149</v>
       </c>
       <c r="C536" s="1" t="s">
         <v>1000</v>
       </c>
       <c r="D536" s="1" t="s">
-        <v>1153</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="537" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -13126,13 +13129,13 @@
         <v>6</v>
       </c>
       <c r="B537" s="1" t="s">
-        <v>1154</v>
+        <v>1151</v>
       </c>
       <c r="C537" s="1" t="s">
-        <v>1523</v>
+        <v>1520</v>
       </c>
       <c r="D537" s="1" t="s">
-        <v>1524</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="538" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -13140,13 +13143,13 @@
         <v>6</v>
       </c>
       <c r="B538" s="1" t="s">
-        <v>1155</v>
+        <v>1152</v>
       </c>
       <c r="C538" s="1" t="s">
-        <v>1525</v>
+        <v>1522</v>
       </c>
       <c r="D538" s="1" t="s">
-        <v>1621</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="540" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -13159,7 +13162,7 @@
         <v>6</v>
       </c>
       <c r="B541" s="1" t="s">
-        <v>1156</v>
+        <v>1153</v>
       </c>
       <c r="C541" s="1" t="s">
         <v>83</v>
@@ -13173,13 +13176,13 @@
         <v>6</v>
       </c>
       <c r="B542" s="1" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
       <c r="C542" s="1" t="s">
         <v>698</v>
       </c>
       <c r="D542" s="1" t="s">
-        <v>1625</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="543" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -13201,10 +13204,10 @@
         <v>6</v>
       </c>
       <c r="B544" s="1" t="s">
-        <v>1158</v>
+        <v>1155</v>
       </c>
       <c r="C544" s="1" t="s">
-        <v>1159</v>
+        <v>1156</v>
       </c>
       <c r="D544" s="1" t="s">
         <v>827</v>
@@ -13215,13 +13218,13 @@
         <v>6</v>
       </c>
       <c r="B545" s="1" t="s">
-        <v>1160</v>
+        <v>1157</v>
       </c>
       <c r="C545" s="1" t="s">
-        <v>1626</v>
+        <v>1622</v>
       </c>
       <c r="D545" s="1" t="s">
-        <v>1161</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="546" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -13229,13 +13232,13 @@
         <v>6</v>
       </c>
       <c r="B546" s="1" t="s">
-        <v>1162</v>
+        <v>1159</v>
       </c>
       <c r="C546" s="1" t="s">
-        <v>1163</v>
+        <v>1160</v>
       </c>
       <c r="D546" s="1" t="s">
-        <v>1164</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="547" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -13243,13 +13246,13 @@
         <v>6</v>
       </c>
       <c r="B547" s="1" t="s">
-        <v>1165</v>
+        <v>1162</v>
       </c>
       <c r="C547" s="1" t="s">
-        <v>1624</v>
+        <v>1620</v>
       </c>
       <c r="D547" s="1" t="s">
-        <v>1166</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="548" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -13257,13 +13260,13 @@
         <v>6</v>
       </c>
       <c r="B548" s="1" t="s">
-        <v>1167</v>
+        <v>1164</v>
       </c>
       <c r="C548" s="1" t="s">
-        <v>1623</v>
+        <v>1619</v>
       </c>
       <c r="D548" s="1" t="s">
-        <v>1622</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="549" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -13271,13 +13274,13 @@
         <v>6</v>
       </c>
       <c r="B549" s="1" t="s">
-        <v>1168</v>
+        <v>1165</v>
       </c>
       <c r="C549" s="1" t="s">
-        <v>1169</v>
+        <v>1166</v>
       </c>
       <c r="D549" s="1" t="s">
-        <v>1170</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="550" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -13285,13 +13288,13 @@
         <v>6</v>
       </c>
       <c r="B550" s="1" t="s">
-        <v>1171</v>
+        <v>1168</v>
       </c>
       <c r="C550" s="1" t="s">
-        <v>1172</v>
+        <v>1169</v>
       </c>
       <c r="D550" s="1" t="s">
-        <v>1173</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="551" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -13299,10 +13302,10 @@
         <v>6</v>
       </c>
       <c r="B551" s="1" t="s">
-        <v>1174</v>
+        <v>1171</v>
       </c>
       <c r="C551" s="1" t="s">
-        <v>1627</v>
+        <v>1623</v>
       </c>
       <c r="D551" s="1" t="s">
         <v>1025</v>
@@ -13313,10 +13316,10 @@
         <v>6</v>
       </c>
       <c r="B552" s="1" t="s">
-        <v>1175</v>
+        <v>1172</v>
       </c>
       <c r="C552" s="1" t="s">
-        <v>1176</v>
+        <v>1173</v>
       </c>
       <c r="D552" s="1" t="s">
         <v>1030</v>
@@ -13327,10 +13330,10 @@
         <v>6</v>
       </c>
       <c r="B553" s="1" t="s">
-        <v>1177</v>
+        <v>1174</v>
       </c>
       <c r="C553" s="1" t="s">
-        <v>1628</v>
+        <v>1624</v>
       </c>
       <c r="D553" s="1" t="s">
         <v>1034</v>
@@ -13341,13 +13344,13 @@
         <v>6</v>
       </c>
       <c r="B554" s="1" t="s">
-        <v>1178</v>
+        <v>1175</v>
       </c>
       <c r="C554" s="1" t="s">
-        <v>1179</v>
+        <v>1176</v>
       </c>
       <c r="D554" s="1" t="s">
-        <v>1180</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="555" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -13355,13 +13358,13 @@
         <v>6</v>
       </c>
       <c r="B555" s="1" t="s">
-        <v>1181</v>
+        <v>1178</v>
       </c>
       <c r="C555" s="1" t="s">
-        <v>1182</v>
+        <v>1179</v>
       </c>
       <c r="D555" s="1" t="s">
-        <v>1183</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="556" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -13369,13 +13372,13 @@
         <v>6</v>
       </c>
       <c r="B556" s="1" t="s">
-        <v>1184</v>
+        <v>1181</v>
       </c>
       <c r="C556" s="1" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
       <c r="D556" s="1" t="s">
-        <v>1428</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="557" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -13383,13 +13386,13 @@
         <v>6</v>
       </c>
       <c r="B557" s="1" t="s">
-        <v>1185</v>
+        <v>1182</v>
       </c>
       <c r="C557" s="1" t="s">
-        <v>1430</v>
+        <v>1427</v>
       </c>
       <c r="D557" s="1" t="s">
-        <v>1550</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="558" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -13397,13 +13400,13 @@
         <v>6</v>
       </c>
       <c r="B558" s="1" t="s">
-        <v>1186</v>
+        <v>1183</v>
       </c>
       <c r="C558" s="1" t="s">
-        <v>1430</v>
+        <v>1427</v>
       </c>
       <c r="D558" s="1" t="s">
-        <v>1550</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="559" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -13411,13 +13414,13 @@
         <v>6</v>
       </c>
       <c r="B559" s="1" t="s">
-        <v>1187</v>
+        <v>1184</v>
       </c>
       <c r="C559" s="1" t="s">
-        <v>1431</v>
+        <v>1428</v>
       </c>
       <c r="D559" s="1" t="s">
-        <v>1629</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="560" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -13425,13 +13428,13 @@
         <v>6</v>
       </c>
       <c r="B560" s="1" t="s">
-        <v>1188</v>
+        <v>1185</v>
       </c>
       <c r="C560" s="1" t="s">
-        <v>1432</v>
+        <v>1429</v>
       </c>
       <c r="D560" s="1" t="s">
-        <v>1630</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="561" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -13439,13 +13442,13 @@
         <v>6</v>
       </c>
       <c r="B561" s="1" t="s">
-        <v>1189</v>
+        <v>1186</v>
       </c>
       <c r="C561" s="1" t="s">
-        <v>1433</v>
+        <v>1430</v>
       </c>
       <c r="D561" s="1" t="s">
-        <v>1631</v>
+        <v>1627</v>
       </c>
     </row>
     <row r="562" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -13453,13 +13456,13 @@
         <v>6</v>
       </c>
       <c r="B562" s="1" t="s">
-        <v>1190</v>
+        <v>1187</v>
       </c>
       <c r="C562" s="1" t="s">
-        <v>1432</v>
+        <v>1429</v>
       </c>
       <c r="D562" s="1" t="s">
-        <v>1630</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="563" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -13467,13 +13470,13 @@
         <v>6</v>
       </c>
       <c r="B563" s="4" t="s">
-        <v>1191</v>
+        <v>1188</v>
       </c>
       <c r="C563" s="4" t="s">
-        <v>1544</v>
+        <v>1541</v>
       </c>
       <c r="D563" s="4" t="s">
-        <v>1435</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="564" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -13481,13 +13484,13 @@
         <v>6</v>
       </c>
       <c r="B564" s="1" t="s">
-        <v>1192</v>
+        <v>1189</v>
       </c>
       <c r="C564" s="1" t="s">
-        <v>1436</v>
+        <v>1433</v>
       </c>
       <c r="D564" s="1" t="s">
-        <v>1632</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="565" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -13495,13 +13498,13 @@
         <v>6</v>
       </c>
       <c r="B565" s="1" t="s">
-        <v>1193</v>
+        <v>1190</v>
       </c>
       <c r="C565" s="1" t="s">
-        <v>1436</v>
+        <v>1433</v>
       </c>
       <c r="D565" s="1" t="s">
-        <v>1632</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="566" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -13509,13 +13512,13 @@
         <v>6</v>
       </c>
       <c r="B566" s="2" t="s">
-        <v>1194</v>
+        <v>1191</v>
       </c>
       <c r="C566" s="2" t="s">
-        <v>1543</v>
+        <v>1540</v>
       </c>
       <c r="D566" s="2" t="s">
-        <v>1633</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="567" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -13523,13 +13526,13 @@
         <v>6</v>
       </c>
       <c r="B567" s="4" t="s">
-        <v>1195</v>
+        <v>1192</v>
       </c>
       <c r="C567" s="4" t="s">
-        <v>1540</v>
+        <v>1537</v>
       </c>
       <c r="D567" s="4" t="s">
-        <v>1634</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="568" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -13537,13 +13540,13 @@
         <v>6</v>
       </c>
       <c r="B568" s="1" t="s">
-        <v>1196</v>
+        <v>1193</v>
       </c>
       <c r="C568" s="1" t="s">
-        <v>1197</v>
+        <v>1194</v>
       </c>
       <c r="D568" s="1" t="s">
-        <v>1437</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="569" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -13551,13 +13554,13 @@
         <v>6</v>
       </c>
       <c r="B569" s="1" t="s">
-        <v>1198</v>
+        <v>1195</v>
       </c>
       <c r="C569" s="1" t="s">
-        <v>1438</v>
+        <v>1435</v>
       </c>
       <c r="D569" s="1" t="s">
-        <v>1549</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="570" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -13565,13 +13568,13 @@
         <v>6</v>
       </c>
       <c r="B570" s="1" t="s">
-        <v>1199</v>
+        <v>1196</v>
       </c>
       <c r="C570" s="1" t="s">
-        <v>1439</v>
+        <v>1436</v>
       </c>
       <c r="D570" s="1" t="s">
-        <v>1635</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="571" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -13579,13 +13582,13 @@
         <v>6</v>
       </c>
       <c r="B571" s="4" t="s">
-        <v>1200</v>
+        <v>1197</v>
       </c>
       <c r="C571" s="4" t="s">
-        <v>1541</v>
+        <v>1538</v>
       </c>
       <c r="D571" s="4" t="s">
-        <v>1636</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="572" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -13593,13 +13596,13 @@
         <v>6</v>
       </c>
       <c r="B572" s="4" t="s">
-        <v>1201</v>
+        <v>1198</v>
       </c>
       <c r="C572" s="4" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
       <c r="D572" s="4" t="s">
-        <v>1637</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="573" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -13607,13 +13610,13 @@
         <v>6</v>
       </c>
       <c r="B573" s="1" t="s">
-        <v>1202</v>
+        <v>1199</v>
       </c>
       <c r="C573" s="1" t="s">
-        <v>1203</v>
+        <v>1200</v>
       </c>
       <c r="D573" s="1" t="s">
-        <v>1440</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="574" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -13621,13 +13624,13 @@
         <v>6</v>
       </c>
       <c r="B574" s="1" t="s">
-        <v>1204</v>
+        <v>1201</v>
       </c>
       <c r="C574" s="1" t="s">
-        <v>1441</v>
+        <v>1438</v>
       </c>
       <c r="D574" s="1" t="s">
-        <v>1443</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="575" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -13635,13 +13638,13 @@
         <v>6</v>
       </c>
       <c r="B575" s="1" t="s">
-        <v>1205</v>
+        <v>1202</v>
       </c>
       <c r="C575" s="1" t="s">
-        <v>1206</v>
+        <v>1203</v>
       </c>
       <c r="D575" s="1" t="s">
-        <v>1442</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="576" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -13649,13 +13652,13 @@
         <v>6</v>
       </c>
       <c r="B576" s="1" t="s">
-        <v>1207</v>
+        <v>1204</v>
       </c>
       <c r="C576" s="1" t="s">
-        <v>1441</v>
+        <v>1438</v>
       </c>
       <c r="D576" s="1" t="s">
-        <v>1443</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="577" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -13663,13 +13666,13 @@
         <v>6</v>
       </c>
       <c r="B577" s="1" t="s">
-        <v>1208</v>
+        <v>1205</v>
       </c>
       <c r="C577" s="1" t="s">
-        <v>1209</v>
+        <v>1206</v>
       </c>
       <c r="D577" s="1" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="578" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -13677,13 +13680,13 @@
         <v>6</v>
       </c>
       <c r="B578" s="1" t="s">
-        <v>1210</v>
+        <v>1207</v>
       </c>
       <c r="C578" s="1" t="s">
-        <v>1445</v>
+        <v>1442</v>
       </c>
       <c r="D578" s="1" t="s">
-        <v>1444</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="579" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -13691,18 +13694,18 @@
         <v>6</v>
       </c>
       <c r="B579" s="1" t="s">
-        <v>1211</v>
+        <v>1208</v>
       </c>
       <c r="C579" s="1" t="s">
-        <v>1212</v>
+        <v>1209</v>
       </c>
       <c r="D579" s="1" t="s">
-        <v>1638</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="581" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A581" s="1" t="s">
-        <v>1213</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="582" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -13724,7 +13727,7 @@
         <v>6</v>
       </c>
       <c r="B583" s="1" t="s">
-        <v>1214</v>
+        <v>1211</v>
       </c>
       <c r="C583" s="1" t="s">
         <v>704</v>
@@ -13738,13 +13741,13 @@
         <v>6</v>
       </c>
       <c r="B584" s="1" t="s">
-        <v>1215</v>
+        <v>1212</v>
       </c>
       <c r="C584" s="1" t="s">
-        <v>1216</v>
+        <v>1213</v>
       </c>
       <c r="D584" s="1" t="s">
-        <v>1640</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="585" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -13752,13 +13755,13 @@
         <v>6</v>
       </c>
       <c r="B585" s="1" t="s">
-        <v>1217</v>
+        <v>1214</v>
       </c>
       <c r="C585" s="1" t="s">
-        <v>1218</v>
+        <v>1215</v>
       </c>
       <c r="D585" s="1" t="s">
-        <v>1219</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="586" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -13766,13 +13769,13 @@
         <v>6</v>
       </c>
       <c r="B586" s="1" t="s">
-        <v>1220</v>
+        <v>1217</v>
       </c>
       <c r="C586" s="1" t="s">
-        <v>1221</v>
+        <v>1218</v>
       </c>
       <c r="D586" s="1" t="s">
-        <v>1222</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="587" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -13780,13 +13783,13 @@
         <v>6</v>
       </c>
       <c r="B587" s="1" t="s">
-        <v>1223</v>
+        <v>1220</v>
       </c>
       <c r="C587" s="1" t="s">
-        <v>1224</v>
+        <v>1221</v>
       </c>
       <c r="D587" s="1" t="s">
-        <v>1225</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="588" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -13794,13 +13797,13 @@
         <v>6</v>
       </c>
       <c r="B588" s="1" t="s">
-        <v>1226</v>
+        <v>1223</v>
       </c>
       <c r="C588" s="1" t="s">
-        <v>1227</v>
+        <v>1224</v>
       </c>
       <c r="D588" s="1" t="s">
-        <v>1228</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="589" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -13814,7 +13817,7 @@
         <v>25</v>
       </c>
       <c r="D589" s="1" t="s">
-        <v>1229</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="590" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -13822,13 +13825,13 @@
         <v>6</v>
       </c>
       <c r="B590" s="1" t="s">
-        <v>1230</v>
+        <v>1227</v>
       </c>
       <c r="C590" s="1" t="s">
-        <v>1231</v>
+        <v>1228</v>
       </c>
       <c r="D590" s="1" t="s">
-        <v>1427</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="591" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -13836,13 +13839,13 @@
         <v>6</v>
       </c>
       <c r="B591" s="1" t="s">
-        <v>1232</v>
+        <v>1229</v>
       </c>
       <c r="C591" s="1" t="s">
-        <v>1233</v>
+        <v>1230</v>
       </c>
       <c r="D591" s="1" t="s">
-        <v>1234</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="592" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -13850,18 +13853,18 @@
         <v>6</v>
       </c>
       <c r="B592" s="1" t="s">
-        <v>1235</v>
+        <v>1232</v>
       </c>
       <c r="C592" s="1" t="s">
-        <v>1236</v>
+        <v>1233</v>
       </c>
       <c r="D592" s="1" t="s">
-        <v>1237</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="594" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A594" s="1" t="s">
-        <v>1238</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="595" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -13869,13 +13872,13 @@
         <v>6</v>
       </c>
       <c r="B595" s="1" t="s">
-        <v>1239</v>
+        <v>1236</v>
       </c>
       <c r="C595" s="1" t="s">
-        <v>1240</v>
+        <v>1237</v>
       </c>
       <c r="D595" s="1" t="s">
-        <v>1239</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="596" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -13883,13 +13886,13 @@
         <v>6</v>
       </c>
       <c r="B596" s="1" t="s">
-        <v>1241</v>
+        <v>1238</v>
       </c>
       <c r="C596" s="1" t="s">
-        <v>1242</v>
+        <v>1239</v>
       </c>
       <c r="D596" s="1" t="s">
-        <v>1241</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="597" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -13897,13 +13900,13 @@
         <v>6</v>
       </c>
       <c r="B597" s="1" t="s">
-        <v>1243</v>
+        <v>1240</v>
       </c>
       <c r="C597" s="1" t="s">
-        <v>1244</v>
+        <v>1241</v>
       </c>
       <c r="D597" s="1" t="s">
-        <v>1243</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="598" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -13911,13 +13914,13 @@
         <v>6</v>
       </c>
       <c r="B598" s="1" t="s">
-        <v>1245</v>
+        <v>1242</v>
       </c>
       <c r="C598" s="1" t="s">
-        <v>1246</v>
+        <v>1243</v>
       </c>
       <c r="D598" s="1" t="s">
-        <v>1245</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="599" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -13925,13 +13928,13 @@
         <v>6</v>
       </c>
       <c r="B599" s="1" t="s">
-        <v>1247</v>
+        <v>1244</v>
       </c>
       <c r="C599" s="1" t="s">
-        <v>1248</v>
+        <v>1245</v>
       </c>
       <c r="D599" s="1" t="s">
-        <v>1247</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="600" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -13939,13 +13942,13 @@
         <v>6</v>
       </c>
       <c r="B600" s="1" t="s">
-        <v>1249</v>
+        <v>1246</v>
       </c>
       <c r="C600" s="1" t="s">
-        <v>1250</v>
+        <v>1247</v>
       </c>
       <c r="D600" s="1" t="s">
-        <v>1249</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="601" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -13953,13 +13956,13 @@
         <v>6</v>
       </c>
       <c r="B601" s="1" t="s">
-        <v>1251</v>
+        <v>1248</v>
       </c>
       <c r="C601" s="1" t="s">
-        <v>1252</v>
+        <v>1249</v>
       </c>
       <c r="D601" s="1" t="s">
-        <v>1251</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="602" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -13967,13 +13970,13 @@
         <v>6</v>
       </c>
       <c r="B602" s="1" t="s">
-        <v>1253</v>
+        <v>1250</v>
       </c>
       <c r="C602" s="1" t="s">
-        <v>1254</v>
+        <v>1251</v>
       </c>
       <c r="D602" s="1" t="s">
-        <v>1255</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="603" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -13981,13 +13984,13 @@
         <v>6</v>
       </c>
       <c r="B603" s="1" t="s">
-        <v>1256</v>
+        <v>1253</v>
       </c>
       <c r="C603" s="1" t="s">
-        <v>1257</v>
+        <v>1254</v>
       </c>
       <c r="D603" s="1" t="s">
-        <v>1255</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="604" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -13995,10 +13998,10 @@
         <v>6</v>
       </c>
       <c r="B604" s="1" t="s">
-        <v>1258</v>
+        <v>1255</v>
       </c>
       <c r="C604" s="1" t="s">
-        <v>1259</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="606" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -14011,10 +14014,10 @@
         <v>6</v>
       </c>
       <c r="B607" s="1" t="s">
-        <v>1260</v>
+        <v>1257</v>
       </c>
       <c r="C607" s="1" t="s">
-        <v>1261</v>
+        <v>1258</v>
       </c>
       <c r="D607" s="1" t="s">
         <v>746</v>
@@ -14025,13 +14028,13 @@
         <v>6</v>
       </c>
       <c r="B608" s="1" t="s">
-        <v>1262</v>
+        <v>1259</v>
       </c>
       <c r="C608" s="1" t="s">
-        <v>1263</v>
+        <v>1260</v>
       </c>
       <c r="D608" s="1" t="s">
-        <v>1264</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="609" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -14039,13 +14042,13 @@
         <v>6</v>
       </c>
       <c r="B609" s="1" t="s">
-        <v>1265</v>
+        <v>1262</v>
       </c>
       <c r="C609" s="1" t="s">
-        <v>1266</v>
+        <v>1263</v>
       </c>
       <c r="D609" s="1" t="s">
-        <v>1267</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="610" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -14053,13 +14056,13 @@
         <v>6</v>
       </c>
       <c r="B610" s="1" t="s">
-        <v>1268</v>
+        <v>1265</v>
       </c>
       <c r="C610" s="1" t="s">
-        <v>1551</v>
+        <v>1548</v>
       </c>
       <c r="D610" s="1" t="s">
-        <v>1548</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="611" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -14067,13 +14070,13 @@
         <v>6</v>
       </c>
       <c r="B611" s="1" t="s">
-        <v>1223</v>
+        <v>1220</v>
       </c>
       <c r="C611" s="1" t="s">
-        <v>1224</v>
+        <v>1221</v>
       </c>
       <c r="D611" s="1" t="s">
-        <v>1225</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="612" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -14081,13 +14084,13 @@
         <v>6</v>
       </c>
       <c r="B612" s="1" t="s">
-        <v>1269</v>
+        <v>1266</v>
       </c>
       <c r="C612" s="1" t="s">
-        <v>1270</v>
+        <v>1267</v>
       </c>
       <c r="D612" s="1" t="s">
-        <v>1271</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="613" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -14095,13 +14098,13 @@
         <v>6</v>
       </c>
       <c r="B613" s="1" t="s">
-        <v>1272</v>
+        <v>1269</v>
       </c>
       <c r="C613" s="1" t="s">
-        <v>1273</v>
+        <v>1270</v>
       </c>
       <c r="D613" s="1" t="s">
-        <v>1274</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="614" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -14109,13 +14112,13 @@
         <v>6</v>
       </c>
       <c r="B614" s="1" t="s">
-        <v>1275</v>
+        <v>1272</v>
       </c>
       <c r="C614" s="1" t="s">
-        <v>1276</v>
+        <v>1273</v>
       </c>
       <c r="D614" s="1" t="s">
-        <v>1222</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="615" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -14123,13 +14126,13 @@
         <v>6</v>
       </c>
       <c r="B615" s="1" t="s">
-        <v>1220</v>
+        <v>1217</v>
       </c>
       <c r="C615" s="1" t="s">
-        <v>1221</v>
+        <v>1218</v>
       </c>
       <c r="D615" s="1" t="s">
-        <v>1222</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="616" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -14137,13 +14140,13 @@
         <v>6</v>
       </c>
       <c r="B616" s="1" t="s">
-        <v>1277</v>
+        <v>1274</v>
       </c>
       <c r="C616" s="1" t="s">
         <v>593</v>
       </c>
       <c r="D616" s="1" t="s">
-        <v>1278</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="617" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -14151,7 +14154,7 @@
         <v>6</v>
       </c>
       <c r="B617" s="1" t="s">
-        <v>1279</v>
+        <v>1276</v>
       </c>
       <c r="C617" s="1" t="s">
         <v>567</v>
@@ -14165,10 +14168,10 @@
         <v>6</v>
       </c>
       <c r="B618" s="1" t="s">
-        <v>1280</v>
+        <v>1277</v>
       </c>
       <c r="C618" s="1" t="s">
-        <v>1281</v>
+        <v>1278</v>
       </c>
       <c r="D618" s="1" t="s">
         <v>70</v>
@@ -14179,13 +14182,13 @@
         <v>6</v>
       </c>
       <c r="B619" s="1" t="s">
-        <v>1282</v>
+        <v>1279</v>
       </c>
       <c r="C619" s="1" t="s">
-        <v>1283</v>
+        <v>1280</v>
       </c>
       <c r="D619" s="1" t="s">
-        <v>1284</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="620" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -14193,13 +14196,13 @@
         <v>6</v>
       </c>
       <c r="B620" s="1" t="s">
-        <v>1285</v>
+        <v>1282</v>
       </c>
       <c r="C620" s="1" t="s">
-        <v>1286</v>
+        <v>1283</v>
       </c>
       <c r="D620" s="1" t="s">
-        <v>1287</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="621" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -14207,7 +14210,7 @@
         <v>6</v>
       </c>
       <c r="B621" s="2" t="s">
-        <v>1288</v>
+        <v>1285</v>
       </c>
       <c r="C621" s="2" t="s">
         <v>598</v>
@@ -14221,10 +14224,10 @@
         <v>6</v>
       </c>
       <c r="B622" s="1" t="s">
-        <v>1289</v>
+        <v>1286</v>
       </c>
       <c r="C622" s="1" t="s">
-        <v>1290</v>
+        <v>1287</v>
       </c>
       <c r="D622" s="1" t="s">
         <v>771</v>
@@ -14235,13 +14238,13 @@
         <v>6</v>
       </c>
       <c r="B623" s="1" t="s">
-        <v>1291</v>
+        <v>1288</v>
       </c>
       <c r="C623" s="1" t="s">
-        <v>1292</v>
+        <v>1289</v>
       </c>
       <c r="D623" s="1" t="s">
-        <v>1293</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="624" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -14249,13 +14252,13 @@
         <v>6</v>
       </c>
       <c r="B624" s="1" t="s">
-        <v>1294</v>
+        <v>1291</v>
       </c>
       <c r="C624" s="1" t="s">
-        <v>1295</v>
+        <v>1292</v>
       </c>
       <c r="D624" s="1" t="s">
-        <v>1296</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="625" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -14263,13 +14266,13 @@
         <v>6</v>
       </c>
       <c r="B625" s="1" t="s">
-        <v>1297</v>
+        <v>1294</v>
       </c>
       <c r="C625" s="1" t="s">
-        <v>1298</v>
+        <v>1295</v>
       </c>
       <c r="D625" s="1" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="626" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -14277,13 +14280,13 @@
         <v>6</v>
       </c>
       <c r="B626" s="1" t="s">
-        <v>1299</v>
+        <v>1296</v>
       </c>
       <c r="C626" s="1" t="s">
-        <v>1300</v>
+        <v>1297</v>
       </c>
       <c r="D626" s="1" t="s">
-        <v>1428</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="627" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -14291,13 +14294,13 @@
         <v>6</v>
       </c>
       <c r="B627" s="1" t="s">
-        <v>1301</v>
+        <v>1298</v>
       </c>
       <c r="C627" s="1" t="s">
-        <v>1302</v>
+        <v>1299</v>
       </c>
       <c r="D627" s="1" t="s">
-        <v>1303</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="628" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -14305,13 +14308,13 @@
         <v>6</v>
       </c>
       <c r="B628" s="1" t="s">
-        <v>1304</v>
+        <v>1301</v>
       </c>
       <c r="C628" s="1" t="s">
-        <v>1305</v>
+        <v>1302</v>
       </c>
       <c r="D628" s="1" t="s">
-        <v>1306</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="629" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -14319,10 +14322,10 @@
         <v>6</v>
       </c>
       <c r="B629" s="1" t="s">
-        <v>1307</v>
+        <v>1304</v>
       </c>
       <c r="C629" s="1" t="s">
-        <v>1308</v>
+        <v>1305</v>
       </c>
       <c r="D629" s="1" t="s">
         <v>482</v>
@@ -14333,13 +14336,13 @@
         <v>6</v>
       </c>
       <c r="B630" s="1" t="s">
-        <v>1215</v>
+        <v>1212</v>
       </c>
       <c r="C630" s="1" t="s">
-        <v>1639</v>
+        <v>1635</v>
       </c>
       <c r="D630" s="1" t="s">
-        <v>1640</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="631" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -14347,13 +14350,13 @@
         <v>6</v>
       </c>
       <c r="B631" s="1" t="s">
-        <v>1309</v>
+        <v>1306</v>
       </c>
       <c r="C631" s="1" t="s">
-        <v>1657</v>
+        <v>1653</v>
       </c>
       <c r="D631" s="1" t="s">
-        <v>1660</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="632" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -14361,13 +14364,13 @@
         <v>6</v>
       </c>
       <c r="B632" s="2" t="s">
-        <v>1310</v>
+        <v>1307</v>
       </c>
       <c r="C632" s="2" t="s">
-        <v>1658</v>
+        <v>1654</v>
       </c>
       <c r="D632" s="2" t="s">
-        <v>1661</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="633" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -14375,13 +14378,13 @@
         <v>6</v>
       </c>
       <c r="B633" s="2" t="s">
-        <v>1311</v>
+        <v>1308</v>
       </c>
       <c r="C633" s="2" t="s">
-        <v>1659</v>
+        <v>1655</v>
       </c>
       <c r="D633" s="2" t="s">
-        <v>1662</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="634" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -14389,13 +14392,13 @@
         <v>6</v>
       </c>
       <c r="B634" s="1" t="s">
-        <v>1312</v>
+        <v>1309</v>
       </c>
       <c r="C634" s="1" t="s">
-        <v>1242</v>
+        <v>1239</v>
       </c>
       <c r="D634" s="1" t="s">
-        <v>1663</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="635" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -14403,13 +14406,13 @@
         <v>6</v>
       </c>
       <c r="B635" s="1" t="s">
-        <v>1313</v>
+        <v>1310</v>
       </c>
       <c r="C635" s="1" t="s">
-        <v>1244</v>
+        <v>1241</v>
       </c>
       <c r="D635" s="1" t="s">
-        <v>1664</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="636" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -14417,13 +14420,13 @@
         <v>6</v>
       </c>
       <c r="B636" s="1" t="s">
-        <v>1314</v>
+        <v>1311</v>
       </c>
       <c r="C636" s="1" t="s">
-        <v>1246</v>
+        <v>1243</v>
       </c>
       <c r="D636" s="1" t="s">
-        <v>1665</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="637" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -14431,13 +14434,13 @@
         <v>6</v>
       </c>
       <c r="B637" s="1" t="s">
-        <v>1315</v>
+        <v>1312</v>
       </c>
       <c r="C637" s="1" t="s">
-        <v>1248</v>
+        <v>1245</v>
       </c>
       <c r="D637" s="1" t="s">
-        <v>1666</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="638" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -14445,13 +14448,13 @@
         <v>6</v>
       </c>
       <c r="B638" s="1" t="s">
-        <v>1316</v>
+        <v>1313</v>
       </c>
       <c r="C638" s="1" t="s">
-        <v>1250</v>
+        <v>1247</v>
       </c>
       <c r="D638" s="1" t="s">
-        <v>1667</v>
+        <v>1663</v>
       </c>
     </row>
     <row r="639" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -14459,13 +14462,13 @@
         <v>6</v>
       </c>
       <c r="B639" s="1" t="s">
-        <v>1317</v>
+        <v>1314</v>
       </c>
       <c r="C639" s="1" t="s">
-        <v>1252</v>
+        <v>1249</v>
       </c>
       <c r="D639" s="1" t="s">
-        <v>1668</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="640" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -14473,13 +14476,13 @@
         <v>6</v>
       </c>
       <c r="B640" s="1" t="s">
-        <v>1318</v>
+        <v>1315</v>
       </c>
       <c r="C640" s="1" t="s">
-        <v>1240</v>
+        <v>1237</v>
       </c>
       <c r="D640" s="1" t="s">
-        <v>1669</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="641" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -14487,13 +14490,13 @@
         <v>6</v>
       </c>
       <c r="B641" s="1" t="s">
-        <v>1319</v>
+        <v>1316</v>
       </c>
       <c r="C641" s="1" t="s">
-        <v>1682</v>
+        <v>1678</v>
       </c>
       <c r="D641" s="1" t="s">
-        <v>1683</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="642" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -14501,13 +14504,13 @@
         <v>6</v>
       </c>
       <c r="B642" s="1" t="s">
-        <v>1320</v>
+        <v>1317</v>
       </c>
       <c r="C642" s="1" t="s">
-        <v>1321</v>
+        <v>1318</v>
       </c>
       <c r="D642" s="1" t="s">
-        <v>1684</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="643" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -14515,13 +14518,13 @@
         <v>6</v>
       </c>
       <c r="B643" s="1" t="s">
-        <v>1322</v>
+        <v>1319</v>
       </c>
       <c r="C643" s="1" t="s">
-        <v>1323</v>
+        <v>1320</v>
       </c>
       <c r="D643" s="1" t="s">
-        <v>1685</v>
+        <v>1681</v>
       </c>
     </row>
     <row r="644" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -14529,13 +14532,13 @@
         <v>6</v>
       </c>
       <c r="B644" s="1" t="s">
-        <v>1324</v>
+        <v>1321</v>
       </c>
       <c r="C644" s="1" t="s">
-        <v>1325</v>
+        <v>1322</v>
       </c>
       <c r="D644" s="1" t="s">
-        <v>1686</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="645" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -14543,13 +14546,13 @@
         <v>6</v>
       </c>
       <c r="B645" s="1" t="s">
-        <v>1326</v>
+        <v>1323</v>
       </c>
       <c r="C645" s="1" t="s">
-        <v>1327</v>
+        <v>1324</v>
       </c>
       <c r="D645" s="1" t="s">
-        <v>1641</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="646" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -14557,13 +14560,13 @@
         <v>6</v>
       </c>
       <c r="B646" s="1" t="s">
-        <v>1328</v>
+        <v>1325</v>
       </c>
       <c r="C646" s="1" t="s">
-        <v>1329</v>
+        <v>1326</v>
       </c>
       <c r="D646" s="1" t="s">
-        <v>1642</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="647" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -14571,13 +14574,13 @@
         <v>6</v>
       </c>
       <c r="B647" s="1" t="s">
-        <v>1330</v>
+        <v>1327</v>
       </c>
       <c r="C647" s="1" t="s">
-        <v>1331</v>
+        <v>1328</v>
       </c>
       <c r="D647" s="1" t="s">
-        <v>1643</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="648" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -14585,13 +14588,13 @@
         <v>6</v>
       </c>
       <c r="B648" s="1" t="s">
-        <v>1332</v>
+        <v>1329</v>
       </c>
       <c r="C648" s="1" t="s">
-        <v>1333</v>
+        <v>1330</v>
       </c>
       <c r="D648" s="1" t="s">
-        <v>1644</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="649" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -14599,13 +14602,13 @@
         <v>6</v>
       </c>
       <c r="B649" s="1" t="s">
-        <v>1334</v>
+        <v>1331</v>
       </c>
       <c r="C649" s="1" t="s">
-        <v>1335</v>
+        <v>1332</v>
       </c>
       <c r="D649" s="1" t="s">
-        <v>1645</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="650" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -14613,13 +14616,13 @@
         <v>6</v>
       </c>
       <c r="B650" s="1" t="s">
-        <v>1336</v>
+        <v>1333</v>
       </c>
       <c r="C650" s="1" t="s">
-        <v>1337</v>
+        <v>1334</v>
       </c>
       <c r="D650" s="1" t="s">
-        <v>1646</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="651" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -14627,13 +14630,13 @@
         <v>6</v>
       </c>
       <c r="B651" s="1" t="s">
-        <v>1338</v>
+        <v>1335</v>
       </c>
       <c r="C651" s="1" t="s">
-        <v>1339</v>
+        <v>1336</v>
       </c>
       <c r="D651" s="1" t="s">
-        <v>1647</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="652" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -14641,13 +14644,13 @@
         <v>6</v>
       </c>
       <c r="B652" s="1" t="s">
-        <v>1340</v>
+        <v>1337</v>
       </c>
       <c r="C652" s="1" t="s">
-        <v>1341</v>
+        <v>1338</v>
       </c>
       <c r="D652" s="1" t="s">
-        <v>1648</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="653" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -14655,13 +14658,13 @@
         <v>6</v>
       </c>
       <c r="B653" s="1" t="s">
-        <v>1342</v>
+        <v>1339</v>
       </c>
       <c r="C653" s="1" t="s">
-        <v>1343</v>
+        <v>1340</v>
       </c>
       <c r="D653" s="1" t="s">
-        <v>1649</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="654" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -14669,13 +14672,13 @@
         <v>6</v>
       </c>
       <c r="B654" s="1" t="s">
-        <v>1344</v>
+        <v>1341</v>
       </c>
       <c r="C654" s="1" t="s">
-        <v>1345</v>
+        <v>1342</v>
       </c>
       <c r="D654" s="1" t="s">
-        <v>1650</v>
+        <v>1646</v>
       </c>
     </row>
     <row r="655" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -14683,13 +14686,13 @@
         <v>6</v>
       </c>
       <c r="B655" s="1" t="s">
-        <v>1346</v>
+        <v>1343</v>
       </c>
       <c r="C655" s="1" t="s">
-        <v>1347</v>
+        <v>1344</v>
       </c>
       <c r="D655" s="1" t="s">
-        <v>1651</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="656" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -14697,13 +14700,13 @@
         <v>6</v>
       </c>
       <c r="B656" s="1" t="s">
-        <v>1348</v>
+        <v>1345</v>
       </c>
       <c r="C656" s="1" t="s">
-        <v>1349</v>
+        <v>1346</v>
       </c>
       <c r="D656" s="1" t="s">
-        <v>1652</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="657" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -14711,13 +14714,13 @@
         <v>6</v>
       </c>
       <c r="B657" s="1" t="s">
-        <v>1350</v>
+        <v>1347</v>
       </c>
       <c r="C657" s="1" t="s">
-        <v>1351</v>
+        <v>1348</v>
       </c>
       <c r="D657" s="1" t="s">
-        <v>1653</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="658" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -14725,13 +14728,13 @@
         <v>6</v>
       </c>
       <c r="B658" s="1" t="s">
-        <v>1352</v>
+        <v>1349</v>
       </c>
       <c r="C658" s="1" t="s">
-        <v>1353</v>
+        <v>1350</v>
       </c>
       <c r="D658" s="1" t="s">
-        <v>1654</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="659" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -14739,13 +14742,13 @@
         <v>6</v>
       </c>
       <c r="B659" s="1" t="s">
-        <v>1354</v>
+        <v>1351</v>
       </c>
       <c r="C659" s="1" t="s">
-        <v>1355</v>
+        <v>1352</v>
       </c>
       <c r="D659" s="1" t="s">
-        <v>1655</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="660" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -14753,13 +14756,13 @@
         <v>6</v>
       </c>
       <c r="B660" s="1" t="s">
-        <v>1356</v>
+        <v>1353</v>
       </c>
       <c r="C660" s="1" t="s">
-        <v>1670</v>
+        <v>1666</v>
       </c>
       <c r="D660" s="1" t="s">
-        <v>1671</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="661" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -14767,13 +14770,13 @@
         <v>6</v>
       </c>
       <c r="B661" s="1" t="s">
-        <v>1357</v>
+        <v>1354</v>
       </c>
       <c r="C661" s="1" t="s">
-        <v>1672</v>
+        <v>1668</v>
       </c>
       <c r="D661" s="1" t="s">
-        <v>1673</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="662" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -14781,13 +14784,13 @@
         <v>6</v>
       </c>
       <c r="B662" s="1" t="s">
-        <v>1358</v>
+        <v>1355</v>
       </c>
       <c r="C662" s="1" t="s">
-        <v>1674</v>
+        <v>1670</v>
       </c>
       <c r="D662" s="1" t="s">
-        <v>1675</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="663" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -14795,13 +14798,13 @@
         <v>6</v>
       </c>
       <c r="B663" s="1" t="s">
-        <v>1359</v>
+        <v>1356</v>
       </c>
       <c r="C663" s="1" t="s">
-        <v>1676</v>
+        <v>1672</v>
       </c>
       <c r="D663" s="1" t="s">
-        <v>1677</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="664" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -14809,13 +14812,13 @@
         <v>6</v>
       </c>
       <c r="B664" s="1" t="s">
-        <v>1360</v>
+        <v>1357</v>
       </c>
       <c r="C664" s="1" t="s">
-        <v>1678</v>
+        <v>1674</v>
       </c>
       <c r="D664" s="1" t="s">
-        <v>1679</v>
+        <v>1675</v>
       </c>
     </row>
     <row r="665" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -14823,13 +14826,13 @@
         <v>6</v>
       </c>
       <c r="B665" s="1" t="s">
-        <v>1361</v>
+        <v>1358</v>
       </c>
       <c r="C665" s="1" t="s">
-        <v>1680</v>
+        <v>1676</v>
       </c>
       <c r="D665" s="1" t="s">
-        <v>1681</v>
+        <v>1677</v>
       </c>
     </row>
     <row r="666" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -14837,18 +14840,18 @@
         <v>6</v>
       </c>
       <c r="B666" s="1" t="s">
-        <v>1362</v>
+        <v>1359</v>
       </c>
       <c r="C666" s="1" t="s">
-        <v>1363</v>
+        <v>1360</v>
       </c>
       <c r="D666" s="1" t="s">
-        <v>1656</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="668" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A668" s="1" t="s">
-        <v>1364</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="669" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -14856,13 +14859,13 @@
         <v>6</v>
       </c>
       <c r="B669" s="1" t="s">
-        <v>1365</v>
+        <v>1362</v>
       </c>
       <c r="C669" s="1" t="s">
-        <v>1366</v>
+        <v>1363</v>
       </c>
       <c r="D669" s="1" t="s">
-        <v>1306</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="670" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -14870,13 +14873,13 @@
         <v>6</v>
       </c>
       <c r="B670" s="1" t="s">
-        <v>1367</v>
+        <v>1364</v>
       </c>
       <c r="C670" s="1" t="s">
-        <v>1368</v>
+        <v>1365</v>
       </c>
       <c r="D670" s="1" t="s">
-        <v>1369</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="671" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -14890,7 +14893,7 @@
         <v>573</v>
       </c>
       <c r="D671" s="1" t="s">
-        <v>1370</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="672" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -14898,13 +14901,13 @@
         <v>6</v>
       </c>
       <c r="B672" s="1" t="s">
-        <v>1371</v>
+        <v>1368</v>
       </c>
       <c r="C672" s="1" t="s">
-        <v>1372</v>
+        <v>1369</v>
       </c>
       <c r="D672" s="1" t="s">
-        <v>1373</v>
+        <v>1370</v>
       </c>
     </row>
   </sheetData>
@@ -14912,7 +14915,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:D12 A14:D25 A13:B13 D13 A27:D31 A26:B26 D26 A33:D38 A32:B32 A40:D42 A39:B39 D39 A44:D50 A43:B43 A52:D64 A51:B51 A86:D88 A85:C85 A97:D99 A96:C96 A101:D104 A100:C100 A107:D111 A106:B106 D106 A115:D115 A112:B112 D112 A113:B113 A114:B114 A117:D118 A116:C116 A121:D123 A119:B119 A120:C120 A131:D138 A128:B128 D128 A129:B129 D129 A130:B130 D130 A142:D143 A141:C141 A145:D148 A144:C144 A205:D205 A204:B204 A226:D230 A225:B225 A235:D244 A234:B234 A246:D247 A245:C245 A252:C252 A248:C248 A249:C249 A250:C250 A251:B251 A254:D256 A253:C253 A258:D267 A257:B257 D257 A286:D288 A285:B285 A290:D295 A289:B289 D289 A297:D298 A296:B296 D296 A301:D301 A299:C299 A300:C300 A307:D308 A302:B302 D302 A303:B303 A304:B304 A305:C305 A306:C306 A310:D310 A309:C309 A313:D341 A311:B311 A312:B312 A591:D609 A590:C590 A566:B566 A556:B556 A557:B557 A558:B558 A559:B559 A560:B560 A561:B561 A627:D629 A625:C625 A562:B562 A626:C626 A563:B563 A564:B564 A565:B565 A667:D672 A631:B631 A632:B632 A633:B633 A572:B572 A567:B567 A568:C568 A569:B569 A570:B570 A580:D583 A573:C573 A574:B574 A575:C575 A576:B576 A577:C577 A578:B578 A579:C579 A343:D350 A342:B342 A358:D358 A357:C357 A362:D363 A360:B360 A361:B361 A359:C359 A365:D369 A364:B364 D364 A372:D380 A370:B370 A371:B371 A383:D388 A381:C381 A382:B382 A390:D396 A389:C389 A401:D404 A397:B397 A398:B398 A399:B399 A400:C400 A406:D406 A405:B405 A409:D413 A408:C408 A417:D418 A414:C414 A415:B415 A416:B416 A420:D420 A419:C419 A422:D425 A421:C421 A427:D428 A426:B426 D426 A433:D434 A429:B429 A430:B430 A437:B437 A435:B435 A439:D440 A438:C438 A443:B443 A442:B442 D442 A441:B441 D441 A446:D446 A444:B444 A445:B445 A450:D452 A448:B448 A449:B449 A459:D462 A455:B455 A456:B456 D456 A457:C457 A458:B458 A465:D468 A463:B463 D463 A464:B464 D464 A477:D478 A476:C476 A480:D484 A479:B479 A494:D498 A492:C492 A493:B493 D493 A506:C506 A499:B499 A500:B500 A501:B501 A502:B502 A503:B503 A504:C504 A505:B505 A508:C508 A507:B507 A512:D512 A509:B509 A530:C530 A513:B513 A514:B514 A515:C515 A516:B516 A517:C517 A518:C518 A519:C519 A520:C520 A521:B521 A522:C522 A523:C523 A524:B524 A525:C525 A526:C526 A527:B527 A528:C528 A529:C529 A533:D536 A531:B531 D531 A532:C532 A539:D541 A537:B537 A538:B538 A207:D209 A206:B206 A212:D224 A211:B211 A210:B210 A273:D282 A272:B272 A269:D271 A268:B268 A284:D284 A283:B283 A571:B571 A431:B431 A611:D624 A610:B610 A353:D356 A351:B351 D351 A352:B352 D352 A66:D84 A65:C65 A90:D95 A89:C89 A125:D127 A124:C124 A140:D140 A139:C139 A150:D180 A149:B149 A182:D183 A181:B181 D181 A185:D195 A184:B184 D184 A197:D203 A196:B196 D196 A232:D233 A231:C231 A407:B407 D407 A105:C105 A432:B432 A436:B436 A447:B447 A486:D490 A485:C485 A491:C491 A510:C510 A511:C511 A471:D471 A469:B469 D469 A454:B454 A453:B453 A470:C470 A473:D475 A472:B472 A549:D550 A548:B548 A547:B547 D547 A543:D544 A542:C542 A546:D546 A545:B545 D545 A552:D552 A551:B551 D551 A554:D555 A553:B553 D553 A630:B630 A585:D589 A584:C584 A634:C634 A635:C635 A636:C640 A642:C659 A641:B641 A666:C666 A660:B660 A661:B661 A662:B662 A663:B663 A664:B664 A665:B665" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:D12 A14:D25 A13:B13 D13 A27:D31 A26:B26 D26 A33:D38 A32:B32 A40:D42 A39:B39 D39 A44:D50 A43:B43 A52:D64 A51:B51 A86:D88 A85:C85 A97:D99 A96:C96 A101:D104 A100:C100 A107:D111 A106:B106 D106 A115:D115 A112:B112 D112 A113:B113 A114:B114 A117:D118 A116:C116 A121:D123 A119:B119 A120:C120 A131:D138 A128:B128 D128 A129:B129 D129 A130:B130 D130 A142:D143 A141:C141 A145:D148 A144:C144 A205:D205 A204:B204 A226:D230 A225:B225 A235:D244 A234:B234 A246:D247 A245:C245 A252:C252 A248:C248 A249:C249 A250:C250 A251:B251 A254:D256 A253:C253 A258:D267 A257:B257 D257 A286:D288 A285:B285 A290:D295 A289:B289 D289 A297:D298 A296:B296 D296 A301:D301 A299:C299 A300:C300 A307:D308 A302:B302 D302 A303:B303 A304:B304 A305:C305 A306:C306 A310:D310 A309:C309 A313:D341 A311:B311 A312:B312 A591:D609 A590:C590 A566:B566 A556:B556 A557:B557 A558:B558 A559:B559 A560:B560 A561:B561 A627:D629 A625:C625 A562:B562 A626:C626 A563:B563 A564:B564 A565:B565 A667:D672 A631:B631 A632:B632 A633:B633 A572:B572 A567:B567 A568:C568 A569:B569 A570:B570 A580:D583 A573:C573 A574:B574 A575:C575 A576:B576 A577:C577 A578:B578 A579:C579 A343:D350 A342:B342 A358:D358 A357:C357 A362:D363 A360:B360 A361:B361 A359:C359 A365:D369 A364:B364 D364 A372:D380 A370:B370 A371:B371 A383:D388 A381:C381 A382:B382 A390:D396 A389:C389 A401:D404 A397:B397 A398:B398 A399:B399 A400:C400 A406:D406 A405:B405 A409:D413 A408:C408 A417:D418 A414:C414 A415:B415 A416:B416 A420:D420 A419:C419 A422:D425 A421:C421 A427:D428 A426:B426 D426 A433:D434 A429:B429 A430:B430 A437:B437 A435:B435 A439:D440 A438:C438 A443:B443 A442:B442 D442 A441:B441 D441 A446:D446 A444:B444 A445:B445 A450:D452 A448:B448 A449:B449 A459:D462 A455:B455 A456:B456 D456 A457:C457 A458:B458 A465:D468 A463:B463 D463 A464:B464 D464 A477:D478 A476:C476 A480:D484 A479:B479 A494:D498 A492:C492 A493:B493 D493 A506:C506 A499:B499 A500:B500 A501:B501 A502:B502 A503:B503 A504:C504 A505:B505 A508:C508 A507:B507 A512:D512 A509:B509 A530:C530 A513:B513 A514:B514 A515:C515 A516:B516 A517:C517 A518:C518 A519:C519 A520:C520 A521:B521 A522:C522 A523:C523 A524:B524 A525:C525 A526:C526 A527:B527 A528:C528 A529:C529 A533:D534 A531:B531 D531 A532:C532 A539:D541 A537:B537 A538:B538 A207:D209 A206:B206 A212:D224 A211:B211 A210:B210 A273:D282 A272:B272 A269:D271 A268:B268 A284:D284 A283:B283 A571:B571 A431:B431 A611:D624 A610:B610 A353:D356 A351:B351 D351 A352:B352 D352 A66:D84 A65:C65 A90:D95 A89:C89 A125:D127 A124:C124 A140:D140 A139:C139 A150:D180 A149:B149 A182:D183 A181:B181 D181 A185:D195 A184:B184 D184 A197:D203 A196:B196 D196 A232:D233 A231:C231 A407:B407 D407 A105:C105 A432:B432 A436:B436 A447:B447 A487:D490 A485:C485 A491:C491 A510:C510 A511:C511 A471:D471 A469:B469 D469 A454:B454 A453:B453 A470:C470 A473:D475 A472:B472 A549:D550 A548:B548 A547:B547 D547 A543:D544 A542:C542 A546:D546 A545:B545 D545 A552:D552 A551:B551 D551 A554:D555 A553:B553 D553 A630:B630 A585:D589 A584:C584 A634:C634 A635:C635 A636:C640 A642:C659 A641:B641 A666:C666 A660:B660 A661:B661 A662:B662 A663:B663 A664:B664 A665:B665 A486:C486 A536:D536 A535:B535" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>